--- a/root/result.xlsx
+++ b/root/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,2631 +434,3635 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Hyperparameter Batch size = 4, Learning rate = 2e-4, optimizer = adam, aug = 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>landmark_num</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>landmark_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>aver</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8694895053995684</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8694895053995684</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sella</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1212435565298096</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1212435565298096</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>R FZP</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1056550992617137</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1056550992617137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L FZP</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.056550992617039</v>
+        <v>5.196152422706632</v>
       </c>
       <c r="D5" t="n">
-        <v>1.056550992617039</v>
+        <v>12.12435565298214</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.660254037844387</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.660254037844387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R Or</t>
+          <t>Sella</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01905255888325017</v>
+        <v>3.464101615137754</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01905255888325017</v>
+        <v>12.12435565298214</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.464101615137754</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.350852961085883</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L Or</t>
+          <t>R FZP</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1593486742963099</v>
+        <v>5.196152422706632</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1593486742963099</v>
+        <v>10.39230484541326</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.196152422706632</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.928203230275508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R Po</t>
+          <t>L FZP</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.04330127018921947</v>
+        <v>1.056550992617039</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04330127018921947</v>
+        <v>1.056550992617039</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.056550992617039</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.056550992617039</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L Po</t>
+          <t>R Or</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.853901048131497</v>
+        <v>0.01905255888325017</v>
       </c>
       <c r="D9" t="n">
-        <v>0.853901048131497</v>
+        <v>0.01905255888325017</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01905255888325017</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01905255888325017</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R TFP</t>
+          <t>L Or</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.07447818472546044</v>
+        <v>0.1593486742963099</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07447818472546044</v>
+        <v>0.1593486742963099</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1593486742963099</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1593486742963099</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>L TFP</t>
+          <t>R Po</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2856.151781681079</v>
+        <v>0.04330127018921947</v>
       </c>
       <c r="D11" t="n">
-        <v>2856.151781681079</v>
+        <v>0.04330127018921947</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.04330127018921947</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04330127018921947</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R KRP</t>
+          <t>L Po</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1524204710660506</v>
+        <v>0.853901048131497</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1524204710660506</v>
+        <v>0.853901048131497</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.853901048131497</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.853901048131497</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>L KRP</t>
+          <t>R TFP</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2513.205721782441</v>
+        <v>0.07447818472546044</v>
       </c>
       <c r="D13" t="n">
-        <v>2513.205721782441</v>
+        <v>0.07447818472546044</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.07447818472546044</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.07447818472546044</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ANS</t>
+          <t>L TFP</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1827.313601985166</v>
+        <v>2856.151781681079</v>
       </c>
       <c r="D14" t="n">
-        <v>1827.313601985166</v>
+        <v>2856.151781681079</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2856.151781681079</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2856.151781681079</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PNS</t>
+          <t>R KRP</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1827.313601985166</v>
+        <v>0.1524204710660506</v>
       </c>
       <c r="D15" t="n">
-        <v>1827.313601985166</v>
+        <v>969.9484522385712</v>
+      </c>
+      <c r="E15" t="n">
+        <v>969.9484522385712</v>
+      </c>
+      <c r="F15" t="n">
+        <v>646.6831083160695</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>L KRP</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1827.313601985166</v>
+        <v>2513.205721782441</v>
       </c>
       <c r="D16" t="n">
-        <v>1827.313601985166</v>
+        <v>829.6523368254922</v>
+      </c>
+      <c r="E16" t="n">
+        <v>829.6523368254922</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1390.836798477809</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>ANS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1811.725144717046</v>
+        <v>1827.313601985166</v>
       </c>
       <c r="D17" t="n">
-        <v>1811.725144717046</v>
+        <v>1110.24456765165</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1110.24456765165</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1349.267579096155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pog</t>
+          <t>PNS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1796.136687448926</v>
+        <v>1827.313601985166</v>
       </c>
       <c r="D18" t="n">
-        <v>1796.136687448926</v>
+        <v>969.9484522385712</v>
+      </c>
+      <c r="E18" t="n">
+        <v>969.9484522385712</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1255.736835487436</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gn</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1796.136687448926</v>
+        <v>1827.313601985166</v>
       </c>
       <c r="D19" t="n">
-        <v>1796.136687448926</v>
+        <v>985.5369095066911</v>
+      </c>
+      <c r="E19" t="n">
+        <v>985.5369095066911</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1266.129140332849</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Me</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1796.136687448926</v>
+        <v>1811.725144717046</v>
       </c>
       <c r="D20" t="n">
-        <v>1796.136687448926</v>
+        <v>923.1830804342115</v>
+      </c>
+      <c r="E20" t="n">
+        <v>923.1830804342115</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1219.36376852849</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R CP Point</t>
+          <t>Pog</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.009785620812653</v>
+        <v>1796.136687448926</v>
       </c>
       <c r="D21" t="n">
-        <v>1.009785620812653</v>
+        <v>969.9484522385712</v>
+      </c>
+      <c r="E21" t="n">
+        <v>969.9484522385712</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1245.344530642023</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>L CP Point</t>
+          <t>Gn</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2575.55955085492</v>
+        <v>1796.136687448926</v>
       </c>
       <c r="D22" t="n">
-        <v>2575.55955085492</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2388.498063637482</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R Sigmoid notch</t>
+          <t>Me</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.02771281292108668</v>
+        <v>1796.136687448926</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02771281292108668</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2388.498063637482</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>L Sigmoid notch</t>
+          <t>R CP Point</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2591.148008123041</v>
+        <v>1.009785620812653</v>
       </c>
       <c r="D24" t="n">
-        <v>2591.148008123041</v>
+        <v>2528.794179050561</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2528.794179050561</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1686.199381240645</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R Anterior ramal point</t>
+          <t>L CP Point</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.072139449885135</v>
+        <v>2575.55955085492</v>
       </c>
       <c r="D25" t="n">
-        <v>1.072139449885135</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2648.305684772813</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>L Anterior ramal point</t>
+          <t>R Sigmoid notch</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2482.028807246201</v>
+        <v>0.02771281292108668</v>
       </c>
       <c r="D26" t="n">
-        <v>2482.028807246201</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1789.795072092147</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R Post Go</t>
+          <t>L Sigmoid notch</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.635662646377761</v>
+        <v>2591.148008123041</v>
       </c>
       <c r="D27" t="n">
-        <v>0.635662646377761</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2653.50183719552</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>L Post Go</t>
+          <t>R Anterior ramal point</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2544.382636318681</v>
+        <v>1.072139449885135</v>
       </c>
       <c r="D28" t="n">
-        <v>2544.382636318681</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1790.143214304468</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R Go</t>
+          <t>L Anterior ramal point</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4018357873559784</v>
+        <v>2482.028807246201</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4018357873559784</v>
+        <v>814.0638795573723</v>
+      </c>
+      <c r="E29" t="n">
+        <v>814.0638795573723</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1370.052188786982</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>L Go</t>
+          <t>R Post Go</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2513.205721782441</v>
+        <v>0.635662646377761</v>
       </c>
       <c r="D30" t="n">
-        <v>2513.205721782441</v>
+        <v>1188.18685399225</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1188.18685399225</v>
+      </c>
+      <c r="F30" t="n">
+        <v>792.3364568769592</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R Inf Go</t>
+          <t>L Post Go</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.087727907153255</v>
+        <v>2544.382636318681</v>
       </c>
       <c r="D31" t="n">
-        <v>1.087727907153255</v>
+        <v>969.9484522385712</v>
+      </c>
+      <c r="E31" t="n">
+        <v>969.9484522385712</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1494.759846931941</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>L Inf Go</t>
+          <t>R Go</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2497.617264514321</v>
+        <v>0.4018357873559784</v>
       </c>
       <c r="D32" t="n">
-        <v>2497.617264514321</v>
+        <v>1001.125366774811</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1001.125366774811</v>
+      </c>
+      <c r="F32" t="n">
+        <v>667.5508564456594</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>U1MP</t>
+          <t>L Go</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1827.313601985166</v>
+        <v>2513.205721782441</v>
       </c>
       <c r="D33" t="n">
-        <v>1827.313601985166</v>
+        <v>923.1830804342115</v>
+      </c>
+      <c r="E33" t="n">
+        <v>923.1830804342115</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1453.190627550288</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R U1CP</t>
+          <t>R Inf Go</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1764.959772912686</v>
+        <v>1.087727907153255</v>
       </c>
       <c r="D34" t="n">
-        <v>1764.959772912686</v>
+        <v>969.9484522385712</v>
+      </c>
+      <c r="E34" t="n">
+        <v>969.9484522385712</v>
+      </c>
+      <c r="F34" t="n">
+        <v>646.9948774614319</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R U1RP</t>
+          <t>L Inf Go</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1780.548230180806</v>
+        <v>2497.617264514321</v>
       </c>
       <c r="D35" t="n">
-        <v>1780.548230180806</v>
+        <v>2840.563324412959</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2840.563324412959</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2726.247971113413</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>L U1CP</t>
+          <t>U1MP</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1889.667431057645</v>
+        <v>1827.313601985166</v>
       </c>
       <c r="D36" t="n">
-        <v>1889.667431057645</v>
+        <v>2372.909606369362</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2372.909606369362</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2191.04427157463</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>L U1RP</t>
+          <t>R U1CP</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1874.078973789525</v>
+        <v>1764.959772912686</v>
       </c>
       <c r="D37" t="n">
-        <v>1874.078973789525</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2378.105758792069</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R U3CP</t>
+          <t>R U1RP</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.9162548772039298</v>
+        <v>1780.548230180806</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9162548772039298</v>
+        <v>2528.794179050561</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2528.794179050561</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2279.378862760643</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R U3RP</t>
+          <t>L U1CP</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1577.898285695247</v>
+        <v>1889.667431057645</v>
       </c>
       <c r="D39" t="n">
-        <v>1577.898285695247</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2419.674978173721</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>L U3CP</t>
+          <t>L U1RP</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2123.494290079444</v>
+        <v>1874.078973789525</v>
       </c>
       <c r="D40" t="n">
-        <v>2123.494290079444</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2414.478825751015</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>L U3RP</t>
+          <t>R U3CP</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2061.140461006964</v>
+        <v>0.9162548772039298</v>
       </c>
       <c r="D41" t="n">
-        <v>2061.140461006964</v>
+        <v>0.1524204710660506</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1524204710660506</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.407031939778677</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R U6CP</t>
+          <t>R U3RP</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.1905255888325755</v>
+        <v>1577.898285695247</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1905255888325755</v>
+        <v>2513.205721782441</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2513.205721782441</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2201.436576420043</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R U6RP</t>
+          <t>L U3CP</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.2684678751731779</v>
+        <v>2123.494290079444</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2684678751731779</v>
+        <v>1827.313601985166</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1827.313601985166</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1926.040498016592</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>L U6CP</t>
+          <t>L U3RP</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2232.613490956283</v>
+        <v>2061.140461006964</v>
       </c>
       <c r="D44" t="n">
-        <v>2232.613490956283</v>
+        <v>1827.313601985166</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1827.313601985166</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1905.255888325765</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>L U6RP</t>
+          <t>R U6CP</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2232.613490956283</v>
+        <v>0.1905255888325755</v>
       </c>
       <c r="D45" t="n">
-        <v>2232.613490956283</v>
+        <v>1827.313601985166</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1827.313601985166</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1218.272576519721</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>L1MP</t>
+          <t>R U6RP</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1811.725144717046</v>
+        <v>0.2684678751731779</v>
       </c>
       <c r="D46" t="n">
-        <v>1811.725144717046</v>
+        <v>1047.890738579171</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1047.890738579171</v>
+      </c>
+      <c r="F46" t="n">
+        <v>698.6833150111717</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R L1CP</t>
+          <t>L U6CP</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1811.725144717046</v>
+        <v>2232.613490956283</v>
       </c>
       <c r="D47" t="n">
-        <v>1811.725144717046</v>
+        <v>2528.794179050561</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2528.794179050561</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2430.067283019135</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R L1RP</t>
+          <t>L U6RP</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1764.959772912686</v>
+        <v>2232.613490956283</v>
       </c>
       <c r="D48" t="n">
-        <v>1764.959772912686</v>
+        <v>782.8869650211325</v>
+      </c>
+      <c r="E48" t="n">
+        <v>782.8869650211325</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1266.129140332849</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>L L1CP</t>
+          <t>L1MP</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1780.548230180806</v>
+        <v>1811.725144717046</v>
       </c>
       <c r="D49" t="n">
-        <v>1780.548230180806</v>
+        <v>2840.563324412959</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2840.563324412959</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2497.617264514321</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>L L1RP</t>
+          <t>R L1CP</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1858.490516521405</v>
+        <v>1811.725144717046</v>
       </c>
       <c r="D50" t="n">
-        <v>1858.490516521405</v>
+        <v>1811.725144717046</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1811.725144717046</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1811.725144717046</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R L3CP</t>
+          <t>R L1RP</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1827.313601985166</v>
+        <v>1764.959772912686</v>
       </c>
       <c r="D51" t="n">
-        <v>1827.313601985166</v>
+        <v>1796.136687448926</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1796.136687448926</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1785.744382603513</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R L3RP</t>
+          <t>L L1CP</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1593.486742963367</v>
+        <v>1780.548230180806</v>
       </c>
       <c r="D52" t="n">
-        <v>1593.486742963367</v>
+        <v>1796.136687448926</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1796.136687448926</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1790.940535026219</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>L L3CP</t>
+          <t>L L1RP</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1593.486742963367</v>
+        <v>1858.490516521405</v>
       </c>
       <c r="D53" t="n">
-        <v>1593.486742963367</v>
+        <v>1796.136687448926</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1796.136687448926</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1816.921297139752</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>L L3RP</t>
+          <t>R L3CP</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2029.963546470724</v>
+        <v>1827.313601985166</v>
       </c>
       <c r="D54" t="n">
-        <v>2029.963546470724</v>
+        <v>1.009785620812653</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.009785620812653</v>
+      </c>
+      <c r="F54" t="n">
+        <v>609.7777244089305</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R L6CP</t>
+          <t>R L3RP</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1983.198174666365</v>
+        <v>1593.486742963367</v>
       </c>
       <c r="D55" t="n">
-        <v>1983.198174666365</v>
+        <v>2575.55955085492</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2575.55955085492</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2248.201948224403</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R L6RP</t>
+          <t>L L3CP</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.7915472190589905</v>
+        <v>1593.486742963367</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7915472190589905</v>
+        <v>0.02771281292108668</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.02771281292108668</v>
+      </c>
+      <c r="F56" t="n">
+        <v>531.1807228630697</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>L L6CP</t>
+          <t>L L3RP</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.134493278957617</v>
+        <v>2029.963546470724</v>
       </c>
       <c r="D57" t="n">
-        <v>1.134493278957617</v>
+        <v>2591.148008123041</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2591.148008123041</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2404.086520905601</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>L L6RP</t>
+          <t>R L6CP</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2123.494290079444</v>
+        <v>1983.198174666365</v>
       </c>
       <c r="D58" t="n">
-        <v>2123.494290079444</v>
+        <v>1.072139449885135</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.072139449885135</v>
+      </c>
+      <c r="F58" t="n">
+        <v>661.7808178553784</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Stomion super</t>
+          <t>R L6RP</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2185.848119151923</v>
+        <v>0.7915472190589905</v>
       </c>
       <c r="D59" t="n">
-        <v>2185.848119151923</v>
+        <v>2482.028807246201</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2482.028807246201</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1654.949720570487</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columella	</t>
+          <t>L L6CP</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1811.725144717046</v>
+        <v>1.134493278957617</v>
       </c>
       <c r="D60" t="n">
-        <v>1811.725144717046</v>
+        <v>0.635662646377761</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.635662646377761</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.8019395239043797</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Subnasale	</t>
+          <t>L L6RP</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1827.313601985166</v>
+        <v>2123.494290079444</v>
       </c>
       <c r="D61" t="n">
-        <v>1827.313601985166</v>
+        <v>2544.382636318681</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2544.382636318681</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2404.086520905602</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Upper lip	</t>
+          <t>Stomion super</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1842.902059253285</v>
+        <v>2185.848119151923</v>
       </c>
       <c r="D62" t="n">
-        <v>1842.902059253285</v>
+        <v>0.4018357873559784</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.4018357873559784</v>
+      </c>
+      <c r="F62" t="n">
+        <v>728.8839302422117</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S Pogonion</t>
+          <t xml:space="preserve">Columella	</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1827.313601985166</v>
+        <v>1811.725144717046</v>
       </c>
       <c r="D63" t="n">
-        <v>1827.313601985166</v>
+        <v>2513.205721782441</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2513.205721782441</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2279.378862760643</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R U2CP</t>
+          <t xml:space="preserve">Subnasale	</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1842.902059253285</v>
+        <v>1827.313601985166</v>
       </c>
       <c r="D64" t="n">
-        <v>1842.902059253285</v>
+        <v>1.087727907153255</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.087727907153255</v>
+      </c>
+      <c r="F64" t="n">
+        <v>609.8296859331575</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R U2RP</t>
+          <t xml:space="preserve">Upper lip	</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1640.252114767727</v>
+        <v>1842.902059253285</v>
       </c>
       <c r="D65" t="n">
-        <v>1640.252114767727</v>
+        <v>2497.617264514321</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2497.617264514321</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2279.378862760642</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>L U2CP</t>
+          <t>S Pogonion</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1671.429029303966</v>
+        <v>1827.313601985166</v>
       </c>
       <c r="D66" t="n">
-        <v>1671.429029303966</v>
+        <v>1905.255888325765</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1905.255888325765</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1879.275126212232</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>L U2RP</t>
+          <t>R U2CP</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2014.375089202604</v>
+        <v>1842.902059253285</v>
       </c>
       <c r="D67" t="n">
-        <v>2014.375089202604</v>
+        <v>1749.371315644566</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1749.371315644566</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1780.548230180805</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R U4CP</t>
+          <t>R U2RP</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1952.021260130125</v>
+        <v>1640.252114767727</v>
       </c>
       <c r="D68" t="n">
-        <v>1952.021260130125</v>
+        <v>1827.313601985166</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1827.313601985166</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1764.959772912686</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R U4RP</t>
+          <t>L U2CP</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1546721.371159007</v>
+        <v>1671.429029303966</v>
       </c>
       <c r="D69" t="n">
-        <v>1546721.371159007</v>
+        <v>1827.313601985166</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1827.313601985166</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1775.352077758099</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>L U4CP</t>
+          <t>L U2RP</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1546721.371159007</v>
+        <v>2014.375089202604</v>
       </c>
       <c r="D70" t="n">
-        <v>1546721.371159007</v>
+        <v>1764.959772912686</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1764.959772912686</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1848.098211675992</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>L U4RP</t>
+          <t>R U4CP</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1546721.371159007</v>
+        <v>1952.021260130125</v>
       </c>
       <c r="D71" t="n">
-        <v>1546721.371159007</v>
+        <v>1780.548230180806</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1780.548230180806</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1837.705906830579</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R U5CP</t>
+          <t>R U4RP</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>1546721.371159007</v>
       </c>
       <c r="D72" t="n">
-        <v>1546721.371159007</v>
+        <v>0.9162548772039298</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.9162548772039298</v>
+      </c>
+      <c r="F72" t="n">
+        <v>515574.4012229205</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R U5RP</t>
+          <t>L U4CP</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.1212435565298096</v>
+        <v>1546721.371159007</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1212435565298096</v>
+        <v>1577.898285695247</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1577.898285695247</v>
+      </c>
+      <c r="F73" t="n">
+        <v>516625.7225767993</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>L U5CP</t>
+          <t>L U4RP</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.2528794179050575</v>
+        <v>1546721.371159007</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2528794179050575</v>
+        <v>0.1905255888325755</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.1905255888325755</v>
+      </c>
+      <c r="F74" t="n">
+        <v>515573.9174033949</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>L U5RP</t>
+          <t>R U5CP</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2185.848119151923</v>
+        <v>1546721.371159007</v>
       </c>
       <c r="D75" t="n">
-        <v>2185.848119151923</v>
+        <v>0.2684678751731779</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.2684678751731779</v>
+      </c>
+      <c r="F75" t="n">
+        <v>515573.9693649192</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R U7CP</t>
+          <t>R U5RP</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2154.671204615684</v>
+        <v>0.1212435565298096</v>
       </c>
       <c r="D76" t="n">
-        <v>2154.671204615684</v>
+        <v>1531.132913890887</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1531.132913890887</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1020.795690446102</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R U7RP</t>
+          <t>L U5CP</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.9630202490082912</v>
+        <v>0.2528794179050575</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9630202490082912</v>
+        <v>1889.667431057645</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1889.667431057645</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1259.862580511065</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>L U7CP</t>
+          <t>L U5RP</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.2771281292110391</v>
+        <v>2185.848119151923</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2771281292110391</v>
+        <v>1874.078973789525</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1874.078973789525</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1978.002022243658</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>L U7RP</t>
+          <t>R U7CP</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2279.378862760643</v>
+        <v>2154.671204615684</v>
       </c>
       <c r="D79" t="n">
-        <v>2279.378862760643</v>
+        <v>2123.494290079444</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2123.494290079444</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2133.886594924857</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R L2CP</t>
+          <t>R U7RP</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2248.201948224403</v>
+        <v>0.9630202490082912</v>
       </c>
       <c r="D80" t="n">
-        <v>2248.201948224403</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1374.414647420979</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R L2RP</t>
+          <t>L U7CP</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1687.017486572086</v>
+        <v>0.2771281292110391</v>
       </c>
       <c r="D81" t="n">
-        <v>1687.017486572086</v>
+        <v>2232.613490956283</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2232.613490956283</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1488.501370013925</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>L L2CP</t>
+          <t>L U7RP</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1687.017486572086</v>
+        <v>2279.378862760643</v>
       </c>
       <c r="D82" t="n">
-        <v>1687.017486572086</v>
+        <v>2232.613490956283</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2232.613490956283</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2248.201948224403</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>L L2RP</t>
+          <t>R L2CP</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1936.432802862005</v>
+        <v>2248.201948224403</v>
       </c>
       <c r="D83" t="n">
-        <v>1936.432802862005</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2123.494290079444</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R L4CP</t>
+          <t>R L2RP</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1905.255888325765</v>
+        <v>1687.017486572086</v>
       </c>
       <c r="D84" t="n">
-        <v>1905.255888325765</v>
+        <v>1811.725144717046</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1811.725144717046</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1770.155925335393</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R L4RP</t>
+          <t>L L2CP</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1499.955999354648</v>
+        <v>1687.017486572086</v>
       </c>
       <c r="D85" t="n">
-        <v>1499.955999354648</v>
+        <v>1811.725144717046</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1811.725144717046</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1770.155925335393</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>L L4CP</t>
+          <t>L L2RP</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1531.132913890887</v>
+        <v>1936.432802862005</v>
       </c>
       <c r="D86" t="n">
-        <v>1531.132913890887</v>
+        <v>1764.959772912686</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1764.959772912686</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1822.117449562459</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>L L4RP</t>
+          <t>R L4CP</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2061.140461006964</v>
+        <v>1905.255888325765</v>
       </c>
       <c r="D87" t="n">
-        <v>2061.140461006964</v>
+        <v>1780.548230180806</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1780.548230180806</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1822.117449562459</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>R L5CP</t>
+          <t>R L4RP</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2061.140461006964</v>
+        <v>1499.955999354648</v>
       </c>
       <c r="D88" t="n">
-        <v>2061.140461006964</v>
+        <v>1593.486742963367</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1593.486742963367</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1562.309828427127</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>R L5RP</t>
+          <t>L L4CP</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1437602.170282168</v>
+        <v>1531.132913890887</v>
       </c>
       <c r="D89" t="n">
-        <v>1437602.170282168</v>
+        <v>1593.486742963367</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1593.486742963367</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1572.702133272541</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>L L5CP</t>
+          <t>L L4RP</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1437602.170282168</v>
+        <v>2061.140461006964</v>
       </c>
       <c r="D90" t="n">
-        <v>1437602.170282168</v>
+        <v>0.7915472190589905</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.7915472190589905</v>
+      </c>
+      <c r="F90" t="n">
+        <v>687.5745184816939</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>L L5RP</t>
+          <t>R L5CP</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1437602.170282168</v>
+        <v>2061.140461006964</v>
       </c>
       <c r="D91" t="n">
-        <v>1437602.170282168</v>
+        <v>1.134493278957617</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.134493278957617</v>
+      </c>
+      <c r="F91" t="n">
+        <v>687.803149188293</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>R L7CP</t>
+          <t>R L5RP</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>1437602.170282168</v>
       </c>
       <c r="D92" t="n">
-        <v>1437602.170282168</v>
+        <v>1858.490516521405</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1858.490516521405</v>
+      </c>
+      <c r="F92" t="n">
+        <v>480439.7171050704</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>R L7RP</t>
+          <t>L L5CP</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1390.836798477809</v>
+        <v>1437602.170282168</v>
       </c>
       <c r="D93" t="n">
-        <v>1390.836798477809</v>
+        <v>1827.313601985166</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1827.313601985166</v>
+      </c>
+      <c r="F93" t="n">
+        <v>480418.9324953794</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>L L7CP</t>
+          <t>L L5RP</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1406.425255745928</v>
+        <v>1437602.170282168</v>
       </c>
       <c r="D94" t="n">
-        <v>1406.425255745928</v>
+        <v>2029.963546470724</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2029.963546470724</v>
+      </c>
+      <c r="F94" t="n">
+        <v>480554.0324583699</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>L L7RP</t>
+          <t>R L7CP</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2217.025033688163</v>
+        <v>1437602.170282168</v>
       </c>
       <c r="D95" t="n">
-        <v>2217.025033688163</v>
+        <v>1983.198174666365</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1983.198174666365</v>
+      </c>
+      <c r="F95" t="n">
+        <v>480522.8555438336</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>R U8CP</t>
+          <t>R L7RP</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2217.025033688163</v>
+        <v>1390.836798477809</v>
       </c>
       <c r="D96" t="n">
-        <v>2217.025033688163</v>
+        <v>2123.494290079444</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2123.494290079444</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1879.275126212232</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>R U8RP</t>
+          <t>L L7CP</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1312.894512137209</v>
+        <v>1406.425255745928</v>
       </c>
       <c r="D97" t="n">
-        <v>1312.894512137209</v>
+        <v>2185.848119151923</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2185.848119151923</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1926.040498016591</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>L U8CP</t>
+          <t>L L7RP</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1359.659883941569</v>
+        <v>2217.025033688163</v>
       </c>
       <c r="D98" t="n">
-        <v>1359.659883941569</v>
+        <v>1811.725144717046</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1811.725144717046</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1946.825107707418</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>L U8RP</t>
+          <t>R U8CP</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>2217.025033688163</v>
       </c>
       <c r="D99" t="n">
-        <v>2217.025033688163</v>
+        <v>1640.252114767727</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1640.252114767727</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1832.509754407872</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>R L8CP</t>
+          <t>R U8RP</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2217.025033688163</v>
+        <v>1312.894512137209</v>
       </c>
       <c r="D100" t="n">
-        <v>2217.025033688163</v>
+        <v>1671.429029303966</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1671.429029303966</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1551.917523581714</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>R L8RP</t>
+          <t>L U8CP</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1297.306054869089</v>
+        <v>1359.659883941569</v>
       </c>
       <c r="D101" t="n">
-        <v>1297.306054869089</v>
+        <v>1546721.371159007</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1546721.371159007</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1031600.800733985</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>L L8CP</t>
+          <t>L U8RP</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1188.18685399225</v>
+        <v>2217.025033688163</v>
       </c>
       <c r="D102" t="n">
-        <v>1188.18685399225</v>
+        <v>1546721.371159007</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1546721.371159007</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1031886.589117234</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>L L8RP</t>
+          <t>R L8CP</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>2217.025033688163</v>
       </c>
       <c r="D103" t="n">
-        <v>2217.025033688163</v>
+        <v>1437602.170282168</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1437602.170282168</v>
+      </c>
+      <c r="F103" t="n">
+        <v>959140.4551993414</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>S Glabella</t>
+          <t>R L8RP</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2372.909606369362</v>
+        <v>1297.306054869089</v>
       </c>
       <c r="D104" t="n">
-        <v>2372.909606369362</v>
+        <v>0.1212435565298096</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.1212435565298096</v>
+      </c>
+      <c r="F104" t="n">
+        <v>432.5161806607162</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>S Nasion</t>
+          <t>L L8CP</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1749.371315644566</v>
+        <v>1188.18685399225</v>
       </c>
       <c r="D105" t="n">
-        <v>1749.371315644566</v>
+        <v>0.2528794179050575</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.2528794179050575</v>
+      </c>
+      <c r="F105" t="n">
+        <v>396.2308709426866</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Pronasale</t>
+          <t>L L8RP</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1749.371315644566</v>
+        <v>2217.025033688163</v>
       </c>
       <c r="D106" t="n">
-        <v>1749.371315644566</v>
+        <v>1484.367542086528</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1484.367542086528</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1728.58670595374</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Lower lip</t>
+          <t>S Glabella</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1749.371315644566</v>
+        <v>2372.909606369362</v>
       </c>
       <c r="D107" t="n">
-        <v>1749.371315644566</v>
+        <v>0.9630202490082912</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.9630202490082912</v>
+      </c>
+      <c r="F107" t="n">
+        <v>791.6118822891262</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Mentolabial Sulc</t>
+          <t>S Nasion</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>1749.371315644566</v>
       </c>
       <c r="D108" t="n">
-        <v>1749.371315644566</v>
+        <v>0.2771281292110391</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.2771281292110391</v>
+      </c>
+      <c r="F108" t="n">
+        <v>583.3085239676626</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Base of Epiglott</t>
+          <t>Pronasale</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>969.9484522385712</v>
+        <v>1749.371315644566</v>
       </c>
       <c r="D109" t="n">
-        <v>969.9484522385712</v>
+        <v>1484.367542086528</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1484.367542086528</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1572.702133272541</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>R Cd-L</t>
+          <t>Lower lip</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1905.255888325765</v>
+        <v>1749.371315644566</v>
       </c>
       <c r="D110" t="n">
-        <v>1905.255888325765</v>
+        <v>1312.894512137209</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1312.894512137209</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1458.386779972995</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>R Cd-M</t>
+          <t>Mentolabial Sulc</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>829.6523368254922</v>
+        <v>1749.371315644566</v>
       </c>
       <c r="D111" t="n">
-        <v>829.6523368254922</v>
+        <v>1359.659883941569</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1359.659883941569</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1489.563694509234</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>R C Cd-S</t>
+          <t>Base of Epiglott</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1110.24456765165</v>
+        <v>969.9484522385712</v>
       </c>
       <c r="D112" t="n">
-        <v>1110.24456765165</v>
+        <v>2014.375089202604</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2014.375089202604</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1666.23287688126</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>R GF-L</t>
+          <t>R Cd-L</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>969.9484522385712</v>
+        <v>1905.255888325765</v>
       </c>
       <c r="D113" t="n">
-        <v>969.9484522385712</v>
+        <v>1952.021260130125</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1952.021260130125</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1936.432802862005</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>R GF-M</t>
+          <t>R Cd-M</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>814.0638795573723</v>
+        <v>829.6523368254922</v>
       </c>
       <c r="D114" t="n">
-        <v>814.0638795573723</v>
+        <v>1546721.371159007</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1546721.371159007</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1031424.131551613</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>R C GF-S</t>
+          <t>R C Cd-S</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1188.18685399225</v>
+        <v>1110.24456765165</v>
       </c>
       <c r="D115" t="n">
-        <v>1188.18685399225</v>
+        <v>1546721.371159007</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1546721.371159007</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1031517.662295222</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>R Cd-A</t>
+          <t>R GF-L</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>969.9484522385712</v>
       </c>
       <c r="D116" t="n">
-        <v>969.9484522385712</v>
+        <v>1437602.170282168</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1437602.170282168</v>
+      </c>
+      <c r="F116" t="n">
+        <v>958724.7630055249</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>R Cd-P</t>
+          <t>R GF-M</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>985.5369095066911</v>
+        <v>814.0638795573723</v>
       </c>
       <c r="D117" t="n">
-        <v>985.5369095066911</v>
+        <v>2185.848119151923</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2185.848119151923</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1728.58670595374</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>R S Cd-S</t>
+          <t>R C GF-S</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>923.1830804342115</v>
+        <v>1188.18685399225</v>
       </c>
       <c r="D118" t="n">
-        <v>923.1830804342115</v>
+        <v>2154.671204615684</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2154.671204615684</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1832.509754407873</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>R GF-A</t>
+          <t>R Cd-A</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>969.9484522385712</v>
       </c>
       <c r="D119" t="n">
-        <v>969.9484522385712</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1697.4097914175</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>R GF-P</t>
+          <t>R Cd-P</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1001.125366774811</v>
+        <v>985.5369095066911</v>
       </c>
       <c r="D120" t="n">
-        <v>1001.125366774811</v>
+        <v>2279.378862760643</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2279.378862760643</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1848.098211675992</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>R S GF-S</t>
+          <t>R S Cd-S</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>923.1830804342115</v>
       </c>
       <c r="D121" t="n">
-        <v>923.1830804342115</v>
+        <v>2248.201948224403</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2248.201948224403</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1806.528992294339</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>L Cd-L</t>
+          <t>R GF-A</t>
         </is>
       </c>
       <c r="C122" t="n">
         <v>969.9484522385712</v>
       </c>
       <c r="D122" t="n">
-        <v>969.9484522385712</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1697.4097914175</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>L Cd-M</t>
+          <t>R GF-P</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2684.67875173176</v>
+        <v>1001.125366774811</v>
       </c>
       <c r="D123" t="n">
-        <v>2684.67875173176</v>
+        <v>2217.025033688163</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2217.025033688163</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1811.725144717046</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>L C Cd-S</t>
+          <t>R S GF-S</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2684.67875173176</v>
+        <v>923.1830804342115</v>
       </c>
       <c r="D124" t="n">
-        <v>2684.67875173176</v>
+        <v>2217.025033688163</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2217.025033688163</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1785.744382603513</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>L GF-L</t>
+          <t>L Cd-L</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2528.794179050561</v>
+        <v>969.9484522385712</v>
       </c>
       <c r="D125" t="n">
-        <v>2528.794179050561</v>
+        <v>1687.017486572086</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1687.017486572086</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1447.994475127581</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>L GF-M</t>
+          <t>L Cd-M</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>2684.67875173176</v>
       </c>
       <c r="D126" t="n">
-        <v>2684.67875173176</v>
+        <v>1687.017486572086</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1687.017486572086</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2019.571241625311</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>L C GF-S</t>
+          <t>L C Cd-S</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2840.563324412959</v>
+        <v>2684.67875173176</v>
       </c>
       <c r="D127" t="n">
-        <v>2840.563324412959</v>
+        <v>1499.955999354648</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1499.955999354648</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1894.863583480352</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>L Cd-A</t>
+          <t>L GF-L</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2372.909606369362</v>
+        <v>2528.794179050561</v>
       </c>
       <c r="D128" t="n">
-        <v>2372.909606369362</v>
+        <v>1531.132913890887</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1531.132913890887</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1863.686668944112</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>L Cd-P</t>
+          <t>L GF-M</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>2684.67875173176</v>
       </c>
       <c r="D129" t="n">
-        <v>2684.67875173176</v>
+        <v>1437602.170282168</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1437602.170282168</v>
+      </c>
+      <c r="F129" t="n">
+        <v>959296.3397720227</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>L S Cd-S</t>
+          <t>L C GF-S</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2684.67875173176</v>
+        <v>2840.563324412959</v>
       </c>
       <c r="D130" t="n">
-        <v>2684.67875173176</v>
+        <v>1437602.170282168</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1437602.170282168</v>
+      </c>
+      <c r="F130" t="n">
+        <v>959348.3012962496</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>L GF-A</t>
+          <t>L Cd-A</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2684.67875173176</v>
+        <v>2372.909606369362</v>
       </c>
       <c r="D131" t="n">
-        <v>2684.67875173176</v>
+        <v>1390.836798477809</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1390.836798477809</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1718.194401108327</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>L GF-P</t>
+          <t>L Cd-P</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>2684.67875173176</v>
       </c>
       <c r="D132" t="n">
-        <v>2684.67875173176</v>
+        <v>1406.425255745928</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1406.425255745928</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1832.509754407872</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>L S GF-S</t>
+          <t>L S Cd-S</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2528.794179050561</v>
+        <v>2684.67875173176</v>
       </c>
       <c r="D133" t="n">
-        <v>2528.794179050561</v>
+        <v>1297.306054869089</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1297.306054869089</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1759.763620489979</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>R Ant. Zygoma</t>
+          <t>L GF-A</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>2684.67875173176</v>
       </c>
       <c r="D134" t="n">
-        <v>2684.67875173176</v>
+        <v>1188.18685399225</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1188.18685399225</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1687.017486572086</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>L Ant. Zygoma</t>
+          <t>L GF-P</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>2684.67875173176</v>
       </c>
       <c r="D135" t="n">
-        <v>2684.67875173176</v>
+        <v>1936.432802862005</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1936.432802862005</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2185.848119151923</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>R Zygion</t>
+          <t>L S GF-S</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1047.890738579171</v>
+        <v>2528.794179050561</v>
       </c>
       <c r="D136" t="n">
-        <v>1047.890738579171</v>
+        <v>1905.255888325765</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1905.255888325765</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2113.101985234031</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>L Zygion</t>
+          <t>R Ant. Zygoma</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2528.794179050561</v>
+        <v>2684.67875173176</v>
       </c>
       <c r="D137" t="n">
-        <v>2528.794179050561</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2268.986557915229</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>R Endocanthion</t>
+          <t>L Ant. Zygoma</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>782.8869650211325</v>
+        <v>2684.67875173176</v>
       </c>
       <c r="D138" t="n">
-        <v>782.8869650211325</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2268.986557915229</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>L Endocanthion</t>
+          <t>R Zygion</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2840.563324412959</v>
+        <v>1047.890738579171</v>
       </c>
       <c r="D139" t="n">
-        <v>2840.563324412959</v>
+        <v>1437602.170282168</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1437602.170282168</v>
+      </c>
+      <c r="F139" t="n">
+        <v>958750.7437676383</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>R Exocanthion</t>
+          <t>L Zygion</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1531.132913890887</v>
+        <v>2528.794179050561</v>
       </c>
       <c r="D140" t="n">
-        <v>1531.132913890887</v>
+        <v>1437602.170282168</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1437602.170282168</v>
+      </c>
+      <c r="F140" t="n">
+        <v>959244.3782477956</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>L Exocanthion</t>
+          <t>R Endocanthion</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2061.140461006964</v>
+        <v>782.8869650211325</v>
       </c>
       <c r="D141" t="n">
-        <v>2061.140461006964</v>
+        <v>2217.025033688163</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2217.025033688163</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1738.979010799153</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>R S Ant. Zygoma</t>
+          <t>L Endocanthion</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1032.302281311051</v>
+        <v>2840.563324412959</v>
       </c>
       <c r="D142" t="n">
-        <v>1032.302281311051</v>
+        <v>2217.025033688163</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2217.025033688163</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2424.871130596428</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>L S Ant. Zygoma</t>
+          <t>R Exocanthion</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2528.794179050561</v>
+        <v>1531.132913890887</v>
       </c>
       <c r="D143" t="n">
-        <v>2528.794179050561</v>
+        <v>2217.025033688163</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2217.025033688163</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1988.394327089071</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>R S Zygion</t>
+          <t>L Exocanthion</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>798.4754222892524</v>
+        <v>2061.140461006964</v>
       </c>
       <c r="D144" t="n">
-        <v>798.4754222892524</v>
+        <v>2372.909606369362</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2372.909606369362</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2268.986557915229</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>L S Zygion</t>
+          <t>R S Ant. Zygoma</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2840.563324412959</v>
+        <v>1032.302281311051</v>
       </c>
       <c r="D145" t="n">
-        <v>2840.563324412959</v>
+        <v>1749.371315644566</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1749.371315644566</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1510.348304200061</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>R Alar</t>
+          <t>L S Ant. Zygoma</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>642.5908496080535</v>
+        <v>2528.794179050561</v>
       </c>
       <c r="D146" t="n">
-        <v>642.5908496080535</v>
+        <v>1749.371315644566</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1749.371315644566</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2009.178936779898</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>L Alar</t>
+          <t>R S Zygion</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2996.447897094158</v>
+        <v>798.4754222892524</v>
       </c>
       <c r="D147" t="n">
-        <v>2996.447897094158</v>
+        <v>1531.132913890887</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1531.132913890887</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1286.913750023676</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Labiale Superius</t>
+          <t>L S Zygion</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1546.721371159008</v>
+        <v>2840.563324412959</v>
       </c>
       <c r="D148" t="n">
-        <v>1546.721371159008</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2320.948082142295</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>R Crista Philtri</t>
+          <t>R Alar</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2061.140461006964</v>
+        <v>642.5908496080535</v>
       </c>
       <c r="D149" t="n">
-        <v>2061.140461006964</v>
+        <v>1032.302281311051</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1032.302281311051</v>
+      </c>
+      <c r="F149" t="n">
+        <v>902.3984707433851</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>L Crista Philtri</t>
+          <t>L Alar</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1749.371315644566</v>
+        <v>2996.447897094158</v>
       </c>
       <c r="D150" t="n">
-        <v>1749.371315644566</v>
+        <v>2528.794179050561</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2528.794179050561</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2684.67875173176</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>R Cheilion</t>
+          <t>Labiale Superius</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1749.371315644566</v>
+        <v>1546.721371159008</v>
       </c>
       <c r="D151" t="n">
-        <v>1749.371315644566</v>
+        <v>798.4754222892524</v>
+      </c>
+      <c r="E151" t="n">
+        <v>798.4754222892524</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1047.890738579171</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>L Cheilion</t>
+          <t>R Crista Philtri</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1905.255888325765</v>
+        <v>2061.140461006964</v>
       </c>
       <c r="D152" t="n">
-        <v>1905.255888325765</v>
+        <v>2840.563324412959</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2840.563324412959</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2580.755703277627</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Labiale Inferius</t>
+          <t>L Crista Philtri</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1468.779084818408</v>
+        <v>1749.371315644566</v>
       </c>
       <c r="D153" t="n">
-        <v>1468.779084818408</v>
+        <v>642.5908496080535</v>
+      </c>
+      <c r="E153" t="n">
+        <v>642.5908496080535</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1011.517671620224</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>R S Go</t>
+          <t>R Cheilion</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2061.140461006964</v>
+        <v>1749.371315644566</v>
       </c>
       <c r="D154" t="n">
-        <v>2061.140461006964</v>
+        <v>2996.447897094158</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2996.447897094158</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2580.755703277628</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>L S Go</t>
+          <t>L Cheilion</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1749.371315644566</v>
+        <v>1905.255888325765</v>
       </c>
       <c r="D155" t="n">
-        <v>1749.371315644566</v>
+        <v>1546.721371159008</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1546.721371159008</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1666.23287688126</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>R U4PRP</t>
+          <t>Labiale Inferius</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1437602.170282168</v>
+        <v>1468.779084818408</v>
       </c>
       <c r="D156" t="n">
-        <v>1437602.170282168</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1863.686668944112</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>R U5PRP</t>
+          <t>R S Go</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1484.367542086528</v>
+        <v>2061.140461006964</v>
       </c>
       <c r="D157" t="n">
-        <v>1484.367542086528</v>
+        <v>1842.902059253285</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1842.902059253285</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1915.648193171178</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>R U6PRP</t>
+          <t>L S Go</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1531.132913890887</v>
+        <v>1749.371315644566</v>
       </c>
       <c r="D158" t="n">
-        <v>1531.132913890887</v>
+        <v>1827.313601985166</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1827.313601985166</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1801.332839871632</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>R U7PRP</t>
+          <t>R U4PRP</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1484.367542086528</v>
+        <v>1437602.170282168</v>
       </c>
       <c r="D159" t="n">
-        <v>1484.367542086528</v>
+        <v>1749.371315644566</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1749.371315644566</v>
+      </c>
+      <c r="F159" t="n">
+        <v>480366.9709711524</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>L U4PRP</t>
+          <t>R U5PRP</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1437602.170282168</v>
+        <v>1484.367542086528</v>
       </c>
       <c r="D160" t="n">
-        <v>1437602.170282168</v>
+        <v>1749.371315644566</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1749.371315644566</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1661.036724458553</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>L U5PRP</t>
+          <t>R U6PRP</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2061.140461006964</v>
+        <v>1531.132913890887</v>
       </c>
       <c r="D161" t="n">
-        <v>2061.140461006964</v>
+        <v>1905.255888325765</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1905.255888325765</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1780.548230180806</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>L U6PRP</t>
+          <t>R U7PRP</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2061.140461006964</v>
+        <v>1484.367542086528</v>
       </c>
       <c r="D162" t="n">
-        <v>2061.140461006964</v>
+        <v>1842.902059253285</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1842.902059253285</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1723.390553531033</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
+          <t>L U4PRP</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1437602.170282168</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1468.779084818408</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1468.779084818408</v>
+      </c>
+      <c r="F163" t="n">
+        <v>480179.909483935</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>170</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>L U5PRP</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>2061.140461006964</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2061.140461006964</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2061.140461006964</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>123</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>L U6PRP</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>2061.140461006964</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1749.371315644566</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1749.371315644566</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1853.294364098699</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>171</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
           <t>L U7PRP</t>
         </is>
       </c>
-      <c r="C163" t="n">
+      <c r="C166" t="n">
         <v>2061.140461006964</v>
       </c>
-      <c r="D163" t="n">
-        <v>2061.140461006964</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr"/>
-      <c r="B164" t="inlineStr">
+      <c r="D166" t="n">
+        <v>1749.371315644566</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1749.371315644566</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1853.294364098699</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
         <is>
           <t>aver</t>
         </is>
       </c>
-      <c r="C164" t="n">
-        <v>92908.28814911611</v>
-      </c>
-      <c r="D164" t="n">
-        <v>92908.28814911611</v>
+      <c r="C167" t="n">
+        <v>92908.36691466116</v>
+      </c>
+      <c r="D167" t="n">
+        <v>92908.495214721</v>
+      </c>
+      <c r="E167" t="n">
+        <v>92908.38829800449</v>
+      </c>
+      <c r="F167" t="n">
+        <v>92908.41680912887</v>
       </c>
     </row>
   </sheetData>

--- a/root/result.xlsx
+++ b/root/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,16 @@
     <row r="1">
       <c r="C1" t="inlineStr">
         <is>
-          <t>Hyperparameter Batch size = 4, Learning rate = 2e-4, optimizer = adam, aug = 0</t>
+          <t xml:space="preserve">Hyperparameter Batch size = 4, Learning rate = 2e-4, optimizer = adam, aug = 0 </t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comment : </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
@@ -463,20 +467,15 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>aver</t>
         </is>
@@ -484,7 +483,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -492,21 +491,18 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.196152422706632</v>
+        <v>12.12435565298214</v>
       </c>
       <c r="D5" t="n">
-        <v>12.12435565298214</v>
+        <v>8.660254037844387</v>
       </c>
       <c r="E5" t="n">
-        <v>8.660254037844387</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8.660254037844387</v>
+        <v>10.39230484541326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -514,16 +510,13 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>12.12435565298214</v>
+      </c>
+      <c r="D6" t="n">
         <v>3.464101615137754</v>
       </c>
-      <c r="D6" t="n">
-        <v>12.12435565298214</v>
-      </c>
       <c r="E6" t="n">
-        <v>3.464101615137754</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6.350852961085883</v>
+        <v>7.794228634059948</v>
       </c>
     </row>
     <row r="7">
@@ -536,16 +529,13 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>10.39230484541326</v>
+      </c>
+      <c r="D7" t="n">
         <v>5.196152422706632</v>
       </c>
-      <c r="D7" t="n">
-        <v>10.39230484541326</v>
-      </c>
       <c r="E7" t="n">
-        <v>5.196152422706632</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6.928203230275508</v>
+        <v>7.794228634059946</v>
       </c>
     </row>
     <row r="8">
@@ -566,9 +556,6 @@
       <c r="E8" t="n">
         <v>1.056550992617039</v>
       </c>
-      <c r="F8" t="n">
-        <v>1.056550992617039</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -588,9 +575,6 @@
       <c r="E9" t="n">
         <v>0.01905255888325017</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.01905255888325017</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -610,9 +594,6 @@
       <c r="E10" t="n">
         <v>0.1593486742963099</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.1593486742963099</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -632,9 +613,6 @@
       <c r="E11" t="n">
         <v>0.04330127018921947</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.04330127018921947</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -654,9 +632,6 @@
       <c r="E12" t="n">
         <v>0.853901048131497</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.853901048131497</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -676,9 +651,6 @@
       <c r="E13" t="n">
         <v>0.07447818472546044</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.07447818472546044</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -698,13 +670,10 @@
       <c r="E14" t="n">
         <v>2856.151781681079</v>
       </c>
-      <c r="F14" t="n">
-        <v>2856.151781681079</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -718,15 +687,12 @@
         <v>969.9484522385712</v>
       </c>
       <c r="E15" t="n">
-        <v>969.9484522385712</v>
-      </c>
-      <c r="F15" t="n">
-        <v>646.6831083160695</v>
+        <v>485.0504363548187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -740,15 +706,12 @@
         <v>829.6523368254922</v>
       </c>
       <c r="E16" t="n">
-        <v>829.6523368254922</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1390.836798477809</v>
+        <v>1671.429029303966</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -762,15 +725,12 @@
         <v>1110.24456765165</v>
       </c>
       <c r="E17" t="n">
-        <v>1110.24456765165</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1349.267579096155</v>
+        <v>1468.779084818408</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -784,15 +744,12 @@
         <v>969.9484522385712</v>
       </c>
       <c r="E18" t="n">
-        <v>969.9484522385712</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1255.736835487436</v>
+        <v>1398.631027111869</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -806,15 +763,12 @@
         <v>985.5369095066911</v>
       </c>
       <c r="E19" t="n">
-        <v>985.5369095066911</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1266.129140332849</v>
+        <v>1406.425255745929</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -828,15 +782,12 @@
         <v>923.1830804342115</v>
       </c>
       <c r="E20" t="n">
-        <v>923.1830804342115</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1219.36376852849</v>
+        <v>1367.454112575629</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -850,15 +801,12 @@
         <v>969.9484522385712</v>
       </c>
       <c r="E21" t="n">
-        <v>969.9484522385712</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1245.344530642023</v>
+        <v>1383.042569843749</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -872,15 +820,12 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E22" t="n">
-        <v>2684.67875173176</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2388.498063637482</v>
+        <v>2240.407719590343</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -894,15 +839,12 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E23" t="n">
-        <v>2684.67875173176</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2388.498063637482</v>
+        <v>2240.407719590343</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -916,15 +858,12 @@
         <v>2528.794179050561</v>
       </c>
       <c r="E24" t="n">
-        <v>2528.794179050561</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1686.199381240645</v>
+        <v>1264.901982335687</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -938,15 +877,12 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E25" t="n">
-        <v>2684.67875173176</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2648.305684772813</v>
+        <v>2630.11915129334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -960,15 +896,12 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E26" t="n">
-        <v>2684.67875173176</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1789.795072092147</v>
+        <v>1342.35323227234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -982,15 +915,12 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E27" t="n">
-        <v>2684.67875173176</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2653.50183719552</v>
+        <v>2637.9133799274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1004,15 +934,12 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E28" t="n">
-        <v>2684.67875173176</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1790.143214304468</v>
+        <v>1342.875445590822</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1026,15 +953,12 @@
         <v>814.0638795573723</v>
       </c>
       <c r="E29" t="n">
-        <v>814.0638795573723</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1370.052188786982</v>
+        <v>1648.046343401787</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1048,15 +972,12 @@
         <v>1188.18685399225</v>
       </c>
       <c r="E30" t="n">
-        <v>1188.18685399225</v>
-      </c>
-      <c r="F30" t="n">
-        <v>792.3364568769592</v>
+        <v>594.4112583193138</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1070,15 +991,12 @@
         <v>969.9484522385712</v>
       </c>
       <c r="E31" t="n">
-        <v>969.9484522385712</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1494.759846931941</v>
+        <v>1757.165544278626</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1092,15 +1010,12 @@
         <v>1001.125366774811</v>
       </c>
       <c r="E32" t="n">
-        <v>1001.125366774811</v>
-      </c>
-      <c r="F32" t="n">
-        <v>667.5508564456594</v>
+        <v>500.7636012810835</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1114,15 +1029,12 @@
         <v>923.1830804342115</v>
       </c>
       <c r="E33" t="n">
-        <v>923.1830804342115</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1453.190627550288</v>
+        <v>1718.194401108326</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1136,15 +1048,12 @@
         <v>969.9484522385712</v>
       </c>
       <c r="E34" t="n">
-        <v>969.9484522385712</v>
-      </c>
-      <c r="F34" t="n">
-        <v>646.9948774614319</v>
+        <v>485.5180900728623</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1158,15 +1067,12 @@
         <v>2840.563324412959</v>
       </c>
       <c r="E35" t="n">
-        <v>2840.563324412959</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2726.247971113413</v>
+        <v>2669.09029446364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1180,15 +1086,12 @@
         <v>2372.909606369362</v>
       </c>
       <c r="E36" t="n">
-        <v>2372.909606369362</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2191.04427157463</v>
+        <v>2100.111604177264</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1202,15 +1105,12 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E37" t="n">
-        <v>2684.67875173176</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2378.105758792069</v>
+        <v>2224.819262322223</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1224,15 +1124,12 @@
         <v>2528.794179050561</v>
       </c>
       <c r="E38" t="n">
-        <v>2528.794179050561</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2279.378862760643</v>
+        <v>2154.671204615684</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1246,15 +1143,12 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E39" t="n">
-        <v>2684.67875173176</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2419.674978173721</v>
+        <v>2287.173091394702</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1268,15 +1162,12 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E40" t="n">
-        <v>2684.67875173176</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2414.478825751015</v>
+        <v>2279.378862760642</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1290,15 +1181,12 @@
         <v>0.1524204710660506</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1524204710660506</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.407031939778677</v>
+        <v>0.5343376741349902</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1312,15 +1200,12 @@
         <v>2513.205721782441</v>
       </c>
       <c r="E42" t="n">
-        <v>2513.205721782441</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2201.436576420043</v>
+        <v>2045.552003738844</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1334,15 +1219,12 @@
         <v>1827.313601985166</v>
       </c>
       <c r="E43" t="n">
-        <v>1827.313601985166</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1926.040498016592</v>
+        <v>1975.403946032305</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1356,15 +1238,12 @@
         <v>1827.313601985166</v>
       </c>
       <c r="E44" t="n">
-        <v>1827.313601985166</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1905.255888325765</v>
+        <v>1944.227031496065</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1378,15 +1257,12 @@
         <v>1827.313601985166</v>
       </c>
       <c r="E45" t="n">
-        <v>1827.313601985166</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1218.272576519721</v>
+        <v>913.7520637869991</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1400,15 +1276,12 @@
         <v>1047.890738579171</v>
       </c>
       <c r="E46" t="n">
-        <v>1047.890738579171</v>
-      </c>
-      <c r="F46" t="n">
-        <v>698.6833150111717</v>
+        <v>524.079603227172</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1422,15 +1295,12 @@
         <v>2528.794179050561</v>
       </c>
       <c r="E47" t="n">
-        <v>2528.794179050561</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2430.067283019135</v>
+        <v>2380.703835003422</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1444,15 +1314,12 @@
         <v>782.8869650211325</v>
       </c>
       <c r="E48" t="n">
-        <v>782.8869650211325</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1266.129140332849</v>
+        <v>1507.750227988708</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1466,15 +1333,12 @@
         <v>2840.563324412959</v>
       </c>
       <c r="E49" t="n">
-        <v>2840.563324412959</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2497.617264514321</v>
+        <v>2326.144234565002</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1490,13 +1354,10 @@
       <c r="E50" t="n">
         <v>1811.725144717046</v>
       </c>
-      <c r="F50" t="n">
-        <v>1811.725144717046</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1510,15 +1371,12 @@
         <v>1796.136687448926</v>
       </c>
       <c r="E51" t="n">
-        <v>1796.136687448926</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1785.744382603513</v>
+        <v>1780.548230180806</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1532,15 +1390,12 @@
         <v>1796.136687448926</v>
       </c>
       <c r="E52" t="n">
-        <v>1796.136687448926</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1790.940535026219</v>
+        <v>1788.342458814866</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1554,15 +1409,12 @@
         <v>1796.136687448926</v>
       </c>
       <c r="E53" t="n">
-        <v>1796.136687448926</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1816.921297139752</v>
+        <v>1827.313601985165</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1576,15 +1428,12 @@
         <v>1.009785620812653</v>
       </c>
       <c r="E54" t="n">
-        <v>1.009785620812653</v>
-      </c>
-      <c r="F54" t="n">
-        <v>609.7777244089305</v>
+        <v>914.1616938029894</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1598,15 +1447,12 @@
         <v>2575.55955085492</v>
       </c>
       <c r="E55" t="n">
-        <v>2575.55955085492</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2248.201948224403</v>
+        <v>2084.523146909144</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1620,15 +1466,12 @@
         <v>0.02771281292108668</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02771281292108668</v>
-      </c>
-      <c r="F56" t="n">
-        <v>531.1807228630697</v>
+        <v>796.757227888144</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1642,15 +1485,12 @@
         <v>2591.148008123041</v>
       </c>
       <c r="E57" t="n">
-        <v>2591.148008123041</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2404.086520905601</v>
+        <v>2310.555777296882</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1664,15 +1504,12 @@
         <v>1.072139449885135</v>
       </c>
       <c r="E58" t="n">
-        <v>1.072139449885135</v>
-      </c>
-      <c r="F58" t="n">
-        <v>661.7808178553784</v>
+        <v>992.1351570581251</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1686,15 +1523,12 @@
         <v>2482.028807246201</v>
       </c>
       <c r="E59" t="n">
-        <v>2482.028807246201</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1654.949720570487</v>
+        <v>1241.41017723263</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1708,15 +1542,12 @@
         <v>0.635662646377761</v>
       </c>
       <c r="E60" t="n">
-        <v>0.635662646377761</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.8019395239043797</v>
+        <v>0.885077962667689</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1730,15 +1561,12 @@
         <v>2544.382636318681</v>
       </c>
       <c r="E61" t="n">
-        <v>2544.382636318681</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2404.086520905602</v>
+        <v>2333.938463199062</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1752,15 +1580,12 @@
         <v>0.4018357873559784</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4018357873559784</v>
-      </c>
-      <c r="F62" t="n">
-        <v>728.8839302422117</v>
+        <v>1093.12497746964</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1774,15 +1599,12 @@
         <v>2513.205721782441</v>
       </c>
       <c r="E63" t="n">
-        <v>2513.205721782441</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2279.378862760643</v>
+        <v>2162.465433249743</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1796,15 +1618,12 @@
         <v>1.087727907153255</v>
       </c>
       <c r="E64" t="n">
-        <v>1.087727907153255</v>
-      </c>
-      <c r="F64" t="n">
-        <v>609.8296859331575</v>
+        <v>914.2006649461597</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1818,15 +1637,12 @@
         <v>2497.617264514321</v>
       </c>
       <c r="E65" t="n">
-        <v>2497.617264514321</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2279.378862760642</v>
+        <v>2170.259661883803</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1840,15 +1656,12 @@
         <v>1905.255888325765</v>
       </c>
       <c r="E66" t="n">
-        <v>1905.255888325765</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1879.275126212232</v>
+        <v>1866.284745155466</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1862,15 +1675,12 @@
         <v>1749.371315644566</v>
       </c>
       <c r="E67" t="n">
-        <v>1749.371315644566</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1780.548230180805</v>
+        <v>1796.136687448925</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1884,15 +1694,12 @@
         <v>1827.313601985166</v>
       </c>
       <c r="E68" t="n">
-        <v>1827.313601985166</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1764.959772912686</v>
+        <v>1733.782858376446</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1906,15 +1713,12 @@
         <v>1827.313601985166</v>
       </c>
       <c r="E69" t="n">
-        <v>1827.313601985166</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1775.352077758099</v>
+        <v>1749.371315644566</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1928,15 +1732,12 @@
         <v>1764.959772912686</v>
       </c>
       <c r="E70" t="n">
-        <v>1764.959772912686</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1848.098211675992</v>
+        <v>1889.667431057645</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1950,15 +1751,12 @@
         <v>1780.548230180806</v>
       </c>
       <c r="E71" t="n">
-        <v>1780.548230180806</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1837.705906830579</v>
+        <v>1866.284745155465</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1972,15 +1770,12 @@
         <v>0.9162548772039298</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9162548772039298</v>
-      </c>
-      <c r="F72" t="n">
-        <v>515574.4012229205</v>
+        <v>773361.1437069421</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1994,15 +1789,12 @@
         <v>1577.898285695247</v>
       </c>
       <c r="E73" t="n">
-        <v>1577.898285695247</v>
-      </c>
-      <c r="F73" t="n">
-        <v>516625.7225767993</v>
+        <v>774149.6347223512</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2016,15 +1808,12 @@
         <v>0.1905255888325755</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1905255888325755</v>
-      </c>
-      <c r="F74" t="n">
-        <v>515573.9174033949</v>
+        <v>773360.7808422979</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2038,15 +1827,12 @@
         <v>0.2684678751731779</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2684678751731779</v>
-      </c>
-      <c r="F75" t="n">
-        <v>515573.9693649192</v>
+        <v>773360.8198134411</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2060,15 +1846,12 @@
         <v>1531.132913890887</v>
       </c>
       <c r="E76" t="n">
-        <v>1531.132913890887</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1020.795690446102</v>
+        <v>765.6270787237087</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2082,15 +1865,12 @@
         <v>1889.667431057645</v>
       </c>
       <c r="E77" t="n">
-        <v>1889.667431057645</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1259.862580511065</v>
+        <v>944.9601552377751</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2104,15 +1884,12 @@
         <v>1874.078973789525</v>
       </c>
       <c r="E78" t="n">
-        <v>1874.078973789525</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1978.002022243658</v>
+        <v>2029.963546470724</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2126,15 +1903,12 @@
         <v>2123.494290079444</v>
       </c>
       <c r="E79" t="n">
-        <v>2123.494290079444</v>
-      </c>
-      <c r="F79" t="n">
-        <v>2133.886594924857</v>
+        <v>2139.082747347564</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2148,15 +1922,12 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E80" t="n">
-        <v>2061.140461006964</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1374.414647420979</v>
+        <v>1031.051740627986</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2170,15 +1941,12 @@
         <v>2232.613490956283</v>
       </c>
       <c r="E81" t="n">
-        <v>2232.613490956283</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1488.501370013925</v>
+        <v>1116.445309542747</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2192,15 +1960,12 @@
         <v>2232.613490956283</v>
       </c>
       <c r="E82" t="n">
-        <v>2232.613490956283</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2248.201948224403</v>
+        <v>2255.996176858463</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2214,15 +1979,12 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E83" t="n">
-        <v>2061.140461006964</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2123.494290079444</v>
+        <v>2154.671204615684</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2236,15 +1998,12 @@
         <v>1811.725144717046</v>
       </c>
       <c r="E84" t="n">
-        <v>1811.725144717046</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1770.155925335393</v>
+        <v>1749.371315644566</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2258,15 +2017,12 @@
         <v>1811.725144717046</v>
       </c>
       <c r="E85" t="n">
-        <v>1811.725144717046</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1770.155925335393</v>
+        <v>1749.371315644566</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2280,15 +2036,12 @@
         <v>1764.959772912686</v>
       </c>
       <c r="E86" t="n">
-        <v>1764.959772912686</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1822.117449562459</v>
+        <v>1850.696287887345</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2302,15 +2055,12 @@
         <v>1780.548230180806</v>
       </c>
       <c r="E87" t="n">
-        <v>1780.548230180806</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1822.117449562459</v>
+        <v>1842.902059253285</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2324,15 +2074,12 @@
         <v>1593.486742963367</v>
       </c>
       <c r="E88" t="n">
-        <v>1593.486742963367</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1562.309828427127</v>
+        <v>1546.721371159008</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2346,15 +2093,12 @@
         <v>1593.486742963367</v>
       </c>
       <c r="E89" t="n">
-        <v>1593.486742963367</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1572.702133272541</v>
+        <v>1562.309828427127</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2368,15 +2112,12 @@
         <v>0.7915472190589905</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7915472190589905</v>
-      </c>
-      <c r="F90" t="n">
-        <v>687.5745184816939</v>
+        <v>1030.966004113011</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2390,15 +2131,12 @@
         <v>1.134493278957617</v>
       </c>
       <c r="E91" t="n">
-        <v>1.134493278957617</v>
-      </c>
-      <c r="F91" t="n">
-        <v>687.803149188293</v>
+        <v>1031.137477142961</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2412,15 +2150,12 @@
         <v>1858.490516521405</v>
       </c>
       <c r="E92" t="n">
-        <v>1858.490516521405</v>
-      </c>
-      <c r="F92" t="n">
-        <v>480439.7171050704</v>
+        <v>719730.3303993448</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2434,15 +2169,12 @@
         <v>1827.313601985166</v>
       </c>
       <c r="E93" t="n">
-        <v>1827.313601985166</v>
-      </c>
-      <c r="F93" t="n">
-        <v>480418.9324953794</v>
+        <v>719714.7419420766</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2456,15 +2188,12 @@
         <v>2029.963546470724</v>
       </c>
       <c r="E94" t="n">
-        <v>2029.963546470724</v>
-      </c>
-      <c r="F94" t="n">
-        <v>480554.0324583699</v>
+        <v>719816.0669143194</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2478,15 +2207,12 @@
         <v>1983.198174666365</v>
       </c>
       <c r="E95" t="n">
-        <v>1983.198174666365</v>
-      </c>
-      <c r="F95" t="n">
-        <v>480522.8555438336</v>
+        <v>719792.6842284172</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2500,15 +2226,12 @@
         <v>2123.494290079444</v>
       </c>
       <c r="E96" t="n">
-        <v>2123.494290079444</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1879.275126212232</v>
+        <v>1757.165544278626</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2522,15 +2245,12 @@
         <v>2185.848119151923</v>
       </c>
       <c r="E97" t="n">
-        <v>2185.848119151923</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1926.040498016591</v>
+        <v>1796.136687448926</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2544,15 +2264,12 @@
         <v>1811.725144717046</v>
       </c>
       <c r="E98" t="n">
-        <v>1811.725144717046</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1946.825107707418</v>
+        <v>2014.375089202604</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2566,15 +2283,12 @@
         <v>1640.252114767727</v>
       </c>
       <c r="E99" t="n">
-        <v>1640.252114767727</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1832.509754407872</v>
+        <v>1928.638574227945</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2588,15 +2302,12 @@
         <v>1671.429029303966</v>
       </c>
       <c r="E100" t="n">
-        <v>1671.429029303966</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1551.917523581714</v>
+        <v>1492.161770720588</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2610,15 +2321,12 @@
         <v>1546721.371159007</v>
       </c>
       <c r="E101" t="n">
-        <v>1546721.371159007</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1031600.800733985</v>
+        <v>774040.5155214744</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2632,15 +2340,12 @@
         <v>1546721.371159007</v>
       </c>
       <c r="E102" t="n">
-        <v>1546721.371159007</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1031886.589117234</v>
+        <v>774469.1980963477</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2654,15 +2359,12 @@
         <v>1437602.170282168</v>
       </c>
       <c r="E103" t="n">
-        <v>1437602.170282168</v>
-      </c>
-      <c r="F103" t="n">
-        <v>959140.4551993414</v>
+        <v>719909.5976579281</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2676,15 +2378,12 @@
         <v>0.1212435565298096</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1212435565298096</v>
-      </c>
-      <c r="F104" t="n">
-        <v>432.5161806607162</v>
+        <v>648.7136492128094</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2698,15 +2397,12 @@
         <v>0.2528794179050575</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2528794179050575</v>
-      </c>
-      <c r="F105" t="n">
-        <v>396.2308709426866</v>
+        <v>594.2198667050775</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2720,15 +2416,12 @@
         <v>1484.367542086528</v>
       </c>
       <c r="E106" t="n">
-        <v>1484.367542086528</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1728.58670595374</v>
+        <v>1850.696287887346</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2742,15 +2435,12 @@
         <v>0.9630202490082912</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9630202490082912</v>
-      </c>
-      <c r="F107" t="n">
-        <v>791.6118822891262</v>
+        <v>1186.936313309185</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2764,15 +2454,12 @@
         <v>0.2771281292110391</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2771281292110391</v>
-      </c>
-      <c r="F108" t="n">
-        <v>583.3085239676626</v>
+        <v>874.8242218868885</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2786,15 +2473,12 @@
         <v>1484.367542086528</v>
       </c>
       <c r="E109" t="n">
-        <v>1484.367542086528</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1572.702133272541</v>
+        <v>1616.869428865547</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2808,15 +2492,12 @@
         <v>1312.894512137209</v>
       </c>
       <c r="E110" t="n">
-        <v>1312.894512137209</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1458.386779972995</v>
+        <v>1531.132913890887</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2830,15 +2511,12 @@
         <v>1359.659883941569</v>
       </c>
       <c r="E111" t="n">
-        <v>1359.659883941569</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1489.563694509234</v>
+        <v>1554.515599793067</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2852,15 +2530,12 @@
         <v>2014.375089202604</v>
       </c>
       <c r="E112" t="n">
-        <v>2014.375089202604</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1666.23287688126</v>
+        <v>1492.161770720588</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2874,15 +2549,12 @@
         <v>1952.021260130125</v>
       </c>
       <c r="E113" t="n">
-        <v>1952.021260130125</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1936.432802862005</v>
+        <v>1928.638574227945</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2896,15 +2568,12 @@
         <v>1546721.371159007</v>
       </c>
       <c r="E114" t="n">
-        <v>1546721.371159007</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1031424.131551613</v>
+        <v>773775.5117479163</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2918,15 +2587,12 @@
         <v>1546721.371159007</v>
       </c>
       <c r="E115" t="n">
-        <v>1546721.371159007</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1031517.662295222</v>
+        <v>773915.8078633294</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2940,15 +2606,12 @@
         <v>1437602.170282168</v>
       </c>
       <c r="E116" t="n">
-        <v>1437602.170282168</v>
-      </c>
-      <c r="F116" t="n">
-        <v>958724.7630055249</v>
+        <v>719286.0593672033</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2962,15 +2625,12 @@
         <v>2185.848119151923</v>
       </c>
       <c r="E117" t="n">
-        <v>2185.848119151923</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1728.58670595374</v>
+        <v>1499.955999354648</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2984,15 +2644,12 @@
         <v>2154.671204615684</v>
       </c>
       <c r="E118" t="n">
-        <v>2154.671204615684</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1832.509754407873</v>
+        <v>1671.429029303967</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3006,15 +2663,12 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E119" t="n">
-        <v>2061.140461006964</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1697.4097914175</v>
+        <v>1515.544456622767</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3028,15 +2682,12 @@
         <v>2279.378862760643</v>
       </c>
       <c r="E120" t="n">
-        <v>2279.378862760643</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1848.098211675992</v>
+        <v>1632.457886133667</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3050,15 +2701,12 @@
         <v>2248.201948224403</v>
       </c>
       <c r="E121" t="n">
-        <v>2248.201948224403</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1806.528992294339</v>
+        <v>1585.692514329307</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3072,15 +2720,12 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E122" t="n">
-        <v>2061.140461006964</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1697.4097914175</v>
+        <v>1515.544456622767</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3094,15 +2739,12 @@
         <v>2217.025033688163</v>
       </c>
       <c r="E123" t="n">
-        <v>2217.025033688163</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1811.725144717046</v>
+        <v>1609.075200231487</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3116,15 +2758,12 @@
         <v>2217.025033688163</v>
       </c>
       <c r="E124" t="n">
-        <v>2217.025033688163</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1785.744382603513</v>
+        <v>1570.104057061187</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3138,15 +2777,12 @@
         <v>1687.017486572086</v>
       </c>
       <c r="E125" t="n">
-        <v>1687.017486572086</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1447.994475127581</v>
+        <v>1328.482969405329</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3160,15 +2796,12 @@
         <v>1687.017486572086</v>
       </c>
       <c r="E126" t="n">
-        <v>1687.017486572086</v>
-      </c>
-      <c r="F126" t="n">
-        <v>2019.571241625311</v>
+        <v>2185.848119151923</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3182,15 +2815,12 @@
         <v>1499.955999354648</v>
       </c>
       <c r="E127" t="n">
-        <v>1499.955999354648</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1894.863583480352</v>
+        <v>2092.317375543204</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3204,15 +2834,12 @@
         <v>1531.132913890887</v>
       </c>
       <c r="E128" t="n">
-        <v>1531.132913890887</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1863.686668944112</v>
+        <v>2029.963546470724</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3226,15 +2853,12 @@
         <v>1437602.170282168</v>
       </c>
       <c r="E129" t="n">
-        <v>1437602.170282168</v>
-      </c>
-      <c r="F129" t="n">
-        <v>959296.3397720227</v>
+        <v>720143.4245169499</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3248,15 +2872,12 @@
         <v>1437602.170282168</v>
       </c>
       <c r="E130" t="n">
-        <v>1437602.170282168</v>
-      </c>
-      <c r="F130" t="n">
-        <v>959348.3012962496</v>
+        <v>720221.3668032906</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3270,15 +2891,12 @@
         <v>1390.836798477809</v>
       </c>
       <c r="E131" t="n">
-        <v>1390.836798477809</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1718.194401108327</v>
+        <v>1881.873202423585</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3292,15 +2910,12 @@
         <v>1406.425255745928</v>
       </c>
       <c r="E132" t="n">
-        <v>1406.425255745928</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1832.509754407872</v>
+        <v>2045.552003738844</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3314,15 +2929,12 @@
         <v>1297.306054869089</v>
       </c>
       <c r="E133" t="n">
-        <v>1297.306054869089</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1759.763620489979</v>
+        <v>1990.992403300424</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3336,15 +2948,12 @@
         <v>1188.18685399225</v>
       </c>
       <c r="E134" t="n">
-        <v>1188.18685399225</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1687.017486572086</v>
+        <v>1936.432802862005</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3358,15 +2967,12 @@
         <v>1936.432802862005</v>
       </c>
       <c r="E135" t="n">
-        <v>1936.432802862005</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2185.848119151923</v>
+        <v>2310.555777296882</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3380,15 +2986,12 @@
         <v>1905.255888325765</v>
       </c>
       <c r="E136" t="n">
-        <v>1905.255888325765</v>
-      </c>
-      <c r="F136" t="n">
-        <v>2113.101985234031</v>
+        <v>2217.025033688163</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3402,15 +3005,12 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E137" t="n">
-        <v>2061.140461006964</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2268.986557915229</v>
+        <v>2372.909606369362</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3424,15 +3024,12 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E138" t="n">
-        <v>2061.140461006964</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2268.986557915229</v>
+        <v>2372.909606369362</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3446,15 +3043,12 @@
         <v>1437602.170282168</v>
       </c>
       <c r="E139" t="n">
-        <v>1437602.170282168</v>
-      </c>
-      <c r="F139" t="n">
-        <v>958750.7437676383</v>
+        <v>719325.0305103736</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3468,15 +3062,12 @@
         <v>1437602.170282168</v>
       </c>
       <c r="E140" t="n">
-        <v>1437602.170282168</v>
-      </c>
-      <c r="F140" t="n">
-        <v>959244.3782477956</v>
+        <v>720065.4822306093</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3490,15 +3081,12 @@
         <v>2217.025033688163</v>
       </c>
       <c r="E141" t="n">
-        <v>2217.025033688163</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1738.979010799153</v>
+        <v>1499.955999354648</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3512,15 +3100,12 @@
         <v>2217.025033688163</v>
       </c>
       <c r="E142" t="n">
-        <v>2217.025033688163</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2424.871130596428</v>
+        <v>2528.794179050561</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -3534,15 +3119,12 @@
         <v>2217.025033688163</v>
       </c>
       <c r="E143" t="n">
-        <v>2217.025033688163</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1988.394327089071</v>
+        <v>1874.078973789525</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -3556,15 +3138,12 @@
         <v>2372.909606369362</v>
       </c>
       <c r="E144" t="n">
-        <v>2372.909606369362</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2268.986557915229</v>
+        <v>2217.025033688163</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3578,15 +3157,12 @@
         <v>1749.371315644566</v>
       </c>
       <c r="E145" t="n">
-        <v>1749.371315644566</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1510.348304200061</v>
+        <v>1390.836798477808</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -3600,15 +3176,12 @@
         <v>1749.371315644566</v>
       </c>
       <c r="E146" t="n">
-        <v>1749.371315644566</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2009.178936779898</v>
+        <v>2139.082747347563</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -3622,15 +3195,12 @@
         <v>1531.132913890887</v>
       </c>
       <c r="E147" t="n">
-        <v>1531.132913890887</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1286.913750023676</v>
+        <v>1164.80416809007</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -3644,15 +3214,12 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E148" t="n">
-        <v>2061.140461006964</v>
-      </c>
-      <c r="F148" t="n">
-        <v>2320.948082142295</v>
+        <v>2450.851892709961</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -3666,15 +3233,12 @@
         <v>1032.302281311051</v>
       </c>
       <c r="E149" t="n">
-        <v>1032.302281311051</v>
-      </c>
-      <c r="F149" t="n">
-        <v>902.3984707433851</v>
+        <v>837.4465654595522</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -3688,15 +3252,12 @@
         <v>2528.794179050561</v>
       </c>
       <c r="E150" t="n">
-        <v>2528.794179050561</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2684.67875173176</v>
+        <v>2762.62103807236</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -3710,15 +3271,12 @@
         <v>798.4754222892524</v>
       </c>
       <c r="E151" t="n">
-        <v>798.4754222892524</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1047.890738579171</v>
+        <v>1172.59839672413</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -3732,15 +3290,12 @@
         <v>2840.563324412959</v>
       </c>
       <c r="E152" t="n">
-        <v>2840.563324412959</v>
-      </c>
-      <c r="F152" t="n">
-        <v>2580.755703277627</v>
+        <v>2450.851892709961</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -3754,15 +3309,12 @@
         <v>642.5908496080535</v>
       </c>
       <c r="E153" t="n">
-        <v>642.5908496080535</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1011.517671620224</v>
+        <v>1195.98108262631</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -3776,15 +3328,12 @@
         <v>2996.447897094158</v>
       </c>
       <c r="E154" t="n">
-        <v>2996.447897094158</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2580.755703277628</v>
+        <v>2372.909606369362</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -3798,15 +3347,12 @@
         <v>1546.721371159008</v>
       </c>
       <c r="E155" t="n">
-        <v>1546.721371159008</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1666.23287688126</v>
+        <v>1725.988629742386</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -3820,15 +3366,12 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E156" t="n">
-        <v>2061.140461006964</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1863.686668944112</v>
+        <v>1764.959772912686</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -3842,15 +3385,12 @@
         <v>1842.902059253285</v>
       </c>
       <c r="E157" t="n">
-        <v>1842.902059253285</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1915.648193171178</v>
+        <v>1952.021260130125</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -3864,15 +3404,12 @@
         <v>1827.313601985166</v>
       </c>
       <c r="E158" t="n">
-        <v>1827.313601985166</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1801.332839871632</v>
+        <v>1788.342458814866</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -3886,15 +3423,12 @@
         <v>1749.371315644566</v>
       </c>
       <c r="E159" t="n">
-        <v>1749.371315644566</v>
-      </c>
-      <c r="F159" t="n">
-        <v>480366.9709711524</v>
+        <v>719675.7707989063</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -3908,15 +3442,12 @@
         <v>1749.371315644566</v>
       </c>
       <c r="E160" t="n">
-        <v>1749.371315644566</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1661.036724458553</v>
+        <v>1616.869428865547</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -3930,15 +3461,12 @@
         <v>1905.255888325765</v>
       </c>
       <c r="E161" t="n">
-        <v>1905.255888325765</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1780.548230180806</v>
+        <v>1718.194401108326</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -3952,15 +3480,12 @@
         <v>1842.902059253285</v>
       </c>
       <c r="E162" t="n">
-        <v>1842.902059253285</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1723.390553531033</v>
+        <v>1663.634800669907</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -3974,15 +3499,12 @@
         <v>1468.779084818408</v>
       </c>
       <c r="E163" t="n">
-        <v>1468.779084818408</v>
-      </c>
-      <c r="F163" t="n">
-        <v>480179.909483935</v>
+        <v>719535.4746834933</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -3998,13 +3520,10 @@
       <c r="E164" t="n">
         <v>2061.140461006964</v>
       </c>
-      <c r="F164" t="n">
-        <v>2061.140461006964</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4018,15 +3537,12 @@
         <v>1749.371315644566</v>
       </c>
       <c r="E165" t="n">
-        <v>1749.371315644566</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1853.294364098699</v>
+        <v>1905.255888325765</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4040,10 +3556,7 @@
         <v>1749.371315644566</v>
       </c>
       <c r="E166" t="n">
-        <v>1749.371315644566</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1853.294364098699</v>
+        <v>1905.255888325765</v>
       </c>
     </row>
     <row r="167">
@@ -4053,19 +3566,19 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>92908.36691466116</v>
+        <v>92908.49521472098</v>
       </c>
       <c r="D167" t="n">
-        <v>92908.495214721</v>
+        <v>92908.38829800449</v>
       </c>
       <c r="E167" t="n">
-        <v>92908.38829800449</v>
-      </c>
-      <c r="F167" t="n">
-        <v>92908.41680912887</v>
+        <v>92908.44175636274</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/root/result.xlsx
+++ b/root/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,11 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
           <t>aver</t>
         </is>
       </c>
@@ -497,7 +502,10 @@
         <v>8.660254037844387</v>
       </c>
       <c r="E5" t="n">
-        <v>10.39230484541326</v>
+        <v>3.464101615137754</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.082903768654761</v>
       </c>
     </row>
     <row r="6">
@@ -516,7 +524,10 @@
         <v>3.464101615137754</v>
       </c>
       <c r="E6" t="n">
-        <v>7.794228634059948</v>
+        <v>5.196152422706632</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.92820323027551</v>
       </c>
     </row>
     <row r="7">
@@ -535,7 +546,10 @@
         <v>5.196152422706632</v>
       </c>
       <c r="E7" t="n">
-        <v>7.794228634059946</v>
+        <v>5.196152422706632</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.928203230275508</v>
       </c>
     </row>
     <row r="8">
@@ -556,6 +570,9 @@
       <c r="E8" t="n">
         <v>1.056550992617039</v>
       </c>
+      <c r="F8" t="n">
+        <v>1.056550992617039</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -575,6 +592,9 @@
       <c r="E9" t="n">
         <v>0.01905255888325017</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.01905255888325017</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -594,6 +614,9 @@
       <c r="E10" t="n">
         <v>0.1593486742963099</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.1593486742963099</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -613,6 +636,9 @@
       <c r="E11" t="n">
         <v>0.04330127018921947</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.04330127018921947</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -632,6 +658,9 @@
       <c r="E12" t="n">
         <v>0.853901048131497</v>
       </c>
+      <c r="F12" t="n">
+        <v>0.853901048131497</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -651,6 +680,9 @@
       <c r="E13" t="n">
         <v>0.07447818472546044</v>
       </c>
+      <c r="F13" t="n">
+        <v>0.07447818472546044</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +702,9 @@
       <c r="E14" t="n">
         <v>2856.151781681079</v>
       </c>
+      <c r="F14" t="n">
+        <v>2856.151781681079</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,7 +722,10 @@
         <v>969.9484522385712</v>
       </c>
       <c r="E15" t="n">
-        <v>485.0504363548187</v>
+        <v>969.9484522385712</v>
+      </c>
+      <c r="F15" t="n">
+        <v>646.6831083160695</v>
       </c>
     </row>
     <row r="16">
@@ -706,7 +744,10 @@
         <v>829.6523368254922</v>
       </c>
       <c r="E16" t="n">
-        <v>1671.429029303966</v>
+        <v>829.6523368254922</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1390.836798477809</v>
       </c>
     </row>
     <row r="17">
@@ -725,7 +766,10 @@
         <v>1110.24456765165</v>
       </c>
       <c r="E17" t="n">
-        <v>1468.779084818408</v>
+        <v>1110.24456765165</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1349.267579096155</v>
       </c>
     </row>
     <row r="18">
@@ -744,7 +788,10 @@
         <v>969.9484522385712</v>
       </c>
       <c r="E18" t="n">
-        <v>1398.631027111869</v>
+        <v>969.9484522385712</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1255.736835487436</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +810,10 @@
         <v>985.5369095066911</v>
       </c>
       <c r="E19" t="n">
-        <v>1406.425255745929</v>
+        <v>985.5369095066911</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1266.129140332849</v>
       </c>
     </row>
     <row r="20">
@@ -782,7 +832,10 @@
         <v>923.1830804342115</v>
       </c>
       <c r="E20" t="n">
-        <v>1367.454112575629</v>
+        <v>923.1830804342115</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1219.36376852849</v>
       </c>
     </row>
     <row r="21">
@@ -801,7 +854,10 @@
         <v>969.9484522385712</v>
       </c>
       <c r="E21" t="n">
-        <v>1383.042569843749</v>
+        <v>969.9484522385712</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1245.344530642023</v>
       </c>
     </row>
     <row r="22">
@@ -820,7 +876,10 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E22" t="n">
-        <v>2240.407719590343</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2388.498063637482</v>
       </c>
     </row>
     <row r="23">
@@ -839,7 +898,10 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E23" t="n">
-        <v>2240.407719590343</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2388.498063637482</v>
       </c>
     </row>
     <row r="24">
@@ -858,7 +920,10 @@
         <v>2528.794179050561</v>
       </c>
       <c r="E24" t="n">
-        <v>1264.901982335687</v>
+        <v>2528.794179050561</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1686.199381240645</v>
       </c>
     </row>
     <row r="25">
@@ -877,7 +942,10 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E25" t="n">
-        <v>2630.11915129334</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2648.305684772813</v>
       </c>
     </row>
     <row r="26">
@@ -896,7 +964,10 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E26" t="n">
-        <v>1342.35323227234</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1789.795072092147</v>
       </c>
     </row>
     <row r="27">
@@ -915,7 +986,10 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E27" t="n">
-        <v>2637.9133799274</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2653.50183719552</v>
       </c>
     </row>
     <row r="28">
@@ -934,7 +1008,10 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E28" t="n">
-        <v>1342.875445590822</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1790.143214304468</v>
       </c>
     </row>
     <row r="29">
@@ -953,7 +1030,10 @@
         <v>814.0638795573723</v>
       </c>
       <c r="E29" t="n">
-        <v>1648.046343401787</v>
+        <v>814.0638795573723</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1370.052188786982</v>
       </c>
     </row>
     <row r="30">
@@ -972,7 +1052,10 @@
         <v>1188.18685399225</v>
       </c>
       <c r="E30" t="n">
-        <v>594.4112583193138</v>
+        <v>1188.18685399225</v>
+      </c>
+      <c r="F30" t="n">
+        <v>792.3364568769592</v>
       </c>
     </row>
     <row r="31">
@@ -991,7 +1074,10 @@
         <v>969.9484522385712</v>
       </c>
       <c r="E31" t="n">
-        <v>1757.165544278626</v>
+        <v>969.9484522385712</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1494.759846931941</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1096,10 @@
         <v>1001.125366774811</v>
       </c>
       <c r="E32" t="n">
-        <v>500.7636012810835</v>
+        <v>1001.125366774811</v>
+      </c>
+      <c r="F32" t="n">
+        <v>667.5508564456594</v>
       </c>
     </row>
     <row r="33">
@@ -1029,7 +1118,10 @@
         <v>923.1830804342115</v>
       </c>
       <c r="E33" t="n">
-        <v>1718.194401108326</v>
+        <v>923.1830804342115</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1453.190627550288</v>
       </c>
     </row>
     <row r="34">
@@ -1048,7 +1140,10 @@
         <v>969.9484522385712</v>
       </c>
       <c r="E34" t="n">
-        <v>485.5180900728623</v>
+        <v>969.9484522385712</v>
+      </c>
+      <c r="F34" t="n">
+        <v>646.9948774614319</v>
       </c>
     </row>
     <row r="35">
@@ -1067,7 +1162,10 @@
         <v>2840.563324412959</v>
       </c>
       <c r="E35" t="n">
-        <v>2669.09029446364</v>
+        <v>2840.563324412959</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2726.247971113413</v>
       </c>
     </row>
     <row r="36">
@@ -1086,7 +1184,10 @@
         <v>2372.909606369362</v>
       </c>
       <c r="E36" t="n">
-        <v>2100.111604177264</v>
+        <v>2372.909606369362</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2191.04427157463</v>
       </c>
     </row>
     <row r="37">
@@ -1105,7 +1206,10 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E37" t="n">
-        <v>2224.819262322223</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2378.105758792069</v>
       </c>
     </row>
     <row r="38">
@@ -1124,7 +1228,10 @@
         <v>2528.794179050561</v>
       </c>
       <c r="E38" t="n">
-        <v>2154.671204615684</v>
+        <v>2528.794179050561</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2279.378862760643</v>
       </c>
     </row>
     <row r="39">
@@ -1143,7 +1250,10 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E39" t="n">
-        <v>2287.173091394702</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2419.674978173721</v>
       </c>
     </row>
     <row r="40">
@@ -1162,7 +1272,10 @@
         <v>2684.67875173176</v>
       </c>
       <c r="E40" t="n">
-        <v>2279.378862760642</v>
+        <v>2684.67875173176</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2414.478825751015</v>
       </c>
     </row>
     <row r="41">
@@ -1181,7 +1294,10 @@
         <v>0.1524204710660506</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5343376741349902</v>
+        <v>0.1524204710660506</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.407031939778677</v>
       </c>
     </row>
     <row r="42">
@@ -1200,7 +1316,10 @@
         <v>2513.205721782441</v>
       </c>
       <c r="E42" t="n">
-        <v>2045.552003738844</v>
+        <v>2513.205721782441</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2201.436576420043</v>
       </c>
     </row>
     <row r="43">
@@ -1219,7 +1338,10 @@
         <v>1827.313601985166</v>
       </c>
       <c r="E43" t="n">
-        <v>1975.403946032305</v>
+        <v>1827.313601985166</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1926.040498016592</v>
       </c>
     </row>
     <row r="44">
@@ -1238,7 +1360,10 @@
         <v>1827.313601985166</v>
       </c>
       <c r="E44" t="n">
-        <v>1944.227031496065</v>
+        <v>1827.313601985166</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1905.255888325765</v>
       </c>
     </row>
     <row r="45">
@@ -1257,7 +1382,10 @@
         <v>1827.313601985166</v>
       </c>
       <c r="E45" t="n">
-        <v>913.7520637869991</v>
+        <v>1827.313601985166</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1218.272576519721</v>
       </c>
     </row>
     <row r="46">
@@ -1276,7 +1404,10 @@
         <v>1047.890738579171</v>
       </c>
       <c r="E46" t="n">
-        <v>524.079603227172</v>
+        <v>1047.890738579171</v>
+      </c>
+      <c r="F46" t="n">
+        <v>698.6833150111717</v>
       </c>
     </row>
     <row r="47">
@@ -1295,7 +1426,10 @@
         <v>2528.794179050561</v>
       </c>
       <c r="E47" t="n">
-        <v>2380.703835003422</v>
+        <v>2528.794179050561</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2430.067283019135</v>
       </c>
     </row>
     <row r="48">
@@ -1314,7 +1448,10 @@
         <v>782.8869650211325</v>
       </c>
       <c r="E48" t="n">
-        <v>1507.750227988708</v>
+        <v>782.8869650211325</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1266.129140332849</v>
       </c>
     </row>
     <row r="49">
@@ -1333,7 +1470,10 @@
         <v>2840.563324412959</v>
       </c>
       <c r="E49" t="n">
-        <v>2326.144234565002</v>
+        <v>2840.563324412959</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2497.617264514321</v>
       </c>
     </row>
     <row r="50">
@@ -1354,6 +1494,9 @@
       <c r="E50" t="n">
         <v>1811.725144717046</v>
       </c>
+      <c r="F50" t="n">
+        <v>1811.725144717046</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1371,7 +1514,10 @@
         <v>1796.136687448926</v>
       </c>
       <c r="E51" t="n">
-        <v>1780.548230180806</v>
+        <v>1796.136687448926</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1785.744382603513</v>
       </c>
     </row>
     <row r="52">
@@ -1390,7 +1536,10 @@
         <v>1796.136687448926</v>
       </c>
       <c r="E52" t="n">
-        <v>1788.342458814866</v>
+        <v>1796.136687448926</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1790.940535026219</v>
       </c>
     </row>
     <row r="53">
@@ -1409,7 +1558,10 @@
         <v>1796.136687448926</v>
       </c>
       <c r="E53" t="n">
-        <v>1827.313601985165</v>
+        <v>1796.136687448926</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1816.921297139752</v>
       </c>
     </row>
     <row r="54">
@@ -1428,7 +1580,10 @@
         <v>1.009785620812653</v>
       </c>
       <c r="E54" t="n">
-        <v>914.1616938029894</v>
+        <v>1.009785620812653</v>
+      </c>
+      <c r="F54" t="n">
+        <v>609.7777244089305</v>
       </c>
     </row>
     <row r="55">
@@ -1447,7 +1602,10 @@
         <v>2575.55955085492</v>
       </c>
       <c r="E55" t="n">
-        <v>2084.523146909144</v>
+        <v>2575.55955085492</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2248.201948224403</v>
       </c>
     </row>
     <row r="56">
@@ -1466,7 +1624,10 @@
         <v>0.02771281292108668</v>
       </c>
       <c r="E56" t="n">
-        <v>796.757227888144</v>
+        <v>0.02771281292108668</v>
+      </c>
+      <c r="F56" t="n">
+        <v>531.1807228630697</v>
       </c>
     </row>
     <row r="57">
@@ -1485,7 +1646,10 @@
         <v>2591.148008123041</v>
       </c>
       <c r="E57" t="n">
-        <v>2310.555777296882</v>
+        <v>2591.148008123041</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2404.086520905601</v>
       </c>
     </row>
     <row r="58">
@@ -1504,7 +1668,10 @@
         <v>1.072139449885135</v>
       </c>
       <c r="E58" t="n">
-        <v>992.1351570581251</v>
+        <v>1.072139449885135</v>
+      </c>
+      <c r="F58" t="n">
+        <v>661.7808178553784</v>
       </c>
     </row>
     <row r="59">
@@ -1523,7 +1690,10 @@
         <v>2482.028807246201</v>
       </c>
       <c r="E59" t="n">
-        <v>1241.41017723263</v>
+        <v>2482.028807246201</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1654.949720570487</v>
       </c>
     </row>
     <row r="60">
@@ -1542,7 +1712,10 @@
         <v>0.635662646377761</v>
       </c>
       <c r="E60" t="n">
-        <v>0.885077962667689</v>
+        <v>0.635662646377761</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.8019395239043797</v>
       </c>
     </row>
     <row r="61">
@@ -1561,7 +1734,10 @@
         <v>2544.382636318681</v>
       </c>
       <c r="E61" t="n">
-        <v>2333.938463199062</v>
+        <v>2544.382636318681</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2404.086520905602</v>
       </c>
     </row>
     <row r="62">
@@ -1580,7 +1756,10 @@
         <v>0.4018357873559784</v>
       </c>
       <c r="E62" t="n">
-        <v>1093.12497746964</v>
+        <v>0.4018357873559784</v>
+      </c>
+      <c r="F62" t="n">
+        <v>728.8839302422117</v>
       </c>
     </row>
     <row r="63">
@@ -1599,7 +1778,10 @@
         <v>2513.205721782441</v>
       </c>
       <c r="E63" t="n">
-        <v>2162.465433249743</v>
+        <v>2513.205721782441</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2279.378862760643</v>
       </c>
     </row>
     <row r="64">
@@ -1618,7 +1800,10 @@
         <v>1.087727907153255</v>
       </c>
       <c r="E64" t="n">
-        <v>914.2006649461597</v>
+        <v>1.087727907153255</v>
+      </c>
+      <c r="F64" t="n">
+        <v>609.8296859331575</v>
       </c>
     </row>
     <row r="65">
@@ -1637,7 +1822,10 @@
         <v>2497.617264514321</v>
       </c>
       <c r="E65" t="n">
-        <v>2170.259661883803</v>
+        <v>2497.617264514321</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2279.378862760642</v>
       </c>
     </row>
     <row r="66">
@@ -1656,7 +1844,10 @@
         <v>1905.255888325765</v>
       </c>
       <c r="E66" t="n">
-        <v>1866.284745155466</v>
+        <v>1905.255888325765</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1879.275126212232</v>
       </c>
     </row>
     <row r="67">
@@ -1675,7 +1866,10 @@
         <v>1749.371315644566</v>
       </c>
       <c r="E67" t="n">
-        <v>1796.136687448925</v>
+        <v>1749.371315644566</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1780.548230180805</v>
       </c>
     </row>
     <row r="68">
@@ -1694,7 +1888,10 @@
         <v>1827.313601985166</v>
       </c>
       <c r="E68" t="n">
-        <v>1733.782858376446</v>
+        <v>1827.313601985166</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1764.959772912686</v>
       </c>
     </row>
     <row r="69">
@@ -1713,7 +1910,10 @@
         <v>1827.313601985166</v>
       </c>
       <c r="E69" t="n">
-        <v>1749.371315644566</v>
+        <v>1827.313601985166</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1775.352077758099</v>
       </c>
     </row>
     <row r="70">
@@ -1732,7 +1932,10 @@
         <v>1764.959772912686</v>
       </c>
       <c r="E70" t="n">
-        <v>1889.667431057645</v>
+        <v>1764.959772912686</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1848.098211675992</v>
       </c>
     </row>
     <row r="71">
@@ -1751,7 +1954,10 @@
         <v>1780.548230180806</v>
       </c>
       <c r="E71" t="n">
-        <v>1866.284745155465</v>
+        <v>1780.548230180806</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1837.705906830579</v>
       </c>
     </row>
     <row r="72">
@@ -1770,7 +1976,10 @@
         <v>0.9162548772039298</v>
       </c>
       <c r="E72" t="n">
-        <v>773361.1437069421</v>
+        <v>0.9162548772039298</v>
+      </c>
+      <c r="F72" t="n">
+        <v>515574.4012229205</v>
       </c>
     </row>
     <row r="73">
@@ -1789,7 +1998,10 @@
         <v>1577.898285695247</v>
       </c>
       <c r="E73" t="n">
-        <v>774149.6347223512</v>
+        <v>1577.898285695247</v>
+      </c>
+      <c r="F73" t="n">
+        <v>516625.7225767993</v>
       </c>
     </row>
     <row r="74">
@@ -1808,7 +2020,10 @@
         <v>0.1905255888325755</v>
       </c>
       <c r="E74" t="n">
-        <v>773360.7808422979</v>
+        <v>0.1905255888325755</v>
+      </c>
+      <c r="F74" t="n">
+        <v>515573.9174033949</v>
       </c>
     </row>
     <row r="75">
@@ -1827,7 +2042,10 @@
         <v>0.2684678751731779</v>
       </c>
       <c r="E75" t="n">
-        <v>773360.8198134411</v>
+        <v>0.2684678751731779</v>
+      </c>
+      <c r="F75" t="n">
+        <v>515573.9693649192</v>
       </c>
     </row>
     <row r="76">
@@ -1846,7 +2064,10 @@
         <v>1531.132913890887</v>
       </c>
       <c r="E76" t="n">
-        <v>765.6270787237087</v>
+        <v>1531.132913890887</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1020.795690446102</v>
       </c>
     </row>
     <row r="77">
@@ -1865,7 +2086,10 @@
         <v>1889.667431057645</v>
       </c>
       <c r="E77" t="n">
-        <v>944.9601552377751</v>
+        <v>1889.667431057645</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1259.862580511065</v>
       </c>
     </row>
     <row r="78">
@@ -1884,7 +2108,10 @@
         <v>1874.078973789525</v>
       </c>
       <c r="E78" t="n">
-        <v>2029.963546470724</v>
+        <v>1874.078973789525</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1978.002022243658</v>
       </c>
     </row>
     <row r="79">
@@ -1903,7 +2130,10 @@
         <v>2123.494290079444</v>
       </c>
       <c r="E79" t="n">
-        <v>2139.082747347564</v>
+        <v>2123.494290079444</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2133.886594924857</v>
       </c>
     </row>
     <row r="80">
@@ -1922,7 +2152,10 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E80" t="n">
-        <v>1031.051740627986</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1374.414647420979</v>
       </c>
     </row>
     <row r="81">
@@ -1941,7 +2174,10 @@
         <v>2232.613490956283</v>
       </c>
       <c r="E81" t="n">
-        <v>1116.445309542747</v>
+        <v>2232.613490956283</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1488.501370013925</v>
       </c>
     </row>
     <row r="82">
@@ -1960,7 +2196,10 @@
         <v>2232.613490956283</v>
       </c>
       <c r="E82" t="n">
-        <v>2255.996176858463</v>
+        <v>2232.613490956283</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2248.201948224403</v>
       </c>
     </row>
     <row r="83">
@@ -1979,7 +2218,10 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E83" t="n">
-        <v>2154.671204615684</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2123.494290079444</v>
       </c>
     </row>
     <row r="84">
@@ -1998,7 +2240,10 @@
         <v>1811.725144717046</v>
       </c>
       <c r="E84" t="n">
-        <v>1749.371315644566</v>
+        <v>1811.725144717046</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1770.155925335393</v>
       </c>
     </row>
     <row r="85">
@@ -2017,7 +2262,10 @@
         <v>1811.725144717046</v>
       </c>
       <c r="E85" t="n">
-        <v>1749.371315644566</v>
+        <v>1811.725144717046</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1770.155925335393</v>
       </c>
     </row>
     <row r="86">
@@ -2036,7 +2284,10 @@
         <v>1764.959772912686</v>
       </c>
       <c r="E86" t="n">
-        <v>1850.696287887345</v>
+        <v>1764.959772912686</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1822.117449562459</v>
       </c>
     </row>
     <row r="87">
@@ -2055,7 +2306,10 @@
         <v>1780.548230180806</v>
       </c>
       <c r="E87" t="n">
-        <v>1842.902059253285</v>
+        <v>1780.548230180806</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1822.117449562459</v>
       </c>
     </row>
     <row r="88">
@@ -2074,7 +2328,10 @@
         <v>1593.486742963367</v>
       </c>
       <c r="E88" t="n">
-        <v>1546.721371159008</v>
+        <v>1593.486742963367</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1562.309828427127</v>
       </c>
     </row>
     <row r="89">
@@ -2093,7 +2350,10 @@
         <v>1593.486742963367</v>
       </c>
       <c r="E89" t="n">
-        <v>1562.309828427127</v>
+        <v>1593.486742963367</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1572.702133272541</v>
       </c>
     </row>
     <row r="90">
@@ -2112,7 +2372,10 @@
         <v>0.7915472190589905</v>
       </c>
       <c r="E90" t="n">
-        <v>1030.966004113011</v>
+        <v>0.7915472190589905</v>
+      </c>
+      <c r="F90" t="n">
+        <v>687.5745184816939</v>
       </c>
     </row>
     <row r="91">
@@ -2131,7 +2394,10 @@
         <v>1.134493278957617</v>
       </c>
       <c r="E91" t="n">
-        <v>1031.137477142961</v>
+        <v>1.134493278957617</v>
+      </c>
+      <c r="F91" t="n">
+        <v>687.803149188293</v>
       </c>
     </row>
     <row r="92">
@@ -2150,7 +2416,10 @@
         <v>1858.490516521405</v>
       </c>
       <c r="E92" t="n">
-        <v>719730.3303993448</v>
+        <v>1858.490516521405</v>
+      </c>
+      <c r="F92" t="n">
+        <v>480439.7171050704</v>
       </c>
     </row>
     <row r="93">
@@ -2169,7 +2438,10 @@
         <v>1827.313601985166</v>
       </c>
       <c r="E93" t="n">
-        <v>719714.7419420766</v>
+        <v>1827.313601985166</v>
+      </c>
+      <c r="F93" t="n">
+        <v>480418.9324953794</v>
       </c>
     </row>
     <row r="94">
@@ -2188,7 +2460,10 @@
         <v>2029.963546470724</v>
       </c>
       <c r="E94" t="n">
-        <v>719816.0669143194</v>
+        <v>2029.963546470724</v>
+      </c>
+      <c r="F94" t="n">
+        <v>480554.0324583699</v>
       </c>
     </row>
     <row r="95">
@@ -2207,7 +2482,10 @@
         <v>1983.198174666365</v>
       </c>
       <c r="E95" t="n">
-        <v>719792.6842284172</v>
+        <v>1983.198174666365</v>
+      </c>
+      <c r="F95" t="n">
+        <v>480522.8555438336</v>
       </c>
     </row>
     <row r="96">
@@ -2226,7 +2504,10 @@
         <v>2123.494290079444</v>
       </c>
       <c r="E96" t="n">
-        <v>1757.165544278626</v>
+        <v>2123.494290079444</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1879.275126212232</v>
       </c>
     </row>
     <row r="97">
@@ -2245,7 +2526,10 @@
         <v>2185.848119151923</v>
       </c>
       <c r="E97" t="n">
-        <v>1796.136687448926</v>
+        <v>2185.848119151923</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1926.040498016591</v>
       </c>
     </row>
     <row r="98">
@@ -2264,7 +2548,10 @@
         <v>1811.725144717046</v>
       </c>
       <c r="E98" t="n">
-        <v>2014.375089202604</v>
+        <v>1811.725144717046</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1946.825107707418</v>
       </c>
     </row>
     <row r="99">
@@ -2283,7 +2570,10 @@
         <v>1640.252114767727</v>
       </c>
       <c r="E99" t="n">
-        <v>1928.638574227945</v>
+        <v>1640.252114767727</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1832.509754407872</v>
       </c>
     </row>
     <row r="100">
@@ -2302,7 +2592,10 @@
         <v>1671.429029303966</v>
       </c>
       <c r="E100" t="n">
-        <v>1492.161770720588</v>
+        <v>1671.429029303966</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1551.917523581714</v>
       </c>
     </row>
     <row r="101">
@@ -2321,7 +2614,10 @@
         <v>1546721.371159007</v>
       </c>
       <c r="E101" t="n">
-        <v>774040.5155214744</v>
+        <v>1546721.371159007</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1031600.800733985</v>
       </c>
     </row>
     <row r="102">
@@ -2340,7 +2636,10 @@
         <v>1546721.371159007</v>
       </c>
       <c r="E102" t="n">
-        <v>774469.1980963477</v>
+        <v>1546721.371159007</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1031886.589117234</v>
       </c>
     </row>
     <row r="103">
@@ -2359,7 +2658,10 @@
         <v>1437602.170282168</v>
       </c>
       <c r="E103" t="n">
-        <v>719909.5976579281</v>
+        <v>1437602.170282168</v>
+      </c>
+      <c r="F103" t="n">
+        <v>959140.4551993414</v>
       </c>
     </row>
     <row r="104">
@@ -2378,7 +2680,10 @@
         <v>0.1212435565298096</v>
       </c>
       <c r="E104" t="n">
-        <v>648.7136492128094</v>
+        <v>0.1212435565298096</v>
+      </c>
+      <c r="F104" t="n">
+        <v>432.5161806607162</v>
       </c>
     </row>
     <row r="105">
@@ -2397,7 +2702,10 @@
         <v>0.2528794179050575</v>
       </c>
       <c r="E105" t="n">
-        <v>594.2198667050775</v>
+        <v>0.2528794179050575</v>
+      </c>
+      <c r="F105" t="n">
+        <v>396.2308709426866</v>
       </c>
     </row>
     <row r="106">
@@ -2416,7 +2724,10 @@
         <v>1484.367542086528</v>
       </c>
       <c r="E106" t="n">
-        <v>1850.696287887346</v>
+        <v>1484.367542086528</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1728.58670595374</v>
       </c>
     </row>
     <row r="107">
@@ -2435,7 +2746,10 @@
         <v>0.9630202490082912</v>
       </c>
       <c r="E107" t="n">
-        <v>1186.936313309185</v>
+        <v>0.9630202490082912</v>
+      </c>
+      <c r="F107" t="n">
+        <v>791.6118822891262</v>
       </c>
     </row>
     <row r="108">
@@ -2454,7 +2768,10 @@
         <v>0.2771281292110391</v>
       </c>
       <c r="E108" t="n">
-        <v>874.8242218868885</v>
+        <v>0.2771281292110391</v>
+      </c>
+      <c r="F108" t="n">
+        <v>583.3085239676626</v>
       </c>
     </row>
     <row r="109">
@@ -2473,7 +2790,10 @@
         <v>1484.367542086528</v>
       </c>
       <c r="E109" t="n">
-        <v>1616.869428865547</v>
+        <v>1484.367542086528</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1572.702133272541</v>
       </c>
     </row>
     <row r="110">
@@ -2492,7 +2812,10 @@
         <v>1312.894512137209</v>
       </c>
       <c r="E110" t="n">
-        <v>1531.132913890887</v>
+        <v>1312.894512137209</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1458.386779972995</v>
       </c>
     </row>
     <row r="111">
@@ -2511,7 +2834,10 @@
         <v>1359.659883941569</v>
       </c>
       <c r="E111" t="n">
-        <v>1554.515599793067</v>
+        <v>1359.659883941569</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1489.563694509234</v>
       </c>
     </row>
     <row r="112">
@@ -2530,7 +2856,10 @@
         <v>2014.375089202604</v>
       </c>
       <c r="E112" t="n">
-        <v>1492.161770720588</v>
+        <v>2014.375089202604</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1666.23287688126</v>
       </c>
     </row>
     <row r="113">
@@ -2549,7 +2878,10 @@
         <v>1952.021260130125</v>
       </c>
       <c r="E113" t="n">
-        <v>1928.638574227945</v>
+        <v>1952.021260130125</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1936.432802862005</v>
       </c>
     </row>
     <row r="114">
@@ -2568,7 +2900,10 @@
         <v>1546721.371159007</v>
       </c>
       <c r="E114" t="n">
-        <v>773775.5117479163</v>
+        <v>1546721.371159007</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1031424.131551613</v>
       </c>
     </row>
     <row r="115">
@@ -2587,7 +2922,10 @@
         <v>1546721.371159007</v>
       </c>
       <c r="E115" t="n">
-        <v>773915.8078633294</v>
+        <v>1546721.371159007</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1031517.662295222</v>
       </c>
     </row>
     <row r="116">
@@ -2606,7 +2944,10 @@
         <v>1437602.170282168</v>
       </c>
       <c r="E116" t="n">
-        <v>719286.0593672033</v>
+        <v>1437602.170282168</v>
+      </c>
+      <c r="F116" t="n">
+        <v>958724.7630055249</v>
       </c>
     </row>
     <row r="117">
@@ -2625,7 +2966,10 @@
         <v>2185.848119151923</v>
       </c>
       <c r="E117" t="n">
-        <v>1499.955999354648</v>
+        <v>2185.848119151923</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1728.58670595374</v>
       </c>
     </row>
     <row r="118">
@@ -2644,7 +2988,10 @@
         <v>2154.671204615684</v>
       </c>
       <c r="E118" t="n">
-        <v>1671.429029303967</v>
+        <v>2154.671204615684</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1832.509754407873</v>
       </c>
     </row>
     <row r="119">
@@ -2663,7 +3010,10 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E119" t="n">
-        <v>1515.544456622767</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1697.4097914175</v>
       </c>
     </row>
     <row r="120">
@@ -2682,7 +3032,10 @@
         <v>2279.378862760643</v>
       </c>
       <c r="E120" t="n">
-        <v>1632.457886133667</v>
+        <v>2279.378862760643</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1848.098211675992</v>
       </c>
     </row>
     <row r="121">
@@ -2701,7 +3054,10 @@
         <v>2248.201948224403</v>
       </c>
       <c r="E121" t="n">
-        <v>1585.692514329307</v>
+        <v>2248.201948224403</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1806.528992294339</v>
       </c>
     </row>
     <row r="122">
@@ -2720,7 +3076,10 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E122" t="n">
-        <v>1515.544456622767</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1697.4097914175</v>
       </c>
     </row>
     <row r="123">
@@ -2739,7 +3098,10 @@
         <v>2217.025033688163</v>
       </c>
       <c r="E123" t="n">
-        <v>1609.075200231487</v>
+        <v>2217.025033688163</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1811.725144717046</v>
       </c>
     </row>
     <row r="124">
@@ -2758,7 +3120,10 @@
         <v>2217.025033688163</v>
       </c>
       <c r="E124" t="n">
-        <v>1570.104057061187</v>
+        <v>2217.025033688163</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1785.744382603513</v>
       </c>
     </row>
     <row r="125">
@@ -2777,7 +3142,10 @@
         <v>1687.017486572086</v>
       </c>
       <c r="E125" t="n">
-        <v>1328.482969405329</v>
+        <v>1687.017486572086</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1447.994475127581</v>
       </c>
     </row>
     <row r="126">
@@ -2796,7 +3164,10 @@
         <v>1687.017486572086</v>
       </c>
       <c r="E126" t="n">
-        <v>2185.848119151923</v>
+        <v>1687.017486572086</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2019.571241625311</v>
       </c>
     </row>
     <row r="127">
@@ -2815,7 +3186,10 @@
         <v>1499.955999354648</v>
       </c>
       <c r="E127" t="n">
-        <v>2092.317375543204</v>
+        <v>1499.955999354648</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1894.863583480352</v>
       </c>
     </row>
     <row r="128">
@@ -2834,7 +3208,10 @@
         <v>1531.132913890887</v>
       </c>
       <c r="E128" t="n">
-        <v>2029.963546470724</v>
+        <v>1531.132913890887</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1863.686668944112</v>
       </c>
     </row>
     <row r="129">
@@ -2853,7 +3230,10 @@
         <v>1437602.170282168</v>
       </c>
       <c r="E129" t="n">
-        <v>720143.4245169499</v>
+        <v>1437602.170282168</v>
+      </c>
+      <c r="F129" t="n">
+        <v>959296.3397720227</v>
       </c>
     </row>
     <row r="130">
@@ -2872,7 +3252,10 @@
         <v>1437602.170282168</v>
       </c>
       <c r="E130" t="n">
-        <v>720221.3668032906</v>
+        <v>1437602.170282168</v>
+      </c>
+      <c r="F130" t="n">
+        <v>959348.3012962496</v>
       </c>
     </row>
     <row r="131">
@@ -2891,7 +3274,10 @@
         <v>1390.836798477809</v>
       </c>
       <c r="E131" t="n">
-        <v>1881.873202423585</v>
+        <v>1390.836798477809</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1718.194401108327</v>
       </c>
     </row>
     <row r="132">
@@ -2910,7 +3296,10 @@
         <v>1406.425255745928</v>
       </c>
       <c r="E132" t="n">
-        <v>2045.552003738844</v>
+        <v>1406.425255745928</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1832.509754407872</v>
       </c>
     </row>
     <row r="133">
@@ -2929,7 +3318,10 @@
         <v>1297.306054869089</v>
       </c>
       <c r="E133" t="n">
-        <v>1990.992403300424</v>
+        <v>1297.306054869089</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1759.763620489979</v>
       </c>
     </row>
     <row r="134">
@@ -2948,7 +3340,10 @@
         <v>1188.18685399225</v>
       </c>
       <c r="E134" t="n">
-        <v>1936.432802862005</v>
+        <v>1188.18685399225</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1687.017486572086</v>
       </c>
     </row>
     <row r="135">
@@ -2967,7 +3362,10 @@
         <v>1936.432802862005</v>
       </c>
       <c r="E135" t="n">
-        <v>2310.555777296882</v>
+        <v>1936.432802862005</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2185.848119151923</v>
       </c>
     </row>
     <row r="136">
@@ -2986,7 +3384,10 @@
         <v>1905.255888325765</v>
       </c>
       <c r="E136" t="n">
-        <v>2217.025033688163</v>
+        <v>1905.255888325765</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2113.101985234031</v>
       </c>
     </row>
     <row r="137">
@@ -3005,7 +3406,10 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E137" t="n">
-        <v>2372.909606369362</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2268.986557915229</v>
       </c>
     </row>
     <row r="138">
@@ -3024,7 +3428,10 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E138" t="n">
-        <v>2372.909606369362</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2268.986557915229</v>
       </c>
     </row>
     <row r="139">
@@ -3043,7 +3450,10 @@
         <v>1437602.170282168</v>
       </c>
       <c r="E139" t="n">
-        <v>719325.0305103736</v>
+        <v>1437602.170282168</v>
+      </c>
+      <c r="F139" t="n">
+        <v>958750.7437676383</v>
       </c>
     </row>
     <row r="140">
@@ -3062,7 +3472,10 @@
         <v>1437602.170282168</v>
       </c>
       <c r="E140" t="n">
-        <v>720065.4822306093</v>
+        <v>1437602.170282168</v>
+      </c>
+      <c r="F140" t="n">
+        <v>959244.3782477956</v>
       </c>
     </row>
     <row r="141">
@@ -3081,7 +3494,10 @@
         <v>2217.025033688163</v>
       </c>
       <c r="E141" t="n">
-        <v>1499.955999354648</v>
+        <v>2217.025033688163</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1738.979010799153</v>
       </c>
     </row>
     <row r="142">
@@ -3100,7 +3516,10 @@
         <v>2217.025033688163</v>
       </c>
       <c r="E142" t="n">
-        <v>2528.794179050561</v>
+        <v>2217.025033688163</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2424.871130596428</v>
       </c>
     </row>
     <row r="143">
@@ -3119,7 +3538,10 @@
         <v>2217.025033688163</v>
       </c>
       <c r="E143" t="n">
-        <v>1874.078973789525</v>
+        <v>2217.025033688163</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1988.394327089071</v>
       </c>
     </row>
     <row r="144">
@@ -3138,7 +3560,10 @@
         <v>2372.909606369362</v>
       </c>
       <c r="E144" t="n">
-        <v>2217.025033688163</v>
+        <v>2372.909606369362</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2268.986557915229</v>
       </c>
     </row>
     <row r="145">
@@ -3157,7 +3582,10 @@
         <v>1749.371315644566</v>
       </c>
       <c r="E145" t="n">
-        <v>1390.836798477808</v>
+        <v>1749.371315644566</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1510.348304200061</v>
       </c>
     </row>
     <row r="146">
@@ -3176,7 +3604,10 @@
         <v>1749.371315644566</v>
       </c>
       <c r="E146" t="n">
-        <v>2139.082747347563</v>
+        <v>1749.371315644566</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2009.178936779898</v>
       </c>
     </row>
     <row r="147">
@@ -3195,7 +3626,10 @@
         <v>1531.132913890887</v>
       </c>
       <c r="E147" t="n">
-        <v>1164.80416809007</v>
+        <v>1531.132913890887</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1286.913750023676</v>
       </c>
     </row>
     <row r="148">
@@ -3214,7 +3648,10 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E148" t="n">
-        <v>2450.851892709961</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2320.948082142295</v>
       </c>
     </row>
     <row r="149">
@@ -3233,7 +3670,10 @@
         <v>1032.302281311051</v>
       </c>
       <c r="E149" t="n">
-        <v>837.4465654595522</v>
+        <v>1032.302281311051</v>
+      </c>
+      <c r="F149" t="n">
+        <v>902.3984707433851</v>
       </c>
     </row>
     <row r="150">
@@ -3252,7 +3692,10 @@
         <v>2528.794179050561</v>
       </c>
       <c r="E150" t="n">
-        <v>2762.62103807236</v>
+        <v>2528.794179050561</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2684.67875173176</v>
       </c>
     </row>
     <row r="151">
@@ -3271,7 +3714,10 @@
         <v>798.4754222892524</v>
       </c>
       <c r="E151" t="n">
-        <v>1172.59839672413</v>
+        <v>798.4754222892524</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1047.890738579171</v>
       </c>
     </row>
     <row r="152">
@@ -3290,7 +3736,10 @@
         <v>2840.563324412959</v>
       </c>
       <c r="E152" t="n">
-        <v>2450.851892709961</v>
+        <v>2840.563324412959</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2580.755703277627</v>
       </c>
     </row>
     <row r="153">
@@ -3309,7 +3758,10 @@
         <v>642.5908496080535</v>
       </c>
       <c r="E153" t="n">
-        <v>1195.98108262631</v>
+        <v>642.5908496080535</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1011.517671620224</v>
       </c>
     </row>
     <row r="154">
@@ -3328,7 +3780,10 @@
         <v>2996.447897094158</v>
       </c>
       <c r="E154" t="n">
-        <v>2372.909606369362</v>
+        <v>2996.447897094158</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2580.755703277628</v>
       </c>
     </row>
     <row r="155">
@@ -3347,7 +3802,10 @@
         <v>1546.721371159008</v>
       </c>
       <c r="E155" t="n">
-        <v>1725.988629742386</v>
+        <v>1546.721371159008</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1666.23287688126</v>
       </c>
     </row>
     <row r="156">
@@ -3366,7 +3824,10 @@
         <v>2061.140461006964</v>
       </c>
       <c r="E156" t="n">
-        <v>1764.959772912686</v>
+        <v>2061.140461006964</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1863.686668944112</v>
       </c>
     </row>
     <row r="157">
@@ -3385,7 +3846,10 @@
         <v>1842.902059253285</v>
       </c>
       <c r="E157" t="n">
-        <v>1952.021260130125</v>
+        <v>1842.902059253285</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1915.648193171178</v>
       </c>
     </row>
     <row r="158">
@@ -3404,7 +3868,10 @@
         <v>1827.313601985166</v>
       </c>
       <c r="E158" t="n">
-        <v>1788.342458814866</v>
+        <v>1827.313601985166</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1801.332839871632</v>
       </c>
     </row>
     <row r="159">
@@ -3423,7 +3890,10 @@
         <v>1749.371315644566</v>
       </c>
       <c r="E159" t="n">
-        <v>719675.7707989063</v>
+        <v>1749.371315644566</v>
+      </c>
+      <c r="F159" t="n">
+        <v>480366.9709711524</v>
       </c>
     </row>
     <row r="160">
@@ -3442,7 +3912,10 @@
         <v>1749.371315644566</v>
       </c>
       <c r="E160" t="n">
-        <v>1616.869428865547</v>
+        <v>1749.371315644566</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1661.036724458553</v>
       </c>
     </row>
     <row r="161">
@@ -3461,7 +3934,10 @@
         <v>1905.255888325765</v>
       </c>
       <c r="E161" t="n">
-        <v>1718.194401108326</v>
+        <v>1905.255888325765</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1780.548230180806</v>
       </c>
     </row>
     <row r="162">
@@ -3480,7 +3956,10 @@
         <v>1842.902059253285</v>
       </c>
       <c r="E162" t="n">
-        <v>1663.634800669907</v>
+        <v>1842.902059253285</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1723.390553531033</v>
       </c>
     </row>
     <row r="163">
@@ -3499,7 +3978,10 @@
         <v>1468.779084818408</v>
       </c>
       <c r="E163" t="n">
-        <v>719535.4746834933</v>
+        <v>1468.779084818408</v>
+      </c>
+      <c r="F163" t="n">
+        <v>480179.909483935</v>
       </c>
     </row>
     <row r="164">
@@ -3520,6 +4002,9 @@
       <c r="E164" t="n">
         <v>2061.140461006964</v>
       </c>
+      <c r="F164" t="n">
+        <v>2061.140461006964</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3537,7 +4022,10 @@
         <v>1749.371315644566</v>
       </c>
       <c r="E165" t="n">
-        <v>1905.255888325765</v>
+        <v>1749.371315644566</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1853.294364098699</v>
       </c>
     </row>
     <row r="166">
@@ -3556,7 +4044,10 @@
         <v>1749.371315644566</v>
       </c>
       <c r="E166" t="n">
-        <v>1905.255888325765</v>
+        <v>1749.371315644566</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1853.294364098699</v>
       </c>
     </row>
     <row r="167">
@@ -3569,15 +4060,18 @@
         <v>92908.49521472098</v>
       </c>
       <c r="D167" t="n">
-        <v>92908.38829800449</v>
+        <v>92908.38829800447</v>
       </c>
       <c r="E167" t="n">
-        <v>92908.44175636274</v>
+        <v>92908.36691466119</v>
+      </c>
+      <c r="F167" t="n">
+        <v>92908.41680912887</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/root/result.xlsx
+++ b/root/result.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,12 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>aver</t>
         </is>
@@ -519,7 +524,10 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -535,7 +543,10 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +562,10 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -567,7 +581,10 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -583,7 +600,10 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -599,7 +619,10 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -615,7 +638,10 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -631,7 +657,10 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -647,7 +676,10 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -663,7 +695,10 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -679,7 +714,10 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -695,7 +733,10 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -711,7 +752,10 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -727,7 +771,10 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -743,7 +790,10 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -759,7 +809,10 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,7 +828,10 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -791,7 +847,10 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -807,7 +866,10 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -823,7 +885,10 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -839,7 +904,10 @@
       <c r="C25" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -855,7 +923,10 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -871,7 +942,10 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -887,7 +961,10 @@
       <c r="C28" t="n">
         <v>0</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -903,7 +980,10 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -919,7 +999,10 @@
       <c r="C30" t="n">
         <v>0</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -935,7 +1018,10 @@
       <c r="C31" t="n">
         <v>0</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -951,7 +1037,10 @@
       <c r="C32" t="n">
         <v>0</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -967,7 +1056,10 @@
       <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,7 +1075,10 @@
       <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -999,7 +1094,10 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1015,7 +1113,10 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" s="6" t="n">
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1031,7 +1132,10 @@
       <c r="C37" t="n">
         <v>0</v>
       </c>
-      <c r="D37" s="6" t="n">
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1047,7 +1151,10 @@
       <c r="C38" t="n">
         <v>0</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1063,7 +1170,10 @@
       <c r="C39" t="n">
         <v>0</v>
       </c>
-      <c r="D39" s="6" t="n">
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1079,7 +1189,10 @@
       <c r="C40" t="n">
         <v>0</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1095,7 +1208,10 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1111,7 +1227,10 @@
       <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1127,7 +1246,10 @@
       <c r="C43" t="n">
         <v>0</v>
       </c>
-      <c r="D43" s="6" t="n">
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1143,7 +1265,10 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1159,7 +1284,10 @@
       <c r="C45" t="n">
         <v>0</v>
       </c>
-      <c r="D45" s="6" t="n">
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1175,7 +1303,10 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
-      <c r="D46" s="6" t="n">
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,7 +1322,10 @@
       <c r="C47" t="n">
         <v>0</v>
       </c>
-      <c r="D47" s="6" t="n">
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1207,7 +1341,10 @@
       <c r="C48" t="n">
         <v>0</v>
       </c>
-      <c r="D48" s="6" t="n">
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1223,7 +1360,10 @@
       <c r="C49" t="n">
         <v>0</v>
       </c>
-      <c r="D49" s="6" t="n">
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1239,7 +1379,10 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1255,7 +1398,10 @@
       <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="D51" s="6" t="n">
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1271,7 +1417,10 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" s="6" t="n">
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1287,7 +1436,10 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" s="6" t="n">
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1303,7 +1455,10 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54" s="6" t="n">
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1319,7 +1474,10 @@
       <c r="C55" t="n">
         <v>0</v>
       </c>
-      <c r="D55" s="6" t="n">
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1335,7 +1493,10 @@
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" s="6" t="n">
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1351,7 +1512,10 @@
       <c r="C57" t="n">
         <v>0</v>
       </c>
-      <c r="D57" s="6" t="n">
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1367,7 +1531,10 @@
       <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="D58" s="6" t="n">
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1383,7 +1550,10 @@
       <c r="C59" t="n">
         <v>0</v>
       </c>
-      <c r="D59" s="6" t="n">
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,7 +1569,10 @@
       <c r="C60" t="n">
         <v>0</v>
       </c>
-      <c r="D60" s="6" t="n">
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1415,7 +1588,10 @@
       <c r="C61" t="n">
         <v>0</v>
       </c>
-      <c r="D61" s="6" t="n">
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1431,7 +1607,10 @@
       <c r="C62" t="n">
         <v>0</v>
       </c>
-      <c r="D62" s="6" t="n">
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1447,7 +1626,10 @@
       <c r="C63" t="n">
         <v>0</v>
       </c>
-      <c r="D63" s="6" t="n">
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1463,7 +1645,10 @@
       <c r="C64" t="n">
         <v>0</v>
       </c>
-      <c r="D64" s="6" t="n">
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1479,7 +1664,10 @@
       <c r="C65" t="n">
         <v>0</v>
       </c>
-      <c r="D65" s="6" t="n">
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1495,7 +1683,10 @@
       <c r="C66" t="n">
         <v>0</v>
       </c>
-      <c r="D66" s="6" t="n">
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1511,7 +1702,10 @@
       <c r="C67" t="n">
         <v>0</v>
       </c>
-      <c r="D67" s="6" t="n">
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1527,7 +1721,10 @@
       <c r="C68" t="n">
         <v>0</v>
       </c>
-      <c r="D68" s="6" t="n">
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1543,7 +1740,10 @@
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69" s="6" t="n">
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1559,7 +1759,10 @@
       <c r="C70" t="n">
         <v>0</v>
       </c>
-      <c r="D70" s="6" t="n">
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1575,7 +1778,10 @@
       <c r="C71" t="n">
         <v>0</v>
       </c>
-      <c r="D71" s="6" t="n">
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1591,7 +1797,10 @@
       <c r="C72" t="n">
         <v>0</v>
       </c>
-      <c r="D72" s="6" t="n">
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,7 +1816,10 @@
       <c r="C73" t="n">
         <v>0</v>
       </c>
-      <c r="D73" s="6" t="n">
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1623,7 +1835,10 @@
       <c r="C74" t="n">
         <v>0</v>
       </c>
-      <c r="D74" s="6" t="n">
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1639,7 +1854,10 @@
       <c r="C75" t="n">
         <v>0</v>
       </c>
-      <c r="D75" s="6" t="n">
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1655,7 +1873,10 @@
       <c r="C76" t="n">
         <v>0</v>
       </c>
-      <c r="D76" s="6" t="n">
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1671,7 +1892,10 @@
       <c r="C77" t="n">
         <v>0</v>
       </c>
-      <c r="D77" s="6" t="n">
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1687,7 +1911,10 @@
       <c r="C78" t="n">
         <v>0</v>
       </c>
-      <c r="D78" s="6" t="n">
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1703,7 +1930,10 @@
       <c r="C79" t="n">
         <v>0</v>
       </c>
-      <c r="D79" s="6" t="n">
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1719,7 +1949,10 @@
       <c r="C80" t="n">
         <v>0</v>
       </c>
-      <c r="D80" s="6" t="n">
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1735,7 +1968,10 @@
       <c r="C81" t="n">
         <v>0</v>
       </c>
-      <c r="D81" s="6" t="n">
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1751,7 +1987,10 @@
       <c r="C82" t="n">
         <v>0</v>
       </c>
-      <c r="D82" s="6" t="n">
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1767,7 +2006,10 @@
       <c r="C83" t="n">
         <v>0</v>
       </c>
-      <c r="D83" s="6" t="n">
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1783,7 +2025,10 @@
       <c r="C84" t="n">
         <v>0</v>
       </c>
-      <c r="D84" s="6" t="n">
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1799,7 +2044,10 @@
       <c r="C85" t="n">
         <v>0</v>
       </c>
-      <c r="D85" s="6" t="n">
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,7 +2063,10 @@
       <c r="C86" t="n">
         <v>0</v>
       </c>
-      <c r="D86" s="6" t="n">
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1831,7 +2082,10 @@
       <c r="C87" t="n">
         <v>0</v>
       </c>
-      <c r="D87" s="6" t="n">
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1847,7 +2101,10 @@
       <c r="C88" t="n">
         <v>0</v>
       </c>
-      <c r="D88" s="6" t="n">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1863,7 +2120,10 @@
       <c r="C89" t="n">
         <v>0</v>
       </c>
-      <c r="D89" s="6" t="n">
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1879,7 +2139,10 @@
       <c r="C90" t="n">
         <v>0</v>
       </c>
-      <c r="D90" s="6" t="n">
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1895,7 +2158,10 @@
       <c r="C91" t="n">
         <v>0</v>
       </c>
-      <c r="D91" s="6" t="n">
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1911,7 +2177,10 @@
       <c r="C92" t="n">
         <v>0</v>
       </c>
-      <c r="D92" s="6" t="n">
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1927,7 +2196,10 @@
       <c r="C93" t="n">
         <v>0</v>
       </c>
-      <c r="D93" s="6" t="n">
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1943,7 +2215,10 @@
       <c r="C94" t="n">
         <v>0</v>
       </c>
-      <c r="D94" s="6" t="n">
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1959,7 +2234,10 @@
       <c r="C95" t="n">
         <v>0</v>
       </c>
-      <c r="D95" s="6" t="n">
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1975,7 +2253,10 @@
       <c r="C96" t="n">
         <v>0</v>
       </c>
-      <c r="D96" s="6" t="n">
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1991,7 +2272,10 @@
       <c r="C97" t="n">
         <v>0</v>
       </c>
-      <c r="D97" s="6" t="n">
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2007,7 +2291,10 @@
       <c r="C98" t="n">
         <v>0</v>
       </c>
-      <c r="D98" s="6" t="n">
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2023,7 +2310,10 @@
       <c r="C99" t="n">
         <v>0</v>
       </c>
-      <c r="D99" s="6" t="n">
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2039,7 +2329,10 @@
       <c r="C100" t="n">
         <v>0</v>
       </c>
-      <c r="D100" s="6" t="n">
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2055,7 +2348,10 @@
       <c r="C101" t="n">
         <v>0</v>
       </c>
-      <c r="D101" s="6" t="n">
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2071,7 +2367,10 @@
       <c r="C102" t="n">
         <v>0</v>
       </c>
-      <c r="D102" s="6" t="n">
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2087,7 +2386,10 @@
       <c r="C103" t="n">
         <v>0</v>
       </c>
-      <c r="D103" s="6" t="n">
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2103,7 +2405,10 @@
       <c r="C104" t="n">
         <v>0</v>
       </c>
-      <c r="D104" s="6" t="n">
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2119,7 +2424,10 @@
       <c r="C105" t="n">
         <v>0</v>
       </c>
-      <c r="D105" s="6" t="n">
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2135,7 +2443,10 @@
       <c r="C106" t="n">
         <v>0</v>
       </c>
-      <c r="D106" s="6" t="n">
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2151,7 +2462,10 @@
       <c r="C107" t="n">
         <v>0</v>
       </c>
-      <c r="D107" s="6" t="n">
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2167,7 +2481,10 @@
       <c r="C108" t="n">
         <v>0</v>
       </c>
-      <c r="D108" s="6" t="n">
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2183,7 +2500,10 @@
       <c r="C109" t="n">
         <v>0</v>
       </c>
-      <c r="D109" s="6" t="n">
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2199,7 +2519,10 @@
       <c r="C110" t="n">
         <v>0</v>
       </c>
-      <c r="D110" s="6" t="n">
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2215,7 +2538,10 @@
       <c r="C111" t="n">
         <v>0</v>
       </c>
-      <c r="D111" s="6" t="n">
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,7 +2557,10 @@
       <c r="C112" t="n">
         <v>0</v>
       </c>
-      <c r="D112" s="6" t="n">
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2247,7 +2576,10 @@
       <c r="C113" t="n">
         <v>0</v>
       </c>
-      <c r="D113" s="6" t="n">
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2263,7 +2595,10 @@
       <c r="C114" t="n">
         <v>0</v>
       </c>
-      <c r="D114" s="6" t="n">
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2279,7 +2614,10 @@
       <c r="C115" t="n">
         <v>0</v>
       </c>
-      <c r="D115" s="6" t="n">
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2295,7 +2633,10 @@
       <c r="C116" t="n">
         <v>0</v>
       </c>
-      <c r="D116" s="6" t="n">
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2311,7 +2652,10 @@
       <c r="C117" t="n">
         <v>0</v>
       </c>
-      <c r="D117" s="6" t="n">
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2327,7 +2671,10 @@
       <c r="C118" t="n">
         <v>0</v>
       </c>
-      <c r="D118" s="6" t="n">
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2343,7 +2690,10 @@
       <c r="C119" t="n">
         <v>0</v>
       </c>
-      <c r="D119" s="6" t="n">
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2359,7 +2709,10 @@
       <c r="C120" t="n">
         <v>0</v>
       </c>
-      <c r="D120" s="6" t="n">
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2375,7 +2728,10 @@
       <c r="C121" t="n">
         <v>0</v>
       </c>
-      <c r="D121" s="6" t="n">
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2391,7 +2747,10 @@
       <c r="C122" t="n">
         <v>0</v>
       </c>
-      <c r="D122" s="6" t="n">
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2407,7 +2766,10 @@
       <c r="C123" t="n">
         <v>0</v>
       </c>
-      <c r="D123" s="6" t="n">
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2423,7 +2785,10 @@
       <c r="C124" t="n">
         <v>0</v>
       </c>
-      <c r="D124" s="6" t="n">
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,7 +2804,10 @@
       <c r="C125" t="n">
         <v>0</v>
       </c>
-      <c r="D125" s="6" t="n">
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2455,7 +2823,10 @@
       <c r="C126" t="n">
         <v>0</v>
       </c>
-      <c r="D126" s="6" t="n">
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2471,7 +2842,10 @@
       <c r="C127" t="n">
         <v>0</v>
       </c>
-      <c r="D127" s="6" t="n">
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2487,7 +2861,10 @@
       <c r="C128" t="n">
         <v>0</v>
       </c>
-      <c r="D128" s="6" t="n">
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2503,7 +2880,10 @@
       <c r="C129" t="n">
         <v>0</v>
       </c>
-      <c r="D129" s="6" t="n">
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2519,7 +2899,10 @@
       <c r="C130" t="n">
         <v>0</v>
       </c>
-      <c r="D130" s="6" t="n">
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2535,7 +2918,10 @@
       <c r="C131" t="n">
         <v>0</v>
       </c>
-      <c r="D131" s="6" t="n">
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2551,7 +2937,10 @@
       <c r="C132" t="n">
         <v>0</v>
       </c>
-      <c r="D132" s="6" t="n">
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2567,7 +2956,10 @@
       <c r="C133" t="n">
         <v>0</v>
       </c>
-      <c r="D133" s="6" t="n">
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2583,7 +2975,10 @@
       <c r="C134" t="n">
         <v>0</v>
       </c>
-      <c r="D134" s="6" t="n">
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2599,7 +2994,10 @@
       <c r="C135" t="n">
         <v>0</v>
       </c>
-      <c r="D135" s="6" t="n">
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2615,7 +3013,10 @@
       <c r="C136" t="n">
         <v>0</v>
       </c>
-      <c r="D136" s="6" t="n">
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2631,7 +3032,10 @@
       <c r="C137" t="n">
         <v>0</v>
       </c>
-      <c r="D137" s="6" t="n">
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,7 +3051,10 @@
       <c r="C138" t="n">
         <v>0</v>
       </c>
-      <c r="D138" s="6" t="n">
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2663,7 +3070,10 @@
       <c r="C139" t="n">
         <v>0</v>
       </c>
-      <c r="D139" s="6" t="n">
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2679,7 +3089,10 @@
       <c r="C140" t="n">
         <v>0</v>
       </c>
-      <c r="D140" s="6" t="n">
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2695,7 +3108,10 @@
       <c r="C141" t="n">
         <v>0</v>
       </c>
-      <c r="D141" s="6" t="n">
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2711,7 +3127,10 @@
       <c r="C142" t="n">
         <v>0</v>
       </c>
-      <c r="D142" s="6" t="n">
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2727,7 +3146,10 @@
       <c r="C143" t="n">
         <v>0</v>
       </c>
-      <c r="D143" s="6" t="n">
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2743,7 +3165,10 @@
       <c r="C144" t="n">
         <v>0</v>
       </c>
-      <c r="D144" s="6" t="n">
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2759,7 +3184,10 @@
       <c r="C145" t="n">
         <v>0</v>
       </c>
-      <c r="D145" s="6" t="n">
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2775,7 +3203,10 @@
       <c r="C146" t="n">
         <v>0</v>
       </c>
-      <c r="D146" s="6" t="n">
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2791,7 +3222,10 @@
       <c r="C147" t="n">
         <v>0</v>
       </c>
-      <c r="D147" s="6" t="n">
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2807,7 +3241,10 @@
       <c r="C148" t="n">
         <v>0</v>
       </c>
-      <c r="D148" s="6" t="n">
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2823,7 +3260,10 @@
       <c r="C149" t="n">
         <v>0</v>
       </c>
-      <c r="D149" s="6" t="n">
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2839,7 +3279,10 @@
       <c r="C150" t="n">
         <v>0</v>
       </c>
-      <c r="D150" s="6" t="n">
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2855,7 +3298,10 @@
       <c r="C151" t="n">
         <v>0</v>
       </c>
-      <c r="D151" s="6" t="n">
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2871,7 +3317,10 @@
       <c r="C152" t="n">
         <v>0</v>
       </c>
-      <c r="D152" s="6" t="n">
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2887,7 +3336,10 @@
       <c r="C153" t="n">
         <v>0</v>
       </c>
-      <c r="D153" s="6" t="n">
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2903,7 +3355,10 @@
       <c r="C154" t="n">
         <v>0</v>
       </c>
-      <c r="D154" s="6" t="n">
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2919,7 +3374,10 @@
       <c r="C155" t="n">
         <v>0</v>
       </c>
-      <c r="D155" s="6" t="n">
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2935,7 +3393,10 @@
       <c r="C156" t="n">
         <v>0</v>
       </c>
-      <c r="D156" s="6" t="n">
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2951,7 +3412,10 @@
       <c r="C157" t="n">
         <v>0</v>
       </c>
-      <c r="D157" s="6" t="n">
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2967,7 +3431,10 @@
       <c r="C158" t="n">
         <v>0</v>
       </c>
-      <c r="D158" s="6" t="n">
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2983,7 +3450,10 @@
       <c r="C159" t="n">
         <v>0</v>
       </c>
-      <c r="D159" s="6" t="n">
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2999,7 +3469,10 @@
       <c r="C160" t="n">
         <v>0</v>
       </c>
-      <c r="D160" s="6" t="n">
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3015,7 +3488,10 @@
       <c r="C161" t="n">
         <v>0</v>
       </c>
-      <c r="D161" s="6" t="n">
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3031,7 +3507,10 @@
       <c r="C162" t="n">
         <v>0</v>
       </c>
-      <c r="D162" s="6" t="n">
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3047,7 +3526,10 @@
       <c r="C163" t="n">
         <v>0</v>
       </c>
-      <c r="D163" s="6" t="n">
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,7 +3545,10 @@
       <c r="C164" t="n">
         <v>0</v>
       </c>
-      <c r="D164" s="6" t="n">
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3079,7 +3564,10 @@
       <c r="C165" t="n">
         <v>0</v>
       </c>
-      <c r="D165" s="6" t="n">
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3095,7 +3583,10 @@
       <c r="C166" t="n">
         <v>0</v>
       </c>
-      <c r="D166" s="6" t="n">
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3111,10 +3602,13 @@
       <c r="D167" t="n">
         <v>0</v>
       </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/root/result.xlsx
+++ b/root/result.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -60,6 +60,18 @@
         <bgColor rgb="00ccf5ff"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00bfbfbf"/>
+        <bgColor rgb="00bfbfbf"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e0e0eb"/>
+        <bgColor rgb="00e0e0eb"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -79,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -88,9 +100,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -456,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +491,7 @@
     <row r="2">
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">comment : </t>
+          <t>comment : comment</t>
         </is>
       </c>
     </row>
@@ -496,27 +513,22 @@
           <t>landmark_name</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>aver</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -524,18 +536,15 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Sella</t>
         </is>
@@ -543,18 +552,15 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6" t="n">
+      <c r="D6" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>R FZP</t>
         </is>
@@ -562,18 +568,15 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="n">
+      <c r="D7" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>L FZP</t>
         </is>
@@ -581,18 +584,15 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>R Or</t>
         </is>
@@ -600,18 +600,15 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>L Or</t>
         </is>
@@ -619,18 +616,15 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="n">
+      <c r="D10" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>R Po</t>
         </is>
@@ -638,18 +632,15 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="n">
+      <c r="D11" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>L Po</t>
         </is>
@@ -657,18 +648,15 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6" t="n">
+      <c r="D12" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>R TFP</t>
         </is>
@@ -676,18 +664,15 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="n">
+      <c r="D13" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>L TFP</t>
         </is>
@@ -695,18 +680,15 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6" t="n">
+      <c r="D14" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>R KRP</t>
         </is>
@@ -714,18 +696,15 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="n">
+      <c r="D15" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>L KRP</t>
         </is>
@@ -733,18 +712,15 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="n">
+      <c r="D16" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>ANS</t>
         </is>
@@ -752,18 +728,15 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6" t="n">
+      <c r="D17" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>PNS</t>
         </is>
@@ -771,18 +744,15 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6" t="n">
+      <c r="D18" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -790,18 +760,15 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6" t="n">
+      <c r="D19" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -809,18 +776,15 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6" t="n">
+      <c r="D20" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>Pog</t>
         </is>
@@ -828,18 +792,15 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6" t="n">
+      <c r="D21" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="6" t="inlineStr">
         <is>
           <t>Gn</t>
         </is>
@@ -847,18 +808,15 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6" t="n">
+      <c r="D22" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>Me</t>
         </is>
@@ -866,18 +824,15 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6" t="n">
+      <c r="D23" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>R CP Point</t>
         </is>
@@ -885,18 +840,15 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6" t="n">
+      <c r="D24" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B25" s="6" t="inlineStr">
         <is>
           <t>L CP Point</t>
         </is>
@@ -904,18 +856,15 @@
       <c r="C25" t="n">
         <v>0</v>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6" t="n">
+      <c r="D25" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="B26" s="6" t="inlineStr">
         <is>
           <t>R Sigmoid notch</t>
         </is>
@@ -923,18 +872,15 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6" t="n">
+      <c r="D26" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>L Sigmoid notch</t>
         </is>
@@ -942,18 +888,15 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6" t="n">
+      <c r="D27" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>R Anterior ramal point</t>
         </is>
@@ -961,18 +904,15 @@
       <c r="C28" t="n">
         <v>0</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6" t="n">
+      <c r="D28" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="B29" s="6" t="inlineStr">
         <is>
           <t>L Anterior ramal point</t>
         </is>
@@ -980,18 +920,15 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6" t="n">
+      <c r="D29" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>R Post Go</t>
         </is>
@@ -999,18 +936,15 @@
       <c r="C30" t="n">
         <v>0</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6" t="n">
+      <c r="D30" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>L Post Go</t>
         </is>
@@ -1018,18 +952,15 @@
       <c r="C31" t="n">
         <v>0</v>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6" t="n">
+      <c r="D31" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="B32" s="6" t="inlineStr">
         <is>
           <t>R Go</t>
         </is>
@@ -1037,18 +968,15 @@
       <c r="C32" t="n">
         <v>0</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6" t="n">
+      <c r="D32" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
+      <c r="A33" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="B33" s="6" t="inlineStr">
         <is>
           <t>L Go</t>
         </is>
@@ -1056,18 +984,15 @@
       <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6" t="n">
+      <c r="D33" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="B34" s="6" t="inlineStr">
         <is>
           <t>R Inf Go</t>
         </is>
@@ -1075,18 +1000,15 @@
       <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6" t="n">
+      <c r="D34" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
+      <c r="A35" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="B35" s="6" t="inlineStr">
         <is>
           <t>L Inf Go</t>
         </is>
@@ -1094,18 +1016,15 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6" t="n">
+      <c r="D35" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="B36" s="6" t="inlineStr">
         <is>
           <t>U1MP</t>
         </is>
@@ -1113,18 +1032,15 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6" t="n">
+      <c r="D36" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
+      <c r="A37" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="6" t="inlineStr">
         <is>
           <t>R U1CP</t>
         </is>
@@ -1132,18 +1048,15 @@
       <c r="C37" t="n">
         <v>0</v>
       </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6" t="n">
+      <c r="D37" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="B38" s="6" t="inlineStr">
         <is>
           <t>R U1RP</t>
         </is>
@@ -1151,18 +1064,15 @@
       <c r="C38" t="n">
         <v>0</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="6" t="n">
+      <c r="D38" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
+      <c r="A39" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="B39" s="6" t="inlineStr">
         <is>
           <t>L U1CP</t>
         </is>
@@ -1170,18 +1080,15 @@
       <c r="C39" t="n">
         <v>0</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6" t="n">
+      <c r="D39" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="B40" s="6" t="inlineStr">
         <is>
           <t>L U1RP</t>
         </is>
@@ -1189,18 +1096,15 @@
       <c r="C40" t="n">
         <v>0</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6" t="n">
+      <c r="D40" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
+      <c r="A41" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="B41" s="6" t="inlineStr">
         <is>
           <t>R U3CP</t>
         </is>
@@ -1208,18 +1112,15 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6" t="n">
+      <c r="D41" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="B42" s="6" t="inlineStr">
         <is>
           <t>R U3RP</t>
         </is>
@@ -1227,18 +1128,15 @@
       <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6" t="n">
+      <c r="D42" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n">
+      <c r="A43" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="B43" s="6" t="inlineStr">
         <is>
           <t>L U3CP</t>
         </is>
@@ -1246,18 +1144,15 @@
       <c r="C43" t="n">
         <v>0</v>
       </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="6" t="n">
+      <c r="D43" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="B44" s="5" t="inlineStr">
+      <c r="B44" s="6" t="inlineStr">
         <is>
           <t>L U3RP</t>
         </is>
@@ -1265,18 +1160,15 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="6" t="n">
+      <c r="D44" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n">
+      <c r="A45" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="B45" s="5" t="inlineStr">
+      <c r="B45" s="6" t="inlineStr">
         <is>
           <t>R U6CP</t>
         </is>
@@ -1284,18 +1176,15 @@
       <c r="C45" t="n">
         <v>0</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="6" t="n">
+      <c r="D45" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="B46" s="5" t="inlineStr">
+      <c r="B46" s="6" t="inlineStr">
         <is>
           <t>R U6RP</t>
         </is>
@@ -1303,18 +1192,15 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="6" t="n">
+      <c r="D46" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n">
+      <c r="A47" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="B47" s="5" t="inlineStr">
+      <c r="B47" s="6" t="inlineStr">
         <is>
           <t>L U6CP</t>
         </is>
@@ -1322,18 +1208,15 @@
       <c r="C47" t="n">
         <v>0</v>
       </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="6" t="n">
+      <c r="D47" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="B48" s="6" t="inlineStr">
         <is>
           <t>L U6RP</t>
         </is>
@@ -1341,18 +1224,15 @@
       <c r="C48" t="n">
         <v>0</v>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="6" t="n">
+      <c r="D48" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="n">
+      <c r="A49" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="B49" s="5" t="inlineStr">
+      <c r="B49" s="6" t="inlineStr">
         <is>
           <t>L1MP</t>
         </is>
@@ -1360,18 +1240,15 @@
       <c r="C49" t="n">
         <v>0</v>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="6" t="n">
+      <c r="D49" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="B50" s="6" t="inlineStr">
         <is>
           <t>R L1CP</t>
         </is>
@@ -1379,18 +1256,15 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="6" t="n">
+      <c r="D50" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="n">
+      <c r="A51" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="B51" s="6" t="inlineStr">
         <is>
           <t>R L1RP</t>
         </is>
@@ -1398,18 +1272,15 @@
       <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="6" t="n">
+      <c r="D51" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B52" s="6" t="inlineStr">
         <is>
           <t>L L1CP</t>
         </is>
@@ -1417,18 +1288,15 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="6" t="n">
+      <c r="D52" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="n">
+      <c r="A53" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="B53" s="6" t="inlineStr">
         <is>
           <t>L L1RP</t>
         </is>
@@ -1436,18 +1304,15 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="6" t="n">
+      <c r="D53" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="B54" s="6" t="inlineStr">
         <is>
           <t>R L3CP</t>
         </is>
@@ -1455,18 +1320,15 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="6" t="n">
+      <c r="D54" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="n">
+      <c r="A55" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="B55" s="6" t="inlineStr">
         <is>
           <t>R L3RP</t>
         </is>
@@ -1474,18 +1336,15 @@
       <c r="C55" t="n">
         <v>0</v>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="6" t="n">
+      <c r="D55" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="B56" s="6" t="inlineStr">
         <is>
           <t>L L3CP</t>
         </is>
@@ -1493,18 +1352,15 @@
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="6" t="n">
+      <c r="D56" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="n">
+      <c r="A57" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="B57" s="6" t="inlineStr">
         <is>
           <t>L L3RP</t>
         </is>
@@ -1512,18 +1368,15 @@
       <c r="C57" t="n">
         <v>0</v>
       </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="6" t="n">
+      <c r="D57" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="B58" s="5" t="inlineStr">
+      <c r="B58" s="6" t="inlineStr">
         <is>
           <t>R L6CP</t>
         </is>
@@ -1531,18 +1384,15 @@
       <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="6" t="n">
+      <c r="D58" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="n">
+      <c r="A59" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="B59" s="5" t="inlineStr">
+      <c r="B59" s="6" t="inlineStr">
         <is>
           <t>R L6RP</t>
         </is>
@@ -1550,18 +1400,15 @@
       <c r="C59" t="n">
         <v>0</v>
       </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="6" t="n">
+      <c r="D59" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="B60" s="5" t="inlineStr">
+      <c r="B60" s="6" t="inlineStr">
         <is>
           <t>L L6CP</t>
         </is>
@@ -1569,18 +1416,15 @@
       <c r="C60" t="n">
         <v>0</v>
       </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" s="6" t="n">
+      <c r="D60" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="n">
+      <c r="A61" s="5" t="n">
         <v>67</v>
       </c>
-      <c r="B61" s="5" t="inlineStr">
+      <c r="B61" s="6" t="inlineStr">
         <is>
           <t>L L6RP</t>
         </is>
@@ -1588,18 +1432,15 @@
       <c r="C61" t="n">
         <v>0</v>
       </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="6" t="n">
+      <c r="D61" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="n">
+      <c r="A62" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="B62" s="5" t="inlineStr">
+      <c r="B62" s="6" t="inlineStr">
         <is>
           <t>Stomion super</t>
         </is>
@@ -1607,18 +1448,15 @@
       <c r="C62" t="n">
         <v>0</v>
       </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="6" t="n">
+      <c r="D62" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="n">
+      <c r="A63" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="B63" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Columella	</t>
         </is>
@@ -1626,18 +1464,15 @@
       <c r="C63" t="n">
         <v>0</v>
       </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="6" t="n">
+      <c r="D63" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="n">
+      <c r="A64" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="B64" s="5" t="inlineStr">
+      <c r="B64" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Subnasale	</t>
         </is>
@@ -1645,18 +1480,15 @@
       <c r="C64" t="n">
         <v>0</v>
       </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="6" t="n">
+      <c r="D64" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="n">
+      <c r="A65" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="B65" s="5" t="inlineStr">
+      <c r="B65" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Upper lip	</t>
         </is>
@@ -1664,18 +1496,15 @@
       <c r="C65" t="n">
         <v>0</v>
       </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="6" t="n">
+      <c r="D65" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="n">
+      <c r="A66" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="B66" s="5" t="inlineStr">
+      <c r="B66" s="6" t="inlineStr">
         <is>
           <t>S Pogonion</t>
         </is>
@@ -1683,18 +1512,15 @@
       <c r="C66" t="n">
         <v>0</v>
       </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" s="6" t="n">
+      <c r="D66" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="n">
+      <c r="A67" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="B67" s="5" t="inlineStr">
+      <c r="B67" s="6" t="inlineStr">
         <is>
           <t>R U2CP</t>
         </is>
@@ -1702,18 +1528,15 @@
       <c r="C67" t="n">
         <v>0</v>
       </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="6" t="n">
+      <c r="D67" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="n">
+      <c r="A68" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="B68" s="5" t="inlineStr">
+      <c r="B68" s="6" t="inlineStr">
         <is>
           <t>R U2RP</t>
         </is>
@@ -1721,18 +1544,15 @@
       <c r="C68" t="n">
         <v>0</v>
       </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="6" t="n">
+      <c r="D68" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="n">
+      <c r="A69" s="5" t="n">
         <v>81</v>
       </c>
-      <c r="B69" s="5" t="inlineStr">
+      <c r="B69" s="6" t="inlineStr">
         <is>
           <t>L U2CP</t>
         </is>
@@ -1740,18 +1560,15 @@
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="6" t="n">
+      <c r="D69" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="n">
+      <c r="A70" s="5" t="n">
         <v>82</v>
       </c>
-      <c r="B70" s="5" t="inlineStr">
+      <c r="B70" s="6" t="inlineStr">
         <is>
           <t>L U2RP</t>
         </is>
@@ -1759,18 +1576,15 @@
       <c r="C70" t="n">
         <v>0</v>
       </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" s="6" t="n">
+      <c r="D70" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="n">
+      <c r="A71" s="5" t="n">
         <v>83</v>
       </c>
-      <c r="B71" s="5" t="inlineStr">
+      <c r="B71" s="6" t="inlineStr">
         <is>
           <t>R U4CP</t>
         </is>
@@ -1778,94 +1592,63 @@
       <c r="C71" t="n">
         <v>0</v>
       </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="6" t="n">
+      <c r="D71" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="n">
+      <c r="A72" s="5" t="n">
         <v>84</v>
       </c>
-      <c r="B72" s="5" t="inlineStr">
+      <c r="B72" s="6" t="inlineStr">
         <is>
           <t>R U4RP</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C72" s="8" t="inlineStr"/>
+      <c r="D72" s="8" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="n">
+      <c r="A73" s="5" t="n">
         <v>85</v>
       </c>
-      <c r="B73" s="5" t="inlineStr">
+      <c r="B73" s="6" t="inlineStr">
         <is>
           <t>L U4CP</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C73" s="8" t="inlineStr"/>
+      <c r="D73" s="8" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="n">
+      <c r="A74" s="5" t="n">
         <v>86</v>
       </c>
-      <c r="B74" s="5" t="inlineStr">
+      <c r="B74" s="6" t="inlineStr">
         <is>
           <t>L U4RP</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C74" s="8" t="inlineStr"/>
+      <c r="D74" s="8" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="n">
+      <c r="A75" s="5" t="n">
         <v>87</v>
       </c>
-      <c r="B75" s="5" t="inlineStr">
+      <c r="B75" s="6" t="inlineStr">
         <is>
           <t>R U5CP</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C75" s="8" t="inlineStr"/>
+      <c r="D75" s="8" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="n">
+      <c r="A76" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="B76" s="5" t="inlineStr">
+      <c r="B76" s="6" t="inlineStr">
         <is>
           <t>R U5RP</t>
         </is>
@@ -1873,18 +1656,15 @@
       <c r="C76" t="n">
         <v>0</v>
       </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" s="6" t="n">
+      <c r="D76" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="n">
+      <c r="A77" s="5" t="n">
         <v>89</v>
       </c>
-      <c r="B77" s="5" t="inlineStr">
+      <c r="B77" s="6" t="inlineStr">
         <is>
           <t>L U5CP</t>
         </is>
@@ -1892,18 +1672,15 @@
       <c r="C77" t="n">
         <v>0</v>
       </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" s="6" t="n">
+      <c r="D77" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="n">
+      <c r="A78" s="5" t="n">
         <v>90</v>
       </c>
-      <c r="B78" s="5" t="inlineStr">
+      <c r="B78" s="6" t="inlineStr">
         <is>
           <t>L U5RP</t>
         </is>
@@ -1911,18 +1688,15 @@
       <c r="C78" t="n">
         <v>0</v>
       </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" s="6" t="n">
+      <c r="D78" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="n">
+      <c r="A79" s="5" t="n">
         <v>91</v>
       </c>
-      <c r="B79" s="5" t="inlineStr">
+      <c r="B79" s="6" t="inlineStr">
         <is>
           <t>R U7CP</t>
         </is>
@@ -1930,18 +1704,15 @@
       <c r="C79" t="n">
         <v>0</v>
       </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" s="6" t="n">
+      <c r="D79" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="4" t="n">
+      <c r="A80" s="5" t="n">
         <v>92</v>
       </c>
-      <c r="B80" s="5" t="inlineStr">
+      <c r="B80" s="6" t="inlineStr">
         <is>
           <t>R U7RP</t>
         </is>
@@ -1949,18 +1720,15 @@
       <c r="C80" t="n">
         <v>0</v>
       </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" s="6" t="n">
+      <c r="D80" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="n">
+      <c r="A81" s="5" t="n">
         <v>93</v>
       </c>
-      <c r="B81" s="5" t="inlineStr">
+      <c r="B81" s="6" t="inlineStr">
         <is>
           <t>L U7CP</t>
         </is>
@@ -1968,18 +1736,15 @@
       <c r="C81" t="n">
         <v>0</v>
       </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" s="6" t="n">
+      <c r="D81" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="4" t="n">
+      <c r="A82" s="5" t="n">
         <v>94</v>
       </c>
-      <c r="B82" s="5" t="inlineStr">
+      <c r="B82" s="6" t="inlineStr">
         <is>
           <t>L U7RP</t>
         </is>
@@ -1987,18 +1752,15 @@
       <c r="C82" t="n">
         <v>0</v>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" s="6" t="n">
+      <c r="D82" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="n">
+      <c r="A83" s="5" t="n">
         <v>95</v>
       </c>
-      <c r="B83" s="5" t="inlineStr">
+      <c r="B83" s="6" t="inlineStr">
         <is>
           <t>R L2CP</t>
         </is>
@@ -2006,18 +1768,15 @@
       <c r="C83" t="n">
         <v>0</v>
       </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" s="6" t="n">
+      <c r="D83" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="4" t="n">
+      <c r="A84" s="5" t="n">
         <v>96</v>
       </c>
-      <c r="B84" s="5" t="inlineStr">
+      <c r="B84" s="6" t="inlineStr">
         <is>
           <t>R L2RP</t>
         </is>
@@ -2025,18 +1784,15 @@
       <c r="C84" t="n">
         <v>0</v>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" s="6" t="n">
+      <c r="D84" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="n">
+      <c r="A85" s="5" t="n">
         <v>97</v>
       </c>
-      <c r="B85" s="5" t="inlineStr">
+      <c r="B85" s="6" t="inlineStr">
         <is>
           <t>L L2CP</t>
         </is>
@@ -2044,18 +1800,15 @@
       <c r="C85" t="n">
         <v>0</v>
       </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" s="6" t="n">
+      <c r="D85" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="n">
+      <c r="A86" s="5" t="n">
         <v>98</v>
       </c>
-      <c r="B86" s="5" t="inlineStr">
+      <c r="B86" s="6" t="inlineStr">
         <is>
           <t>L L2RP</t>
         </is>
@@ -2063,18 +1816,15 @@
       <c r="C86" t="n">
         <v>0</v>
       </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" s="6" t="n">
+      <c r="D86" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="n">
+      <c r="A87" s="5" t="n">
         <v>99</v>
       </c>
-      <c r="B87" s="5" t="inlineStr">
+      <c r="B87" s="6" t="inlineStr">
         <is>
           <t>R L4CP</t>
         </is>
@@ -2082,18 +1832,15 @@
       <c r="C87" t="n">
         <v>0</v>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" s="6" t="n">
+      <c r="D87" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="n">
+      <c r="A88" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="B88" s="5" t="inlineStr">
+      <c r="B88" s="6" t="inlineStr">
         <is>
           <t>R L4RP</t>
         </is>
@@ -2101,18 +1848,15 @@
       <c r="C88" t="n">
         <v>0</v>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="6" t="n">
+      <c r="D88" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="n">
+      <c r="A89" s="5" t="n">
         <v>101</v>
       </c>
-      <c r="B89" s="5" t="inlineStr">
+      <c r="B89" s="6" t="inlineStr">
         <is>
           <t>L L4CP</t>
         </is>
@@ -2120,18 +1864,15 @@
       <c r="C89" t="n">
         <v>0</v>
       </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" s="6" t="n">
+      <c r="D89" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="n">
+      <c r="A90" s="5" t="n">
         <v>102</v>
       </c>
-      <c r="B90" s="5" t="inlineStr">
+      <c r="B90" s="6" t="inlineStr">
         <is>
           <t>L L4RP</t>
         </is>
@@ -2139,18 +1880,15 @@
       <c r="C90" t="n">
         <v>0</v>
       </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" s="6" t="n">
+      <c r="D90" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="n">
+      <c r="A91" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="B91" s="5" t="inlineStr">
+      <c r="B91" s="6" t="inlineStr">
         <is>
           <t>R L5CP</t>
         </is>
@@ -2158,94 +1896,63 @@
       <c r="C91" t="n">
         <v>0</v>
       </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" s="6" t="n">
+      <c r="D91" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="n">
+      <c r="A92" s="5" t="n">
         <v>104</v>
       </c>
-      <c r="B92" s="5" t="inlineStr">
+      <c r="B92" s="6" t="inlineStr">
         <is>
           <t>R L5RP</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C92" s="8" t="inlineStr"/>
+      <c r="D92" s="8" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="n">
+      <c r="A93" s="5" t="n">
         <v>105</v>
       </c>
-      <c r="B93" s="5" t="inlineStr">
+      <c r="B93" s="6" t="inlineStr">
         <is>
           <t>L L5CP</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C93" s="8" t="inlineStr"/>
+      <c r="D93" s="8" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="4" t="n">
+      <c r="A94" s="5" t="n">
         <v>106</v>
       </c>
-      <c r="B94" s="5" t="inlineStr">
+      <c r="B94" s="6" t="inlineStr">
         <is>
           <t>L L5RP</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C94" s="8" t="inlineStr"/>
+      <c r="D94" s="8" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="n">
+      <c r="A95" s="5" t="n">
         <v>107</v>
       </c>
-      <c r="B95" s="5" t="inlineStr">
+      <c r="B95" s="6" t="inlineStr">
         <is>
           <t>R L7CP</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C95" s="8" t="inlineStr"/>
+      <c r="D95" s="8" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="4" t="n">
+      <c r="A96" s="5" t="n">
         <v>108</v>
       </c>
-      <c r="B96" s="5" t="inlineStr">
+      <c r="B96" s="6" t="inlineStr">
         <is>
           <t>R L7RP</t>
         </is>
@@ -2253,18 +1960,15 @@
       <c r="C96" t="n">
         <v>0</v>
       </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" s="6" t="n">
+      <c r="D96" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="4" t="n">
+      <c r="A97" s="5" t="n">
         <v>109</v>
       </c>
-      <c r="B97" s="5" t="inlineStr">
+      <c r="B97" s="6" t="inlineStr">
         <is>
           <t>L L7CP</t>
         </is>
@@ -2272,18 +1976,15 @@
       <c r="C97" t="n">
         <v>0</v>
       </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" s="6" t="n">
+      <c r="D97" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="4" t="n">
+      <c r="A98" s="5" t="n">
         <v>110</v>
       </c>
-      <c r="B98" s="5" t="inlineStr">
+      <c r="B98" s="6" t="inlineStr">
         <is>
           <t>L L7RP</t>
         </is>
@@ -2291,18 +1992,15 @@
       <c r="C98" t="n">
         <v>0</v>
       </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" s="6" t="n">
+      <c r="D98" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="4" t="n">
+      <c r="A99" s="5" t="n">
         <v>111</v>
       </c>
-      <c r="B99" s="5" t="inlineStr">
+      <c r="B99" s="6" t="inlineStr">
         <is>
           <t>R U8CP</t>
         </is>
@@ -2310,18 +2008,15 @@
       <c r="C99" t="n">
         <v>0</v>
       </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" s="6" t="n">
+      <c r="D99" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="4" t="n">
+      <c r="A100" s="5" t="n">
         <v>112</v>
       </c>
-      <c r="B100" s="5" t="inlineStr">
+      <c r="B100" s="6" t="inlineStr">
         <is>
           <t>R U8RP</t>
         </is>
@@ -2329,18 +2024,15 @@
       <c r="C100" t="n">
         <v>0</v>
       </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" s="6" t="n">
+      <c r="D100" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="4" t="n">
+      <c r="A101" s="5" t="n">
         <v>113</v>
       </c>
-      <c r="B101" s="5" t="inlineStr">
+      <c r="B101" s="6" t="inlineStr">
         <is>
           <t>L U8CP</t>
         </is>
@@ -2348,18 +2040,15 @@
       <c r="C101" t="n">
         <v>0</v>
       </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" s="6" t="n">
+      <c r="D101" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="4" t="n">
+      <c r="A102" s="5" t="n">
         <v>114</v>
       </c>
-      <c r="B102" s="5" t="inlineStr">
+      <c r="B102" s="6" t="inlineStr">
         <is>
           <t>L U8RP</t>
         </is>
@@ -2367,18 +2056,15 @@
       <c r="C102" t="n">
         <v>0</v>
       </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" s="6" t="n">
+      <c r="D102" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="4" t="n">
+      <c r="A103" s="5" t="n">
         <v>115</v>
       </c>
-      <c r="B103" s="5" t="inlineStr">
+      <c r="B103" s="6" t="inlineStr">
         <is>
           <t>R L8CP</t>
         </is>
@@ -2386,18 +2072,15 @@
       <c r="C103" t="n">
         <v>0</v>
       </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" s="6" t="n">
+      <c r="D103" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="4" t="n">
+      <c r="A104" s="5" t="n">
         <v>116</v>
       </c>
-      <c r="B104" s="5" t="inlineStr">
+      <c r="B104" s="6" t="inlineStr">
         <is>
           <t>R L8RP</t>
         </is>
@@ -2405,18 +2088,15 @@
       <c r="C104" t="n">
         <v>0</v>
       </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" s="6" t="n">
+      <c r="D104" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="4" t="n">
+      <c r="A105" s="5" t="n">
         <v>117</v>
       </c>
-      <c r="B105" s="5" t="inlineStr">
+      <c r="B105" s="6" t="inlineStr">
         <is>
           <t>L L8CP</t>
         </is>
@@ -2424,18 +2104,15 @@
       <c r="C105" t="n">
         <v>0</v>
       </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" s="6" t="n">
+      <c r="D105" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="4" t="n">
+      <c r="A106" s="5" t="n">
         <v>118</v>
       </c>
-      <c r="B106" s="5" t="inlineStr">
+      <c r="B106" s="6" t="inlineStr">
         <is>
           <t>L L8RP</t>
         </is>
@@ -2443,18 +2120,15 @@
       <c r="C106" t="n">
         <v>0</v>
       </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="6" t="n">
+      <c r="D106" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="4" t="n">
+      <c r="A107" s="5" t="n">
         <v>119</v>
       </c>
-      <c r="B107" s="5" t="inlineStr">
+      <c r="B107" s="6" t="inlineStr">
         <is>
           <t>S Glabella</t>
         </is>
@@ -2462,18 +2136,15 @@
       <c r="C107" t="n">
         <v>0</v>
       </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" s="6" t="n">
+      <c r="D107" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="4" t="n">
+      <c r="A108" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="B108" s="5" t="inlineStr">
+      <c r="B108" s="6" t="inlineStr">
         <is>
           <t>S Nasion</t>
         </is>
@@ -2481,18 +2152,15 @@
       <c r="C108" t="n">
         <v>0</v>
       </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="6" t="n">
+      <c r="D108" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="4" t="n">
+      <c r="A109" s="5" t="n">
         <v>121</v>
       </c>
-      <c r="B109" s="5" t="inlineStr">
+      <c r="B109" s="6" t="inlineStr">
         <is>
           <t>Pronasale</t>
         </is>
@@ -2500,18 +2168,15 @@
       <c r="C109" t="n">
         <v>0</v>
       </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="6" t="n">
+      <c r="D109" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="4" t="n">
+      <c r="A110" s="5" t="n">
         <v>122</v>
       </c>
-      <c r="B110" s="5" t="inlineStr">
+      <c r="B110" s="6" t="inlineStr">
         <is>
           <t>Lower lip</t>
         </is>
@@ -2519,18 +2184,15 @@
       <c r="C110" t="n">
         <v>0</v>
       </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="6" t="n">
+      <c r="D110" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="4" t="n">
+      <c r="A111" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="B111" s="5" t="inlineStr">
+      <c r="B111" s="6" t="inlineStr">
         <is>
           <t>Mentolabial Sulc</t>
         </is>
@@ -2538,18 +2200,15 @@
       <c r="C111" t="n">
         <v>0</v>
       </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="6" t="n">
+      <c r="D111" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="4" t="n">
+      <c r="A112" s="5" t="n">
         <v>125</v>
       </c>
-      <c r="B112" s="5" t="inlineStr">
+      <c r="B112" s="6" t="inlineStr">
         <is>
           <t>Base of Epiglott</t>
         </is>
@@ -2557,18 +2216,15 @@
       <c r="C112" t="n">
         <v>0</v>
       </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="6" t="n">
+      <c r="D112" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="4" t="n">
+      <c r="A113" s="5" t="n">
         <v>125</v>
       </c>
-      <c r="B113" s="5" t="inlineStr">
+      <c r="B113" s="6" t="inlineStr">
         <is>
           <t>R Cd-L</t>
         </is>
@@ -2576,18 +2232,15 @@
       <c r="C113" t="n">
         <v>0</v>
       </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" s="6" t="n">
+      <c r="D113" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="4" t="n">
+      <c r="A114" s="5" t="n">
         <v>126</v>
       </c>
-      <c r="B114" s="5" t="inlineStr">
+      <c r="B114" s="6" t="inlineStr">
         <is>
           <t>R Cd-M</t>
         </is>
@@ -2595,18 +2248,15 @@
       <c r="C114" t="n">
         <v>0</v>
       </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="6" t="n">
+      <c r="D114" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="4" t="n">
+      <c r="A115" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="B115" s="5" t="inlineStr">
+      <c r="B115" s="6" t="inlineStr">
         <is>
           <t>R C Cd-S</t>
         </is>
@@ -2614,18 +2264,15 @@
       <c r="C115" t="n">
         <v>0</v>
       </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" s="6" t="n">
+      <c r="D115" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="4" t="n">
+      <c r="A116" s="5" t="n">
         <v>129</v>
       </c>
-      <c r="B116" s="5" t="inlineStr">
+      <c r="B116" s="6" t="inlineStr">
         <is>
           <t>R GF-L</t>
         </is>
@@ -2633,18 +2280,15 @@
       <c r="C116" t="n">
         <v>0</v>
       </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="6" t="n">
+      <c r="D116" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="4" t="n">
+      <c r="A117" s="5" t="n">
         <v>130</v>
       </c>
-      <c r="B117" s="5" t="inlineStr">
+      <c r="B117" s="6" t="inlineStr">
         <is>
           <t>R GF-M</t>
         </is>
@@ -2652,18 +2296,15 @@
       <c r="C117" t="n">
         <v>0</v>
       </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="6" t="n">
+      <c r="D117" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="4" t="n">
+      <c r="A118" s="5" t="n">
         <v>131</v>
       </c>
-      <c r="B118" s="5" t="inlineStr">
+      <c r="B118" s="6" t="inlineStr">
         <is>
           <t>R C GF-S</t>
         </is>
@@ -2671,18 +2312,15 @@
       <c r="C118" t="n">
         <v>0</v>
       </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="6" t="n">
+      <c r="D118" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="4" t="n">
+      <c r="A119" s="5" t="n">
         <v>132</v>
       </c>
-      <c r="B119" s="5" t="inlineStr">
+      <c r="B119" s="6" t="inlineStr">
         <is>
           <t>R Cd-A</t>
         </is>
@@ -2690,18 +2328,15 @@
       <c r="C119" t="n">
         <v>0</v>
       </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="6" t="n">
+      <c r="D119" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="n">
+      <c r="A120" s="5" t="n">
         <v>133</v>
       </c>
-      <c r="B120" s="5" t="inlineStr">
+      <c r="B120" s="6" t="inlineStr">
         <is>
           <t>R Cd-P</t>
         </is>
@@ -2709,18 +2344,15 @@
       <c r="C120" t="n">
         <v>0</v>
       </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="6" t="n">
+      <c r="D120" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="4" t="n">
+      <c r="A121" s="5" t="n">
         <v>134</v>
       </c>
-      <c r="B121" s="5" t="inlineStr">
+      <c r="B121" s="6" t="inlineStr">
         <is>
           <t>R S Cd-S</t>
         </is>
@@ -2728,18 +2360,15 @@
       <c r="C121" t="n">
         <v>0</v>
       </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="6" t="n">
+      <c r="D121" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="4" t="n">
+      <c r="A122" s="5" t="n">
         <v>135</v>
       </c>
-      <c r="B122" s="5" t="inlineStr">
+      <c r="B122" s="6" t="inlineStr">
         <is>
           <t>R GF-A</t>
         </is>
@@ -2747,18 +2376,15 @@
       <c r="C122" t="n">
         <v>0</v>
       </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="6" t="n">
+      <c r="D122" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="4" t="n">
+      <c r="A123" s="5" t="n">
         <v>136</v>
       </c>
-      <c r="B123" s="5" t="inlineStr">
+      <c r="B123" s="6" t="inlineStr">
         <is>
           <t>R GF-P</t>
         </is>
@@ -2766,18 +2392,15 @@
       <c r="C123" t="n">
         <v>0</v>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="6" t="n">
+      <c r="D123" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="4" t="n">
+      <c r="A124" s="5" t="n">
         <v>137</v>
       </c>
-      <c r="B124" s="5" t="inlineStr">
+      <c r="B124" s="6" t="inlineStr">
         <is>
           <t>R S GF-S</t>
         </is>
@@ -2785,18 +2408,15 @@
       <c r="C124" t="n">
         <v>0</v>
       </c>
-      <c r="D124" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="6" t="n">
+      <c r="D124" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="4" t="n">
+      <c r="A125" s="5" t="n">
         <v>138</v>
       </c>
-      <c r="B125" s="5" t="inlineStr">
+      <c r="B125" s="6" t="inlineStr">
         <is>
           <t>L Cd-L</t>
         </is>
@@ -2804,18 +2424,15 @@
       <c r="C125" t="n">
         <v>0</v>
       </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="6" t="n">
+      <c r="D125" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="4" t="n">
+      <c r="A126" s="5" t="n">
         <v>139</v>
       </c>
-      <c r="B126" s="5" t="inlineStr">
+      <c r="B126" s="6" t="inlineStr">
         <is>
           <t>L Cd-M</t>
         </is>
@@ -2823,18 +2440,15 @@
       <c r="C126" t="n">
         <v>0</v>
       </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="6" t="n">
+      <c r="D126" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="4" t="n">
+      <c r="A127" s="5" t="n">
         <v>140</v>
       </c>
-      <c r="B127" s="5" t="inlineStr">
+      <c r="B127" s="6" t="inlineStr">
         <is>
           <t>L C Cd-S</t>
         </is>
@@ -2842,18 +2456,15 @@
       <c r="C127" t="n">
         <v>0</v>
       </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" s="6" t="n">
+      <c r="D127" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="4" t="n">
+      <c r="A128" s="5" t="n">
         <v>141</v>
       </c>
-      <c r="B128" s="5" t="inlineStr">
+      <c r="B128" s="6" t="inlineStr">
         <is>
           <t>L GF-L</t>
         </is>
@@ -2861,18 +2472,15 @@
       <c r="C128" t="n">
         <v>0</v>
       </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" s="6" t="n">
+      <c r="D128" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="4" t="n">
+      <c r="A129" s="5" t="n">
         <v>142</v>
       </c>
-      <c r="B129" s="5" t="inlineStr">
+      <c r="B129" s="6" t="inlineStr">
         <is>
           <t>L GF-M</t>
         </is>
@@ -2880,18 +2488,15 @@
       <c r="C129" t="n">
         <v>0</v>
       </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" s="6" t="n">
+      <c r="D129" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="4" t="n">
+      <c r="A130" s="5" t="n">
         <v>143</v>
       </c>
-      <c r="B130" s="5" t="inlineStr">
+      <c r="B130" s="6" t="inlineStr">
         <is>
           <t>L C GF-S</t>
         </is>
@@ -2899,18 +2504,15 @@
       <c r="C130" t="n">
         <v>0</v>
       </c>
-      <c r="D130" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" s="6" t="n">
+      <c r="D130" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="4" t="n">
+      <c r="A131" s="5" t="n">
         <v>144</v>
       </c>
-      <c r="B131" s="5" t="inlineStr">
+      <c r="B131" s="6" t="inlineStr">
         <is>
           <t>L Cd-A</t>
         </is>
@@ -2918,18 +2520,15 @@
       <c r="C131" t="n">
         <v>0</v>
       </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" s="6" t="n">
+      <c r="D131" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="4" t="n">
+      <c r="A132" s="5" t="n">
         <v>145</v>
       </c>
-      <c r="B132" s="5" t="inlineStr">
+      <c r="B132" s="6" t="inlineStr">
         <is>
           <t>L Cd-P</t>
         </is>
@@ -2937,18 +2536,15 @@
       <c r="C132" t="n">
         <v>0</v>
       </c>
-      <c r="D132" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" s="6" t="n">
+      <c r="D132" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="4" t="n">
+      <c r="A133" s="5" t="n">
         <v>146</v>
       </c>
-      <c r="B133" s="5" t="inlineStr">
+      <c r="B133" s="6" t="inlineStr">
         <is>
           <t>L S Cd-S</t>
         </is>
@@ -2956,18 +2552,15 @@
       <c r="C133" t="n">
         <v>0</v>
       </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" s="6" t="n">
+      <c r="D133" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="4" t="n">
+      <c r="A134" s="5" t="n">
         <v>147</v>
       </c>
-      <c r="B134" s="5" t="inlineStr">
+      <c r="B134" s="6" t="inlineStr">
         <is>
           <t>L GF-A</t>
         </is>
@@ -2975,18 +2568,15 @@
       <c r="C134" t="n">
         <v>0</v>
       </c>
-      <c r="D134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" s="6" t="n">
+      <c r="D134" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="4" t="n">
+      <c r="A135" s="5" t="n">
         <v>148</v>
       </c>
-      <c r="B135" s="5" t="inlineStr">
+      <c r="B135" s="6" t="inlineStr">
         <is>
           <t>L GF-P</t>
         </is>
@@ -2994,18 +2584,15 @@
       <c r="C135" t="n">
         <v>0</v>
       </c>
-      <c r="D135" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" s="6" t="n">
+      <c r="D135" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="4" t="n">
+      <c r="A136" s="5" t="n">
         <v>149</v>
       </c>
-      <c r="B136" s="5" t="inlineStr">
+      <c r="B136" s="6" t="inlineStr">
         <is>
           <t>L S GF-S</t>
         </is>
@@ -3013,18 +2600,15 @@
       <c r="C136" t="n">
         <v>0</v>
       </c>
-      <c r="D136" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" s="6" t="n">
+      <c r="D136" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="4" t="n">
+      <c r="A137" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="B137" s="5" t="inlineStr">
+      <c r="B137" s="6" t="inlineStr">
         <is>
           <t>R Ant. Zygoma</t>
         </is>
@@ -3032,18 +2616,15 @@
       <c r="C137" t="n">
         <v>0</v>
       </c>
-      <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" s="6" t="n">
+      <c r="D137" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="4" t="n">
+      <c r="A138" s="5" t="n">
         <v>151</v>
       </c>
-      <c r="B138" s="5" t="inlineStr">
+      <c r="B138" s="6" t="inlineStr">
         <is>
           <t>L Ant. Zygoma</t>
         </is>
@@ -3051,18 +2632,15 @@
       <c r="C138" t="n">
         <v>0</v>
       </c>
-      <c r="D138" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" s="6" t="n">
+      <c r="D138" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="4" t="n">
+      <c r="A139" s="5" t="n">
         <v>152</v>
       </c>
-      <c r="B139" s="5" t="inlineStr">
+      <c r="B139" s="6" t="inlineStr">
         <is>
           <t>R Zygion</t>
         </is>
@@ -3070,18 +2648,15 @@
       <c r="C139" t="n">
         <v>0</v>
       </c>
-      <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" s="6" t="n">
+      <c r="D139" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="4" t="n">
+      <c r="A140" s="5" t="n">
         <v>153</v>
       </c>
-      <c r="B140" s="5" t="inlineStr">
+      <c r="B140" s="6" t="inlineStr">
         <is>
           <t>L Zygion</t>
         </is>
@@ -3089,18 +2664,15 @@
       <c r="C140" t="n">
         <v>0</v>
       </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" s="6" t="n">
+      <c r="D140" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="4" t="n">
+      <c r="A141" s="5" t="n">
         <v>154</v>
       </c>
-      <c r="B141" s="5" t="inlineStr">
+      <c r="B141" s="6" t="inlineStr">
         <is>
           <t>R Endocanthion</t>
         </is>
@@ -3108,18 +2680,15 @@
       <c r="C141" t="n">
         <v>0</v>
       </c>
-      <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" s="6" t="n">
+      <c r="D141" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="4" t="n">
+      <c r="A142" s="5" t="n">
         <v>155</v>
       </c>
-      <c r="B142" s="5" t="inlineStr">
+      <c r="B142" s="6" t="inlineStr">
         <is>
           <t>L Endocanthion</t>
         </is>
@@ -3127,18 +2696,15 @@
       <c r="C142" t="n">
         <v>0</v>
       </c>
-      <c r="D142" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" s="6" t="n">
+      <c r="D142" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="4" t="n">
+      <c r="A143" s="5" t="n">
         <v>156</v>
       </c>
-      <c r="B143" s="5" t="inlineStr">
+      <c r="B143" s="6" t="inlineStr">
         <is>
           <t>R Exocanthion</t>
         </is>
@@ -3146,18 +2712,15 @@
       <c r="C143" t="n">
         <v>0</v>
       </c>
-      <c r="D143" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" s="6" t="n">
+      <c r="D143" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="4" t="n">
+      <c r="A144" s="5" t="n">
         <v>157</v>
       </c>
-      <c r="B144" s="5" t="inlineStr">
+      <c r="B144" s="6" t="inlineStr">
         <is>
           <t>L Exocanthion</t>
         </is>
@@ -3165,18 +2728,15 @@
       <c r="C144" t="n">
         <v>0</v>
       </c>
-      <c r="D144" t="n">
-        <v>0</v>
-      </c>
-      <c r="E144" s="6" t="n">
+      <c r="D144" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="4" t="n">
+      <c r="A145" s="5" t="n">
         <v>158</v>
       </c>
-      <c r="B145" s="5" t="inlineStr">
+      <c r="B145" s="6" t="inlineStr">
         <is>
           <t>R S Ant. Zygoma</t>
         </is>
@@ -3184,18 +2744,15 @@
       <c r="C145" t="n">
         <v>0</v>
       </c>
-      <c r="D145" t="n">
-        <v>0</v>
-      </c>
-      <c r="E145" s="6" t="n">
+      <c r="D145" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="4" t="n">
+      <c r="A146" s="5" t="n">
         <v>159</v>
       </c>
-      <c r="B146" s="5" t="inlineStr">
+      <c r="B146" s="6" t="inlineStr">
         <is>
           <t>L S Ant. Zygoma</t>
         </is>
@@ -3203,18 +2760,15 @@
       <c r="C146" t="n">
         <v>0</v>
       </c>
-      <c r="D146" t="n">
-        <v>0</v>
-      </c>
-      <c r="E146" s="6" t="n">
+      <c r="D146" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="4" t="n">
+      <c r="A147" s="5" t="n">
         <v>160</v>
       </c>
-      <c r="B147" s="5" t="inlineStr">
+      <c r="B147" s="6" t="inlineStr">
         <is>
           <t>R S Zygion</t>
         </is>
@@ -3222,18 +2776,15 @@
       <c r="C147" t="n">
         <v>0</v>
       </c>
-      <c r="D147" t="n">
-        <v>0</v>
-      </c>
-      <c r="E147" s="6" t="n">
+      <c r="D147" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="4" t="n">
+      <c r="A148" s="5" t="n">
         <v>161</v>
       </c>
-      <c r="B148" s="5" t="inlineStr">
+      <c r="B148" s="6" t="inlineStr">
         <is>
           <t>L S Zygion</t>
         </is>
@@ -3241,18 +2792,15 @@
       <c r="C148" t="n">
         <v>0</v>
       </c>
-      <c r="D148" t="n">
-        <v>0</v>
-      </c>
-      <c r="E148" s="6" t="n">
+      <c r="D148" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="4" t="n">
+      <c r="A149" s="5" t="n">
         <v>162</v>
       </c>
-      <c r="B149" s="5" t="inlineStr">
+      <c r="B149" s="6" t="inlineStr">
         <is>
           <t>R Alar</t>
         </is>
@@ -3260,18 +2808,15 @@
       <c r="C149" t="n">
         <v>0</v>
       </c>
-      <c r="D149" t="n">
-        <v>0</v>
-      </c>
-      <c r="E149" s="6" t="n">
+      <c r="D149" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="4" t="n">
+      <c r="A150" s="5" t="n">
         <v>163</v>
       </c>
-      <c r="B150" s="5" t="inlineStr">
+      <c r="B150" s="6" t="inlineStr">
         <is>
           <t>L Alar</t>
         </is>
@@ -3279,18 +2824,15 @@
       <c r="C150" t="n">
         <v>0</v>
       </c>
-      <c r="D150" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150" s="6" t="n">
+      <c r="D150" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="4" t="n">
+      <c r="A151" s="5" t="n">
         <v>164</v>
       </c>
-      <c r="B151" s="5" t="inlineStr">
+      <c r="B151" s="6" t="inlineStr">
         <is>
           <t>Labiale Superius</t>
         </is>
@@ -3298,18 +2840,15 @@
       <c r="C151" t="n">
         <v>0</v>
       </c>
-      <c r="D151" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" s="6" t="n">
+      <c r="D151" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="4" t="n">
+      <c r="A152" s="5" t="n">
         <v>165</v>
       </c>
-      <c r="B152" s="5" t="inlineStr">
+      <c r="B152" s="6" t="inlineStr">
         <is>
           <t>R Crista Philtri</t>
         </is>
@@ -3317,18 +2856,15 @@
       <c r="C152" t="n">
         <v>0</v>
       </c>
-      <c r="D152" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" s="6" t="n">
+      <c r="D152" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="4" t="n">
+      <c r="A153" s="5" t="n">
         <v>166</v>
       </c>
-      <c r="B153" s="5" t="inlineStr">
+      <c r="B153" s="6" t="inlineStr">
         <is>
           <t>L Crista Philtri</t>
         </is>
@@ -3336,18 +2872,15 @@
       <c r="C153" t="n">
         <v>0</v>
       </c>
-      <c r="D153" t="n">
-        <v>0</v>
-      </c>
-      <c r="E153" s="6" t="n">
+      <c r="D153" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="4" t="n">
+      <c r="A154" s="5" t="n">
         <v>167</v>
       </c>
-      <c r="B154" s="5" t="inlineStr">
+      <c r="B154" s="6" t="inlineStr">
         <is>
           <t>R Cheilion</t>
         </is>
@@ -3355,18 +2888,15 @@
       <c r="C154" t="n">
         <v>0</v>
       </c>
-      <c r="D154" t="n">
-        <v>0</v>
-      </c>
-      <c r="E154" s="6" t="n">
+      <c r="D154" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="4" t="n">
+      <c r="A155" s="5" t="n">
         <v>168</v>
       </c>
-      <c r="B155" s="5" t="inlineStr">
+      <c r="B155" s="6" t="inlineStr">
         <is>
           <t>L Cheilion</t>
         </is>
@@ -3374,18 +2904,15 @@
       <c r="C155" t="n">
         <v>0</v>
       </c>
-      <c r="D155" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" s="6" t="n">
+      <c r="D155" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="4" t="n">
+      <c r="A156" s="5" t="n">
         <v>169</v>
       </c>
-      <c r="B156" s="5" t="inlineStr">
+      <c r="B156" s="6" t="inlineStr">
         <is>
           <t>Labiale Inferius</t>
         </is>
@@ -3393,18 +2920,15 @@
       <c r="C156" t="n">
         <v>0</v>
       </c>
-      <c r="D156" t="n">
-        <v>0</v>
-      </c>
-      <c r="E156" s="6" t="n">
+      <c r="D156" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="4" t="n">
+      <c r="A157" s="5" t="n">
         <v>170</v>
       </c>
-      <c r="B157" s="5" t="inlineStr">
+      <c r="B157" s="6" t="inlineStr">
         <is>
           <t>R S Go</t>
         </is>
@@ -3412,18 +2936,15 @@
       <c r="C157" t="n">
         <v>0</v>
       </c>
-      <c r="D157" t="n">
-        <v>0</v>
-      </c>
-      <c r="E157" s="6" t="n">
+      <c r="D157" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="4" t="n">
+      <c r="A158" s="5" t="n">
         <v>171</v>
       </c>
-      <c r="B158" s="5" t="inlineStr">
+      <c r="B158" s="6" t="inlineStr">
         <is>
           <t>L S Go</t>
         </is>
@@ -3431,37 +2952,27 @@
       <c r="C158" t="n">
         <v>0</v>
       </c>
-      <c r="D158" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" s="6" t="n">
+      <c r="D158" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="4" t="n">
+      <c r="A159" s="5" t="n">
         <v>174</v>
       </c>
-      <c r="B159" s="5" t="inlineStr">
+      <c r="B159" s="6" t="inlineStr">
         <is>
           <t>R U4PRP</t>
         </is>
       </c>
-      <c r="C159" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0</v>
-      </c>
-      <c r="E159" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C159" s="8" t="inlineStr"/>
+      <c r="D159" s="8" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" s="4" t="n">
+      <c r="A160" s="5" t="n">
         <v>175</v>
       </c>
-      <c r="B160" s="5" t="inlineStr">
+      <c r="B160" s="6" t="inlineStr">
         <is>
           <t>R U5PRP</t>
         </is>
@@ -3469,18 +2980,15 @@
       <c r="C160" t="n">
         <v>0</v>
       </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" s="6" t="n">
+      <c r="D160" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="4" t="n">
+      <c r="A161" s="5" t="n">
         <v>176</v>
       </c>
-      <c r="B161" s="5" t="inlineStr">
+      <c r="B161" s="6" t="inlineStr">
         <is>
           <t>R U6PRP</t>
         </is>
@@ -3488,18 +2996,15 @@
       <c r="C161" t="n">
         <v>0</v>
       </c>
-      <c r="D161" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" s="6" t="n">
+      <c r="D161" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="4" t="n">
+      <c r="A162" s="5" t="n">
         <v>177</v>
       </c>
-      <c r="B162" s="5" t="inlineStr">
+      <c r="B162" s="6" t="inlineStr">
         <is>
           <t>R U7PRP</t>
         </is>
@@ -3507,37 +3012,27 @@
       <c r="C162" t="n">
         <v>0</v>
       </c>
-      <c r="D162" t="n">
-        <v>0</v>
-      </c>
-      <c r="E162" s="6" t="n">
+      <c r="D162" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="4" t="n">
+      <c r="A163" s="5" t="n">
         <v>178</v>
       </c>
-      <c r="B163" s="5" t="inlineStr">
+      <c r="B163" s="6" t="inlineStr">
         <is>
           <t>L U4PRP</t>
         </is>
       </c>
-      <c r="C163" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="C163" s="8" t="inlineStr"/>
+      <c r="D163" s="8" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="4" t="n">
+      <c r="A164" s="5" t="n">
         <v>179</v>
       </c>
-      <c r="B164" s="5" t="inlineStr">
+      <c r="B164" s="6" t="inlineStr">
         <is>
           <t>L U5PRP</t>
         </is>
@@ -3545,18 +3040,15 @@
       <c r="C164" t="n">
         <v>0</v>
       </c>
-      <c r="D164" t="n">
-        <v>0</v>
-      </c>
-      <c r="E164" s="6" t="n">
+      <c r="D164" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="4" t="n">
+      <c r="A165" s="5" t="n">
         <v>180</v>
       </c>
-      <c r="B165" s="5" t="inlineStr">
+      <c r="B165" s="6" t="inlineStr">
         <is>
           <t>L U6PRP</t>
         </is>
@@ -3564,18 +3056,15 @@
       <c r="C165" t="n">
         <v>0</v>
       </c>
-      <c r="D165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" s="6" t="n">
+      <c r="D165" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="4" t="n">
+      <c r="A166" s="5" t="n">
         <v>181</v>
       </c>
-      <c r="B166" s="5" t="inlineStr">
+      <c r="B166" s="6" t="inlineStr">
         <is>
           <t>L U7PRP</t>
         </is>
@@ -3583,32 +3072,26 @@
       <c r="C166" t="n">
         <v>0</v>
       </c>
-      <c r="D166" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" s="6" t="n">
+      <c r="D166" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="inlineStr">
+      <c r="B167" s="9" t="inlineStr">
         <is>
           <t>aver</t>
         </is>
       </c>
-      <c r="C167" t="n">
+      <c r="C167" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/root/result.xlsx
+++ b/root/result.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -72,6 +72,12 @@
         <bgColor rgb="00e0e0eb"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffcccc"/>
+        <bgColor rgb="00ffcccc"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -91,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -106,6 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -473,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,10 +522,20 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>aver</t>
         </is>
@@ -534,10 +551,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>0</v>
+        <v>640</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>216.6666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -550,10 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>0</v>
+        <v>730</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>73</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>267.6666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -566,10 +595,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>0</v>
+        <v>370</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>135.6666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -582,10 +617,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>0</v>
+        <v>0.0009999999999763531</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0002999999999957481</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>333.3337666666667</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +639,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>0</v>
+        <v>9.999999974752427e-06</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>730</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>243.3333366666667</v>
       </c>
     </row>
     <row r="10">
@@ -614,10 +661,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>0</v>
+        <v>0.00100000000009004</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>333.3336666666667</v>
       </c>
     </row>
     <row r="11">
@@ -630,10 +683,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>0</v>
+        <v>0.0009999999999763531</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>460</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>153.3336666666667</v>
       </c>
     </row>
     <row r="12">
@@ -646,10 +705,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>0</v>
+        <v>9.999999997489795e-05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.001500000000021373</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>333.3338666666667</v>
       </c>
     </row>
     <row r="13">
@@ -662,10 +727,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>0</v>
+        <v>0.0009999999999763531</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>460</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>153.3336666666667</v>
       </c>
     </row>
     <row r="14">
@@ -678,10 +749,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>0</v>
+        <v>0.0009999999999763531</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>3333.333666666667</v>
       </c>
     </row>
     <row r="15">
@@ -696,8 +773,14 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="7" t="n">
-        <v>0</v>
+      <c r="D15" t="n">
+        <v>0.002999999999929059</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>0.0009999999999763529</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +795,13 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -728,8 +817,14 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="7" t="n">
-        <v>0</v>
+      <c r="D17" s="8" t="n">
+        <v>10200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>3400</v>
       </c>
     </row>
     <row r="18">
@@ -744,8 +839,14 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="7" t="n">
-        <v>0</v>
+      <c r="D18" s="8" t="n">
+        <v>10560</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>3520</v>
       </c>
     </row>
     <row r="19">
@@ -760,8 +861,14 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="7" t="n">
-        <v>0</v>
+      <c r="D19" s="8" t="n">
+        <v>10551</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>3517</v>
       </c>
     </row>
     <row r="20">
@@ -776,8 +883,14 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="7" t="n">
-        <v>0</v>
+      <c r="D20" t="n">
+        <v>0.0003000000001520675</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>0.0001000000000506892</v>
       </c>
     </row>
     <row r="21">
@@ -792,8 +905,14 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="7" t="n">
-        <v>0</v>
+      <c r="D21" t="n">
+        <v>570</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="22">
@@ -808,8 +927,14 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="7" t="n">
-        <v>0</v>
+      <c r="D22" t="n">
+        <v>660</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="23">
@@ -824,8 +949,14 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="7" t="n">
-        <v>0</v>
+      <c r="D23" t="n">
+        <v>0.2750999999999948</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>0.09169999999999827</v>
       </c>
     </row>
     <row r="24">
@@ -840,8 +971,14 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="7" t="n">
-        <v>0</v>
+      <c r="D24" t="n">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>0.001000000000000038</v>
       </c>
     </row>
     <row r="25">
@@ -856,8 +993,14 @@
       <c r="C25" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="7" t="n">
-        <v>0</v>
+      <c r="D25" t="n">
+        <v>0.01409999999999911</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>0.004699999999999704</v>
       </c>
     </row>
     <row r="26">
@@ -872,8 +1015,14 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="7" t="n">
-        <v>0</v>
+      <c r="D26" t="n">
+        <v>0.000300000000009959</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>0.0001000000000033197</v>
       </c>
     </row>
     <row r="27">
@@ -888,7 +1037,13 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -904,7 +1059,13 @@
       <c r="C28" t="n">
         <v>0</v>
       </c>
-      <c r="D28" s="7" t="n">
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -920,7 +1081,13 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +1103,13 @@
       <c r="C30" t="n">
         <v>0</v>
       </c>
-      <c r="D30" s="7" t="n">
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -952,7 +1125,13 @@
       <c r="C31" t="n">
         <v>0</v>
       </c>
-      <c r="D31" s="7" t="n">
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -968,7 +1147,13 @@
       <c r="C32" t="n">
         <v>0</v>
       </c>
-      <c r="D32" s="7" t="n">
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -984,7 +1169,13 @@
       <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D33" s="7" t="n">
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1000,7 +1191,13 @@
       <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D34" s="7" t="n">
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1016,7 +1213,13 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,7 +1235,13 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1048,7 +1257,13 @@
       <c r="C37" t="n">
         <v>0</v>
       </c>
-      <c r="D37" s="7" t="n">
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1064,7 +1279,13 @@
       <c r="C38" t="n">
         <v>0</v>
       </c>
-      <c r="D38" s="7" t="n">
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1080,8 +1301,14 @@
       <c r="C39" t="n">
         <v>0</v>
       </c>
-      <c r="D39" s="7" t="n">
-        <v>0</v>
+      <c r="D39" t="n">
+        <v>0.0005999999999986017</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>0.0001999999999995339</v>
       </c>
     </row>
     <row r="40">
@@ -1096,8 +1323,14 @@
       <c r="C40" t="n">
         <v>0</v>
       </c>
-      <c r="D40" s="7" t="n">
-        <v>0</v>
+      <c r="D40" t="n">
+        <v>0.0002999999999957481</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>9.999999999858271e-05</v>
       </c>
     </row>
     <row r="41">
@@ -1112,7 +1345,13 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1128,8 +1367,14 @@
       <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="7" t="n">
-        <v>0</v>
+      <c r="D42" t="n">
+        <v>300</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -1144,8 +1389,14 @@
       <c r="C43" t="n">
         <v>0</v>
       </c>
-      <c r="D43" s="7" t="n">
-        <v>0</v>
+      <c r="D43" t="n">
+        <v>0.0002999999999957481</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7" t="n">
+        <v>9.999999999858271e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1160,8 +1411,14 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="7" t="n">
-        <v>0</v>
+      <c r="D44" s="8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -1176,8 +1433,14 @@
       <c r="C45" t="n">
         <v>0</v>
       </c>
-      <c r="D45" s="7" t="n">
-        <v>0</v>
+      <c r="D45" t="n">
+        <v>750</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="46">
@@ -1192,8 +1455,14 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
-      <c r="D46" s="7" t="n">
-        <v>0</v>
+      <c r="D46" s="8" t="n">
+        <v>7212</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v>2404</v>
       </c>
     </row>
     <row r="47">
@@ -1208,8 +1477,14 @@
       <c r="C47" t="n">
         <v>0</v>
       </c>
-      <c r="D47" s="7" t="n">
-        <v>0</v>
+      <c r="D47" s="8" t="n">
+        <v>4800</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="48">
@@ -1224,8 +1499,14 @@
       <c r="C48" t="n">
         <v>0</v>
       </c>
-      <c r="D48" s="7" t="n">
-        <v>0</v>
+      <c r="D48" s="8" t="n">
+        <v>6690</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8" t="n">
+        <v>2230</v>
       </c>
     </row>
     <row r="49">
@@ -1234,14 +1515,20 @@
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
-          <t>L1MP</t>
+          <t>U6MP</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
-      <c r="D49" s="7" t="n">
-        <v>0</v>
+      <c r="D49" t="n">
+        <v>0.4289999999999736</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7" t="n">
+        <v>0.1429999999999912</v>
       </c>
     </row>
     <row r="50">
@@ -1250,13 +1537,19 @@
       </c>
       <c r="B50" s="6" t="inlineStr">
         <is>
-          <t>R L1CP</t>
+          <t>L1MP</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="D50" s="7" t="n">
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,13 +1559,19 @@
       </c>
       <c r="B51" s="6" t="inlineStr">
         <is>
-          <t>R L1RP</t>
+          <t>R L1CP</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="D51" s="7" t="n">
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1282,13 +1581,19 @@
       </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
-          <t>L L1CP</t>
+          <t>R L1RP</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" s="7" t="n">
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1298,13 +1603,19 @@
       </c>
       <c r="B53" s="6" t="inlineStr">
         <is>
-          <t>L L1RP</t>
+          <t>L L1CP</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" s="7" t="n">
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1314,13 +1625,19 @@
       </c>
       <c r="B54" s="6" t="inlineStr">
         <is>
-          <t>R L3CP</t>
+          <t>L L1RP</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54" s="7" t="n">
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,13 +1647,19 @@
       </c>
       <c r="B55" s="6" t="inlineStr">
         <is>
-          <t>R L3RP</t>
+          <t>R L3CP</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
-      <c r="D55" s="7" t="n">
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1346,13 +1669,19 @@
       </c>
       <c r="B56" s="6" t="inlineStr">
         <is>
-          <t>L L3CP</t>
+          <t>R L3RP</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" s="7" t="n">
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1362,13 +1691,19 @@
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
-          <t>L L3RP</t>
+          <t>L L3CP</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
-      <c r="D57" s="7" t="n">
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1378,13 +1713,19 @@
       </c>
       <c r="B58" s="6" t="inlineStr">
         <is>
-          <t>R L6CP</t>
+          <t>L L3RP</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="D58" s="7" t="n">
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1394,13 +1735,19 @@
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
-          <t>R L6RP</t>
+          <t>R L6CP</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
-      <c r="D59" s="7" t="n">
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1410,13 +1757,19 @@
       </c>
       <c r="B60" s="6" t="inlineStr">
         <is>
-          <t>L L6CP</t>
+          <t>R L6RP</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
-      <c r="D60" s="7" t="n">
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1426,13 +1779,19 @@
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>L L6RP</t>
+          <t>L L6CP</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
-      <c r="D61" s="7" t="n">
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1442,13 +1801,19 @@
       </c>
       <c r="B62" s="6" t="inlineStr">
         <is>
-          <t>Stomion super</t>
+          <t>L L6RP</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
-      <c r="D62" s="7" t="n">
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1458,13 +1823,19 @@
       </c>
       <c r="B63" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columella	</t>
+          <t>L6MP</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
-      <c r="D63" s="7" t="n">
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,13 +1845,19 @@
       </c>
       <c r="B64" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Subnasale	</t>
+          <t>Stomion superius</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
-      <c r="D64" s="7" t="n">
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1490,13 +1867,19 @@
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Upper lip	</t>
+          <t>Columella</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
-      <c r="D65" s="7" t="n">
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1506,13 +1889,19 @@
       </c>
       <c r="B66" s="6" t="inlineStr">
         <is>
-          <t>S Pogonion</t>
+          <t>Subnasale</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
-      <c r="D66" s="7" t="n">
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1522,13 +1911,19 @@
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
-          <t>R U2CP</t>
+          <t>Upper lip</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
-      <c r="D67" s="7" t="n">
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,13 +1933,19 @@
       </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
-          <t>R U2RP</t>
+          <t>R U2CP</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
-      <c r="D68" s="7" t="n">
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1554,13 +1955,19 @@
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>L U2CP</t>
+          <t>R U2RP</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69" s="7" t="n">
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1570,13 +1977,19 @@
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
-          <t>L U2RP</t>
+          <t>L U2CP</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
-      <c r="D70" s="7" t="n">
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1586,13 +1999,19 @@
       </c>
       <c r="B71" s="6" t="inlineStr">
         <is>
-          <t>R U4CP</t>
+          <t>L U2RP</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
-      <c r="D71" s="7" t="n">
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1602,11 +2021,13 @@
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>R U4RP</t>
-        </is>
-      </c>
-      <c r="C72" s="8" t="inlineStr"/>
-      <c r="D72" s="8" t="inlineStr"/>
+          <t>R U4CP</t>
+        </is>
+      </c>
+      <c r="C72" s="9" t="inlineStr"/>
+      <c r="D72" s="9" t="inlineStr"/>
+      <c r="E72" s="9" t="inlineStr"/>
+      <c r="F72" s="9" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="n">
@@ -1614,11 +2035,13 @@
       </c>
       <c r="B73" s="6" t="inlineStr">
         <is>
-          <t>L U4CP</t>
-        </is>
-      </c>
-      <c r="C73" s="8" t="inlineStr"/>
-      <c r="D73" s="8" t="inlineStr"/>
+          <t>R U4RP</t>
+        </is>
+      </c>
+      <c r="C73" s="9" t="inlineStr"/>
+      <c r="D73" s="9" t="inlineStr"/>
+      <c r="E73" s="9" t="inlineStr"/>
+      <c r="F73" s="9" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="n">
@@ -1626,11 +2049,13 @@
       </c>
       <c r="B74" s="6" t="inlineStr">
         <is>
-          <t>L U4RP</t>
-        </is>
-      </c>
-      <c r="C74" s="8" t="inlineStr"/>
-      <c r="D74" s="8" t="inlineStr"/>
+          <t>L U4CP</t>
+        </is>
+      </c>
+      <c r="C74" s="9" t="inlineStr"/>
+      <c r="D74" s="9" t="inlineStr"/>
+      <c r="E74" s="9" t="inlineStr"/>
+      <c r="F74" s="9" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="n">
@@ -1638,11 +2063,13 @@
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>R U5CP</t>
-        </is>
-      </c>
-      <c r="C75" s="8" t="inlineStr"/>
-      <c r="D75" s="8" t="inlineStr"/>
+          <t>L U4RP</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="inlineStr"/>
+      <c r="D75" s="9" t="inlineStr"/>
+      <c r="E75" s="9" t="inlineStr"/>
+      <c r="F75" s="9" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="n">
@@ -1650,13 +2077,19 @@
       </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
-          <t>R U5RP</t>
+          <t>R U5CP</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
-      <c r="D76" s="7" t="n">
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1666,13 +2099,19 @@
       </c>
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t>L U5CP</t>
+          <t>R U5RP</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
-      <c r="D77" s="7" t="n">
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,13 +2121,19 @@
       </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
-          <t>L U5RP</t>
+          <t>L U5CP</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
-      <c r="D78" s="7" t="n">
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1698,13 +2143,19 @@
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>R U7CP</t>
+          <t>L U5RP</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
-      <c r="D79" s="7" t="n">
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1714,13 +2165,19 @@
       </c>
       <c r="B80" s="6" t="inlineStr">
         <is>
-          <t>R U7RP</t>
+          <t>R U7CP</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
-      <c r="D80" s="7" t="n">
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1730,13 +2187,19 @@
       </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
-          <t>L U7CP</t>
+          <t>R U7RP</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
-      <c r="D81" s="7" t="n">
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,14 +2209,20 @@
       </c>
       <c r="B82" s="6" t="inlineStr">
         <is>
-          <t>L U7RP</t>
+          <t>L U7CP</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
-      <c r="D82" s="7" t="n">
-        <v>0</v>
+      <c r="D82" t="n">
+        <v>0.003000000000156433</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7" t="n">
+        <v>0.001000000000052144</v>
       </c>
     </row>
     <row r="83">
@@ -1762,14 +2231,20 @@
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>R L2CP</t>
+          <t>L U7RP</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
-      <c r="D83" s="7" t="n">
-        <v>0</v>
+      <c r="D83" t="n">
+        <v>300</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="84">
@@ -1778,14 +2253,20 @@
       </c>
       <c r="B84" s="6" t="inlineStr">
         <is>
-          <t>R L2RP</t>
+          <t>R L2CP</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
-      <c r="D84" s="7" t="n">
-        <v>0</v>
+      <c r="D84" t="n">
+        <v>0.001199999999997203</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7" t="n">
+        <v>0.0003999999999990677</v>
       </c>
     </row>
     <row r="85">
@@ -1794,14 +2275,20 @@
       </c>
       <c r="B85" s="6" t="inlineStr">
         <is>
-          <t>L L2CP</t>
+          <t>R L2RP</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
-      <c r="D85" s="7" t="n">
-        <v>0</v>
+      <c r="D85" t="n">
+        <v>0.002399999999994407</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" s="7" t="n">
+        <v>0.0007999999999981356</v>
       </c>
     </row>
     <row r="86">
@@ -1810,14 +2297,20 @@
       </c>
       <c r="B86" s="6" t="inlineStr">
         <is>
-          <t>L L2RP</t>
+          <t>L L2CP</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
-      <c r="D86" s="7" t="n">
-        <v>0</v>
+      <c r="D86" t="n">
+        <v>0.000300000000009959</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" s="7" t="n">
+        <v>0.0001000000000033197</v>
       </c>
     </row>
     <row r="87">
@@ -1826,14 +2319,20 @@
       </c>
       <c r="B87" s="6" t="inlineStr">
         <is>
-          <t>R L4CP</t>
+          <t>L L2RP</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
-      <c r="D87" s="7" t="n">
-        <v>0</v>
+      <c r="D87" s="8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="7" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="88">
@@ -1842,13 +2341,19 @@
       </c>
       <c r="B88" s="6" t="inlineStr">
         <is>
-          <t>R L4RP</t>
+          <t>R L4CP</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
-      <c r="D88" s="7" t="n">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1858,13 +2363,19 @@
       </c>
       <c r="B89" s="6" t="inlineStr">
         <is>
-          <t>L L4CP</t>
+          <t>R L4RP</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
-      <c r="D89" s="7" t="n">
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1874,13 +2385,19 @@
       </c>
       <c r="B90" s="6" t="inlineStr">
         <is>
-          <t>L L4RP</t>
+          <t>L L4CP</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
-      <c r="D90" s="7" t="n">
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,13 +2407,19 @@
       </c>
       <c r="B91" s="6" t="inlineStr">
         <is>
-          <t>R L5CP</t>
+          <t>L L4RP</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
-      <c r="D91" s="7" t="n">
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1906,11 +2429,13 @@
       </c>
       <c r="B92" s="6" t="inlineStr">
         <is>
-          <t>R L5RP</t>
-        </is>
-      </c>
-      <c r="C92" s="8" t="inlineStr"/>
-      <c r="D92" s="8" t="inlineStr"/>
+          <t>R L5CP</t>
+        </is>
+      </c>
+      <c r="C92" s="9" t="inlineStr"/>
+      <c r="D92" s="9" t="inlineStr"/>
+      <c r="E92" s="9" t="inlineStr"/>
+      <c r="F92" s="9" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="5" t="n">
@@ -1918,11 +2443,13 @@
       </c>
       <c r="B93" s="6" t="inlineStr">
         <is>
-          <t>L L5CP</t>
-        </is>
-      </c>
-      <c r="C93" s="8" t="inlineStr"/>
-      <c r="D93" s="8" t="inlineStr"/>
+          <t>R L5RP</t>
+        </is>
+      </c>
+      <c r="C93" s="9" t="inlineStr"/>
+      <c r="D93" s="9" t="inlineStr"/>
+      <c r="E93" s="9" t="inlineStr"/>
+      <c r="F93" s="9" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="5" t="n">
@@ -1930,11 +2457,13 @@
       </c>
       <c r="B94" s="6" t="inlineStr">
         <is>
-          <t>L L5RP</t>
-        </is>
-      </c>
-      <c r="C94" s="8" t="inlineStr"/>
-      <c r="D94" s="8" t="inlineStr"/>
+          <t>L L5CP</t>
+        </is>
+      </c>
+      <c r="C94" s="9" t="inlineStr"/>
+      <c r="D94" s="9" t="inlineStr"/>
+      <c r="E94" s="9" t="inlineStr"/>
+      <c r="F94" s="9" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="5" t="n">
@@ -1942,11 +2471,13 @@
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>R L7CP</t>
-        </is>
-      </c>
-      <c r="C95" s="8" t="inlineStr"/>
-      <c r="D95" s="8" t="inlineStr"/>
+          <t>L L5RP</t>
+        </is>
+      </c>
+      <c r="C95" s="9" t="inlineStr"/>
+      <c r="D95" s="9" t="inlineStr"/>
+      <c r="E95" s="9" t="inlineStr"/>
+      <c r="F95" s="9" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="5" t="n">
@@ -1954,14 +2485,20 @@
       </c>
       <c r="B96" s="6" t="inlineStr">
         <is>
-          <t>R L7RP</t>
+          <t>R L7CP</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
-      <c r="D96" s="7" t="n">
-        <v>0</v>
+      <c r="D96" t="n">
+        <v>831</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" s="7" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="97">
@@ -1970,14 +2507,20 @@
       </c>
       <c r="B97" s="6" t="inlineStr">
         <is>
-          <t>L L7CP</t>
+          <t>R L7RP</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
-      <c r="D97" s="7" t="n">
-        <v>0</v>
+      <c r="D97" t="n">
+        <v>903</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" s="7" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="98">
@@ -1986,13 +2529,19 @@
       </c>
       <c r="B98" s="6" t="inlineStr">
         <is>
-          <t>L L7RP</t>
+          <t>L L7CP</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
-      <c r="D98" s="7" t="n">
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2002,13 +2551,19 @@
       </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
-          <t>R U8CP</t>
+          <t>L L7RP</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
-      <c r="D99" s="7" t="n">
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2018,13 +2573,19 @@
       </c>
       <c r="B100" s="6" t="inlineStr">
         <is>
-          <t>R U8RP</t>
+          <t>R U8CP</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
-      <c r="D100" s="7" t="n">
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2034,13 +2595,19 @@
       </c>
       <c r="B101" s="6" t="inlineStr">
         <is>
-          <t>L U8CP</t>
+          <t>R U8RP</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
-      <c r="D101" s="7" t="n">
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2050,14 +2617,20 @@
       </c>
       <c r="B102" s="6" t="inlineStr">
         <is>
-          <t>L U8RP</t>
+          <t>L U8CP</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
-      <c r="D102" s="7" t="n">
-        <v>0</v>
+      <c r="D102" s="8" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" s="8" t="n">
+        <v>40000</v>
       </c>
     </row>
     <row r="103">
@@ -2066,14 +2639,20 @@
       </c>
       <c r="B103" s="6" t="inlineStr">
         <is>
-          <t>R L8CP</t>
+          <t>L U8RP</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
-      <c r="D103" s="7" t="n">
-        <v>0</v>
+      <c r="D103" t="n">
+        <v>840</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" s="7" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="104">
@@ -2082,14 +2661,20 @@
       </c>
       <c r="B104" s="6" t="inlineStr">
         <is>
-          <t>R L8RP</t>
+          <t>R L8CP</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
-      <c r="D104" s="7" t="n">
-        <v>0</v>
+      <c r="D104" t="n">
+        <v>0.01950000000000784</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" s="7" t="n">
+        <v>0.006500000000002614</v>
       </c>
     </row>
     <row r="105">
@@ -2098,14 +2683,20 @@
       </c>
       <c r="B105" s="6" t="inlineStr">
         <is>
-          <t>L L8CP</t>
+          <t>R L8RP</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
-      <c r="D105" s="7" t="n">
-        <v>0</v>
+      <c r="D105" t="n">
+        <v>0.004199999999997317</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" s="7" t="n">
+        <v>0.001399999999999106</v>
       </c>
     </row>
     <row r="106">
@@ -2114,13 +2705,19 @@
       </c>
       <c r="B106" s="6" t="inlineStr">
         <is>
-          <t>L L8RP</t>
+          <t>L L8CP</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
-      <c r="D106" s="7" t="n">
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2130,13 +2727,19 @@
       </c>
       <c r="B107" s="6" t="inlineStr">
         <is>
-          <t>S Glabella</t>
+          <t>L L8RP</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
-      <c r="D107" s="7" t="n">
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2146,13 +2749,19 @@
       </c>
       <c r="B108" s="6" t="inlineStr">
         <is>
-          <t>S Nasion</t>
+          <t>S Glabella</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
-      <c r="D108" s="7" t="n">
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,13 +2771,19 @@
       </c>
       <c r="B109" s="6" t="inlineStr">
         <is>
-          <t>Pronasale</t>
+          <t>S Nasion</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
-      <c r="D109" s="7" t="n">
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2178,13 +2793,19 @@
       </c>
       <c r="B110" s="6" t="inlineStr">
         <is>
-          <t>Lower lip</t>
+          <t>Pronasale</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
-      <c r="D110" s="7" t="n">
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2194,13 +2815,19 @@
       </c>
       <c r="B111" s="6" t="inlineStr">
         <is>
-          <t>Mentolabial Sulc</t>
+          <t>Lower lip</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>0</v>
       </c>
-      <c r="D111" s="7" t="n">
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2210,13 +2837,19 @@
       </c>
       <c r="B112" s="6" t="inlineStr">
         <is>
-          <t>Base of Epiglott</t>
+          <t>Base of Epiglottis</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
-      <c r="D112" s="7" t="n">
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2226,13 +2859,19 @@
       </c>
       <c r="B113" s="6" t="inlineStr">
         <is>
-          <t>R Cd-L</t>
+          <t>Base of Epiglottis</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
-      <c r="D113" s="7" t="n">
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2242,13 +2881,19 @@
       </c>
       <c r="B114" s="6" t="inlineStr">
         <is>
-          <t>R Cd-M</t>
+          <t>R Cd-C</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
-      <c r="D114" s="7" t="n">
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2258,13 +2903,19 @@
       </c>
       <c r="B115" s="6" t="inlineStr">
         <is>
-          <t>R C Cd-S</t>
+          <t>R Cd-M</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>0</v>
       </c>
-      <c r="D115" s="7" t="n">
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2274,13 +2925,19 @@
       </c>
       <c r="B116" s="6" t="inlineStr">
         <is>
-          <t>R GF-L</t>
+          <t>R C Cd-S</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
-      <c r="D116" s="7" t="n">
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2290,13 +2947,19 @@
       </c>
       <c r="B117" s="6" t="inlineStr">
         <is>
-          <t>R GF-M</t>
+          <t>R GF-L</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
-      <c r="D117" s="7" t="n">
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,13 +2969,19 @@
       </c>
       <c r="B118" s="6" t="inlineStr">
         <is>
-          <t>R C GF-S</t>
+          <t>R GF-M</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
-      <c r="D118" s="7" t="n">
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2322,13 +2991,19 @@
       </c>
       <c r="B119" s="6" t="inlineStr">
         <is>
-          <t>R Cd-A</t>
+          <t>R C GF-S</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
-      <c r="D119" s="7" t="n">
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2338,13 +3013,19 @@
       </c>
       <c r="B120" s="6" t="inlineStr">
         <is>
-          <t>R Cd-P</t>
+          <t>R Cd-A</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>0</v>
       </c>
-      <c r="D120" s="7" t="n">
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2354,14 +3035,20 @@
       </c>
       <c r="B121" s="6" t="inlineStr">
         <is>
-          <t>R S Cd-S</t>
+          <t>R Cd-P</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
-      <c r="D121" s="7" t="n">
-        <v>0</v>
+      <c r="D121" t="n">
+        <v>0.05369999999999209</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" s="7" t="n">
+        <v>0.01789999999999736</v>
       </c>
     </row>
     <row r="122">
@@ -2370,13 +3057,19 @@
       </c>
       <c r="B122" s="6" t="inlineStr">
         <is>
-          <t>R GF-A</t>
+          <t>R S Cd-S</t>
         </is>
       </c>
       <c r="C122" t="n">
         <v>0</v>
       </c>
-      <c r="D122" s="7" t="n">
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2386,14 +3079,20 @@
       </c>
       <c r="B123" s="6" t="inlineStr">
         <is>
-          <t>R GF-P</t>
+          <t>R GF-A</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
-      <c r="D123" s="7" t="n">
-        <v>0</v>
+      <c r="D123" t="n">
+        <v>0.003299999999995862</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" s="7" t="n">
+        <v>0.001099999999998621</v>
       </c>
     </row>
     <row r="124">
@@ -2402,14 +3101,20 @@
       </c>
       <c r="B124" s="6" t="inlineStr">
         <is>
-          <t>R S GF-S</t>
+          <t>R GF-P</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
-      <c r="D124" s="7" t="n">
-        <v>0</v>
+      <c r="D124" t="n">
+        <v>0.000300000000009959</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" s="7" t="n">
+        <v>0.0001000000000033197</v>
       </c>
     </row>
     <row r="125">
@@ -2418,14 +3123,20 @@
       </c>
       <c r="B125" s="6" t="inlineStr">
         <is>
-          <t>L Cd-L</t>
+          <t>R S GF-S</t>
         </is>
       </c>
       <c r="C125" t="n">
         <v>0</v>
       </c>
-      <c r="D125" s="7" t="n">
-        <v>0</v>
+      <c r="D125" s="8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" s="8" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="126">
@@ -2434,13 +3145,19 @@
       </c>
       <c r="B126" s="6" t="inlineStr">
         <is>
-          <t>L Cd-M</t>
+          <t>L Cd-C</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>0</v>
       </c>
-      <c r="D126" s="7" t="n">
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2450,14 +3167,20 @@
       </c>
       <c r="B127" s="6" t="inlineStr">
         <is>
-          <t>L C Cd-S</t>
+          <t>L Cd-L</t>
         </is>
       </c>
       <c r="C127" t="n">
         <v>0</v>
       </c>
-      <c r="D127" s="7" t="n">
-        <v>0</v>
+      <c r="D127" s="8" t="n">
+        <v>12180</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" s="8" t="n">
+        <v>4060</v>
       </c>
     </row>
     <row r="128">
@@ -2466,13 +3189,19 @@
       </c>
       <c r="B128" s="6" t="inlineStr">
         <is>
-          <t>L GF-L</t>
+          <t>L Cd-M</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>0</v>
       </c>
-      <c r="D128" s="7" t="n">
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2482,13 +3211,19 @@
       </c>
       <c r="B129" s="6" t="inlineStr">
         <is>
-          <t>L GF-M</t>
+          <t>L C Cd-S</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
-      <c r="D129" s="7" t="n">
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2498,14 +3233,20 @@
       </c>
       <c r="B130" s="6" t="inlineStr">
         <is>
-          <t>L C GF-S</t>
+          <t>L GF-L</t>
         </is>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
-      <c r="D130" s="7" t="n">
-        <v>0</v>
+      <c r="D130" t="n">
+        <v>0.01739999999995234</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" s="7" t="n">
+        <v>0.005799999999984113</v>
       </c>
     </row>
     <row r="131">
@@ -2514,14 +3255,20 @@
       </c>
       <c r="B131" s="6" t="inlineStr">
         <is>
-          <t>L Cd-A</t>
+          <t>L GF-M</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>0</v>
       </c>
-      <c r="D131" s="7" t="n">
-        <v>0</v>
+      <c r="D131" t="n">
+        <v>0.0005999999993946403</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" s="7" t="n">
+        <v>0.0001999999997982135</v>
       </c>
     </row>
     <row r="132">
@@ -2530,13 +3277,19 @@
       </c>
       <c r="B132" s="6" t="inlineStr">
         <is>
-          <t>L Cd-P</t>
+          <t>L C GF-S</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>0</v>
       </c>
-      <c r="D132" s="7" t="n">
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2546,13 +3299,19 @@
       </c>
       <c r="B133" s="6" t="inlineStr">
         <is>
-          <t>L S Cd-S</t>
+          <t>L Cd-A</t>
         </is>
       </c>
       <c r="C133" t="n">
         <v>0</v>
       </c>
-      <c r="D133" s="7" t="n">
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2562,13 +3321,19 @@
       </c>
       <c r="B134" s="6" t="inlineStr">
         <is>
-          <t>L GF-A</t>
+          <t>L Cd-P</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>0</v>
       </c>
-      <c r="D134" s="7" t="n">
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,13 +3343,19 @@
       </c>
       <c r="B135" s="6" t="inlineStr">
         <is>
-          <t>L GF-P</t>
+          <t>L S Cd-S</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>0</v>
       </c>
-      <c r="D135" s="7" t="n">
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2594,14 +3365,20 @@
       </c>
       <c r="B136" s="6" t="inlineStr">
         <is>
-          <t>L S GF-S</t>
+          <t>L GF-A</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>0</v>
       </c>
-      <c r="D136" s="7" t="n">
-        <v>0</v>
+      <c r="D136" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" s="7" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="137">
@@ -2610,14 +3387,20 @@
       </c>
       <c r="B137" s="6" t="inlineStr">
         <is>
-          <t>R Ant. Zygoma</t>
+          <t>L GF-P</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>0</v>
       </c>
-      <c r="D137" s="7" t="n">
-        <v>0</v>
+      <c r="D137" t="n">
+        <v>300</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" s="7" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="138">
@@ -2626,14 +3409,20 @@
       </c>
       <c r="B138" s="6" t="inlineStr">
         <is>
-          <t>L Ant. Zygoma</t>
+          <t>L S GF-S</t>
         </is>
       </c>
       <c r="C138" t="n">
         <v>0</v>
       </c>
-      <c r="D138" s="7" t="n">
-        <v>0</v>
+      <c r="D138" s="8" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" s="8" t="n">
+        <v>3100</v>
       </c>
     </row>
     <row r="139">
@@ -2642,13 +3431,19 @@
       </c>
       <c r="B139" s="6" t="inlineStr">
         <is>
-          <t>R Zygion</t>
+          <t>R Ant. Zygoma</t>
         </is>
       </c>
       <c r="C139" t="n">
         <v>0</v>
       </c>
-      <c r="D139" s="7" t="n">
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2658,14 +3453,20 @@
       </c>
       <c r="B140" s="6" t="inlineStr">
         <is>
-          <t>L Zygion</t>
+          <t>L Ant. Zygoma</t>
         </is>
       </c>
       <c r="C140" t="n">
         <v>0</v>
       </c>
-      <c r="D140" s="7" t="n">
-        <v>0</v>
+      <c r="D140" s="8" t="n">
+        <v>14646</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" s="8" t="n">
+        <v>4882</v>
       </c>
     </row>
     <row r="141">
@@ -2674,14 +3475,20 @@
       </c>
       <c r="B141" s="6" t="inlineStr">
         <is>
-          <t>R Endocanthion</t>
+          <t>R Zygion</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>0</v>
       </c>
-      <c r="D141" s="7" t="n">
-        <v>0</v>
+      <c r="D141" t="n">
+        <v>0.01200000000000045</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" s="7" t="n">
+        <v>0.00400000000000015</v>
       </c>
     </row>
     <row r="142">
@@ -2690,14 +3497,20 @@
       </c>
       <c r="B142" s="6" t="inlineStr">
         <is>
-          <t>L Endocanthion</t>
+          <t>L Zygion</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>0</v>
       </c>
-      <c r="D142" s="7" t="n">
-        <v>0</v>
+      <c r="D142" t="n">
+        <v>0.01199999999994361</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" s="7" t="n">
+        <v>0.003999999999981203</v>
       </c>
     </row>
     <row r="143">
@@ -2706,13 +3519,19 @@
       </c>
       <c r="B143" s="6" t="inlineStr">
         <is>
-          <t>R Exocanthion</t>
+          <t>R Endocanthion</t>
         </is>
       </c>
       <c r="C143" t="n">
         <v>0</v>
       </c>
-      <c r="D143" s="7" t="n">
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,13 +3541,19 @@
       </c>
       <c r="B144" s="6" t="inlineStr">
         <is>
-          <t>L Exocanthion</t>
+          <t>L Endocanthion</t>
         </is>
       </c>
       <c r="C144" t="n">
         <v>0</v>
       </c>
-      <c r="D144" s="7" t="n">
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2738,13 +3563,19 @@
       </c>
       <c r="B145" s="6" t="inlineStr">
         <is>
-          <t>R S Ant. Zygoma</t>
+          <t>R Exocanthion</t>
         </is>
       </c>
       <c r="C145" t="n">
         <v>0</v>
       </c>
-      <c r="D145" s="7" t="n">
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2754,19 +3585,25 @@
       </c>
       <c r="B146" s="6" t="inlineStr">
         <is>
-          <t>L S Ant. Zygoma</t>
+          <t>L Exocanthion</t>
         </is>
       </c>
       <c r="C146" t="n">
         <v>0</v>
       </c>
-      <c r="D146" s="7" t="n">
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="5" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B147" s="6" t="inlineStr">
         <is>
@@ -2776,13 +3613,19 @@
       <c r="C147" t="n">
         <v>0</v>
       </c>
-      <c r="D147" s="7" t="n">
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="5" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B148" s="6" t="inlineStr">
         <is>
@@ -2792,13 +3635,19 @@
       <c r="C148" t="n">
         <v>0</v>
       </c>
-      <c r="D148" s="7" t="n">
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="5" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B149" s="6" t="inlineStr">
         <is>
@@ -2808,13 +3657,19 @@
       <c r="C149" t="n">
         <v>0</v>
       </c>
-      <c r="D149" s="7" t="n">
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="5" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B150" s="6" t="inlineStr">
         <is>
@@ -2824,13 +3679,19 @@
       <c r="C150" t="n">
         <v>0</v>
       </c>
-      <c r="D150" s="7" t="n">
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="5" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B151" s="6" t="inlineStr">
         <is>
@@ -2840,13 +3701,19 @@
       <c r="C151" t="n">
         <v>0</v>
       </c>
-      <c r="D151" s="7" t="n">
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="5" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
@@ -2856,13 +3723,19 @@
       <c r="C152" t="n">
         <v>0</v>
       </c>
-      <c r="D152" s="7" t="n">
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="5" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B153" s="6" t="inlineStr">
         <is>
@@ -2872,13 +3745,19 @@
       <c r="C153" t="n">
         <v>0</v>
       </c>
-      <c r="D153" s="7" t="n">
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="5" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B154" s="6" t="inlineStr">
         <is>
@@ -2888,13 +3767,19 @@
       <c r="C154" t="n">
         <v>0</v>
       </c>
-      <c r="D154" s="7" t="n">
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="5" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B155" s="6" t="inlineStr">
         <is>
@@ -2904,194 +3789,259 @@
       <c r="C155" t="n">
         <v>0</v>
       </c>
-      <c r="D155" s="7" t="n">
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="5" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B156" s="6" t="inlineStr">
         <is>
           <t>Labiale Inferius</t>
         </is>
       </c>
-      <c r="C156" t="n">
-        <v>0</v>
-      </c>
-      <c r="D156" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="C156" s="9" t="inlineStr"/>
+      <c r="D156" s="9" t="inlineStr"/>
+      <c r="E156" s="9" t="inlineStr"/>
+      <c r="F156" s="9" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="5" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B157" s="6" t="inlineStr">
         <is>
-          <t>R S Go</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" s="7" t="n">
-        <v>0</v>
-      </c>
+          <t>R U4PRP</t>
+        </is>
+      </c>
+      <c r="C157" s="9" t="inlineStr"/>
+      <c r="D157" s="9" t="inlineStr"/>
+      <c r="E157" s="9" t="inlineStr"/>
+      <c r="F157" s="9" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="5" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B158" s="6" t="inlineStr">
         <is>
-          <t>L S Go</t>
+          <t>R U5PRP</t>
         </is>
       </c>
       <c r="C158" t="n">
         <v>0</v>
       </c>
-      <c r="D158" s="7" t="n">
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="5" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B159" s="6" t="inlineStr">
         <is>
-          <t>R U4PRP</t>
-        </is>
-      </c>
-      <c r="C159" s="8" t="inlineStr"/>
-      <c r="D159" s="8" t="inlineStr"/>
+          <t>R U6PRP</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.07179000000000713</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" s="7" t="n">
+        <v>0.02393000000000238</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="5" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B160" s="6" t="inlineStr">
         <is>
-          <t>R U5PRP</t>
+          <t>R U7PRP</t>
         </is>
       </c>
       <c r="C160" t="n">
         <v>0</v>
       </c>
-      <c r="D160" s="7" t="n">
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="5" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B161" s="6" t="inlineStr">
         <is>
-          <t>R U6PRP</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>0</v>
-      </c>
-      <c r="D161" s="7" t="n">
-        <v>0</v>
-      </c>
+          <t>L U4PRP</t>
+        </is>
+      </c>
+      <c r="C161" s="9" t="inlineStr"/>
+      <c r="D161" s="9" t="inlineStr"/>
+      <c r="E161" s="9" t="inlineStr"/>
+      <c r="F161" s="9" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="5" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B162" s="6" t="inlineStr">
         <is>
-          <t>R U7PRP</t>
+          <t>L U5PRP</t>
         </is>
       </c>
       <c r="C162" t="n">
         <v>0</v>
       </c>
-      <c r="D162" s="7" t="n">
-        <v>0</v>
+      <c r="D162" t="n">
+        <v>0.5370000000000346</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" s="7" t="n">
+        <v>0.1790000000000115</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="5" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B163" s="6" t="inlineStr">
         <is>
-          <t>L U4PRP</t>
-        </is>
-      </c>
-      <c r="C163" s="8" t="inlineStr"/>
-      <c r="D163" s="8" t="inlineStr"/>
+          <t>L U6PRP</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" s="8" t="n">
+        <v>4260</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" s="7" t="n">
+        <v>1420</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="5" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B164" s="6" t="inlineStr">
         <is>
-          <t>L U5PRP</t>
+          <t>L U7PRP</t>
         </is>
       </c>
       <c r="C164" t="n">
         <v>0</v>
       </c>
-      <c r="D164" s="7" t="n">
-        <v>0</v>
+      <c r="D164" t="n">
+        <v>300</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" s="7" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="5" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B165" s="6" t="inlineStr">
         <is>
-          <t>L U6PRP</t>
+          <t>S Menton</t>
         </is>
       </c>
       <c r="C165" t="n">
         <v>0</v>
       </c>
-      <c r="D165" s="7" t="n">
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="5" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B166" s="6" t="inlineStr">
         <is>
-          <t>L U7PRP</t>
+          <t>CNJ</t>
         </is>
       </c>
       <c r="C166" t="n">
         <v>0</v>
       </c>
-      <c r="D166" s="7" t="n">
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="167">
-      <c r="B167" s="9" t="inlineStr">
+      <c r="A167" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" s="10" t="inlineStr">
         <is>
           <t>aver</t>
         </is>
       </c>
       <c r="C167" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0</v>
+        <v>11.52321264900662</v>
+      </c>
+      <c r="D167" s="8" t="n">
+        <v>1677.844148940397</v>
+      </c>
+      <c r="E167" s="7" t="n">
+        <v>97.81456953642385</v>
+      </c>
+      <c r="F167" t="n">
+        <v>595.727310375276</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
